--- a/test/1. 各院彙整資料/商學院.xlsx
+++ b/test/1. 各院彙整資料/商學院.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\學評組工讀生\應數碩三_陳慎逸\程式學習\Index-Evaluation-Analysis-Report\test\1. 各院彙整資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4DDAEBCD-281E-4B1F-99E3-1D95BCD273B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A41C837-A70D-4ECC-B902-17C9B78E82CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{79ABEBE2-C690-4EBE-AD27-4BE4DA825727}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7557539D-04C8-4EEB-97C8-777ADABE822B}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -389,7 +389,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55048958-9D10-41F5-A042-CC9333C922AE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCC8E70F-FAD2-4F1A-907B-09B3171533EB}">
   <sheetPr codeName="工作表1"/>
   <dimension ref="A1"/>
   <sheetViews>

--- a/test/1. 各院彙整資料/商學院.xlsx
+++ b/test/1. 各院彙整資料/商學院.xlsx
@@ -5,34 +5,34 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\學評組工讀生\應數碩三_陳慎逸\程式學習\Index-Evaluation-Analysis-Report\test\1. 各院彙整資料\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\學評組工讀生\應數碩三_陳慎逸\3. Index-Evaluation-Analysis-Report\test\1. 各院彙整資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDE98D63-16DD-4882-A4E9-2B1795D064A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{066E97A2-A27C-482A-9BBD-48D21D52EEAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{2E9BB182-6497-4499-BC43-82F52A84B2D6}"/>
+    <workbookView xWindow="1170" yWindow="600" windowWidth="17595" windowHeight="15600" firstSheet="4" activeTab="7" xr2:uid="{2E9BB182-6497-4499-BC43-82F52A84B2D6}"/>
   </bookViews>
   <sheets>
     <sheet name="小結" sheetId="1" r:id="rId1"/>
-    <sheet name="1.1.1.1 學士班繁星推薦入學錄取率" sheetId="2" r:id="rId2"/>
-    <sheet name="1.1.3.4 博士班招收國內重點大學畢業生比率" sheetId="3" r:id="rId3"/>
-    <sheet name="1.4.1.1 學士班獲獎助學金平均金額" sheetId="4" r:id="rId4"/>
-    <sheet name="1.7.1.4 碩士班平均修業年限" sheetId="5" r:id="rId5"/>
-    <sheet name="2.1.1.2 平均碩博士班修課學生人數" sheetId="6" r:id="rId6"/>
-    <sheet name="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" sheetId="7" r:id="rId7"/>
-    <sheet name="3.2.1.1 舉辦國際學術研討會數" sheetId="8" r:id="rId8"/>
+    <sheet name="1.1.1.1 學士班繁星推薦入學錄取率" sheetId="9" r:id="rId2"/>
+    <sheet name="1.1.3.4 博士班招收國內重點大學畢業生比率" sheetId="10" r:id="rId3"/>
+    <sheet name="1.4.1.1 學士班獲獎助學金平均金額" sheetId="11" r:id="rId4"/>
+    <sheet name="1.7.1.4 碩士班平均修業年限" sheetId="12" r:id="rId5"/>
+    <sheet name="2.1.1.2 平均碩博士班修課學生人數" sheetId="13" r:id="rId6"/>
+    <sheet name="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" sheetId="14" r:id="rId7"/>
+    <sheet name="3.2.1.1 舉辦國際學術研討會數" sheetId="15" r:id="rId8"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1.1.1.1 學士班繁星推薦入學錄取率'!$A$1:$G$15</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'1.1.3.4 博士班招收國內重點大學畢業生比率'!$A$1:$G$15</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'1.4.1.1 學士班獲獎助學金平均金額'!$A$1:$G$15</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'1.7.1.4 碩士班平均修業年限'!$A$1:$G$15</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'2.1.1.2 平均碩博士班修課學生人數'!$A$1:$G$15</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$A$1:$G$15</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'3.2.1.1 舉辦國際學術研討會數'!$A$1:$G$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1.1.1.1 學士班繁星推薦入學錄取率'!$A$1:$G$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'1.1.3.4 博士班招收國內重點大學畢業生比率'!$A$1:$G$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'1.4.1.1 學士班獲獎助學金平均金額'!$A$1:$G$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'1.7.1.4 碩士班平均修業年限'!$A$1:$G$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'2.1.1.2 平均碩博士班修課學生人數'!$A$1:$G$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$A$1:$G$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'3.2.1.1 舉辦國際學術研討會數'!$A$1:$G$14</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="43">
   <si>
     <t>商學院</t>
   </si>
@@ -148,9 +148,6 @@
   </si>
   <si>
     <t>300 商學院（院加總 / 院均值）</t>
-  </si>
-  <si>
-    <t>300 商學院</t>
   </si>
   <si>
     <t>301 國際經營與貿易學系</t>
@@ -509,49 +506,46 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$15</c:f>
+              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$14</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>商學院</c:v>
+                  <c:v>國貿系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>國貿系</c:v>
+                  <c:v>金融系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>金融系</c:v>
+                  <c:v>會計系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>會計系</c:v>
+                  <c:v>統計系</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>統計系</c:v>
+                  <c:v>企管系</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>企管系</c:v>
+                  <c:v>資管系</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>資管系</c:v>
+                  <c:v>財管系</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>財管系</c:v>
+                  <c:v>風管系</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>風管系</c:v>
+                  <c:v>科智所</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>科智所</c:v>
+                  <c:v>國營碩</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>國營碩</c:v>
+                  <c:v>營管碩</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>營管碩</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>企研所</c:v>
                 </c:pt>
               </c:strCache>
@@ -559,14 +553,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$F$2:$F$15</c:f>
+              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$F$2:$F$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="12">
                   <c:v>3.5000000000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -574,7 +568,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0931-47B4-91DC-571FB7C2CE82}"/>
+              <c16:uniqueId val="{00000000-953E-4F6E-9EDD-7F0D60D7D703}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -609,49 +603,46 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$15</c:f>
+              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$14</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>商學院</c:v>
+                  <c:v>國貿系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>國貿系</c:v>
+                  <c:v>金融系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>金融系</c:v>
+                  <c:v>會計系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>會計系</c:v>
+                  <c:v>統計系</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>統計系</c:v>
+                  <c:v>企管系</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>企管系</c:v>
+                  <c:v>資管系</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>資管系</c:v>
+                  <c:v>財管系</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>財管系</c:v>
+                  <c:v>風管系</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>風管系</c:v>
+                  <c:v>科智所</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>科智所</c:v>
+                  <c:v>國營碩</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>國營碩</c:v>
+                  <c:v>營管碩</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>營管碩</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>企研所</c:v>
                 </c:pt>
               </c:strCache>
@@ -659,14 +650,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$E$2:$E$15</c:f>
+              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$E$2:$E$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0.03</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="12">
                   <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
@@ -674,7 +665,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0931-47B4-91DC-571FB7C2CE82}"/>
+              <c16:uniqueId val="{00000001-953E-4F6E-9EDD-7F0D60D7D703}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -709,49 +700,46 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$15</c:f>
+              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$14</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>商學院</c:v>
+                  <c:v>國貿系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>國貿系</c:v>
+                  <c:v>金融系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>金融系</c:v>
+                  <c:v>會計系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>會計系</c:v>
+                  <c:v>統計系</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>統計系</c:v>
+                  <c:v>企管系</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>企管系</c:v>
+                  <c:v>資管系</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>資管系</c:v>
+                  <c:v>財管系</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>財管系</c:v>
+                  <c:v>風管系</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>風管系</c:v>
+                  <c:v>科智所</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>科智所</c:v>
+                  <c:v>國營碩</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>國營碩</c:v>
+                  <c:v>營管碩</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>營管碩</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>企研所</c:v>
                 </c:pt>
               </c:strCache>
@@ -759,14 +747,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$D$2:$D$15</c:f>
+              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$D$2:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="12">
                   <c:v>0.04</c:v>
                 </c:pt>
               </c:numCache>
@@ -774,7 +762,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-0931-47B4-91DC-571FB7C2CE82}"/>
+              <c16:uniqueId val="{00000002-953E-4F6E-9EDD-7F0D60D7D703}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -885,7 +873,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-0931-47B4-91DC-571FB7C2CE82}"/>
+                  <c16:uniqueId val="{00000003-953E-4F6E-9EDD-7F0D60D7D703}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -957,49 +945,46 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$15</c:f>
+              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$14</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>商學院</c:v>
+                  <c:v>國貿系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>國貿系</c:v>
+                  <c:v>金融系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>金融系</c:v>
+                  <c:v>會計系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>會計系</c:v>
+                  <c:v>統計系</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>統計系</c:v>
+                  <c:v>企管系</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>企管系</c:v>
+                  <c:v>資管系</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>資管系</c:v>
+                  <c:v>財管系</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>財管系</c:v>
+                  <c:v>風管系</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>風管系</c:v>
+                  <c:v>科智所</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>科智所</c:v>
+                  <c:v>國營碩</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>國營碩</c:v>
+                  <c:v>營管碩</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>營管碩</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>企研所</c:v>
                 </c:pt>
               </c:strCache>
@@ -1007,14 +992,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$C$2:$C$15</c:f>
+              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$C$2:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="12">
                   <c:v>0.05</c:v>
                 </c:pt>
               </c:numCache>
@@ -1023,7 +1008,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-0931-47B4-91DC-571FB7C2CE82}"/>
+              <c16:uniqueId val="{00000004-953E-4F6E-9EDD-7F0D60D7D703}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1304,49 +1289,46 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$15</c:f>
+              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$14</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>商學院</c:v>
+                  <c:v>國貿系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>國貿系</c:v>
+                  <c:v>金融系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>金融系</c:v>
+                  <c:v>會計系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>會計系</c:v>
+                  <c:v>統計系</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>統計系</c:v>
+                  <c:v>企管系</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>企管系</c:v>
+                  <c:v>資管系</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>資管系</c:v>
+                  <c:v>財管系</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>財管系</c:v>
+                  <c:v>風管系</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>風管系</c:v>
+                  <c:v>科智所</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>科智所</c:v>
+                  <c:v>國營碩</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>國營碩</c:v>
+                  <c:v>營管碩</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>營管碩</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>企研所</c:v>
                 </c:pt>
               </c:strCache>
@@ -1354,14 +1336,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$F$2:$F$15</c:f>
+              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$F$2:$F$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="12">
                   <c:v>3.5000000000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -1369,7 +1351,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6A50-4974-8625-C87313BAB4D8}"/>
+              <c16:uniqueId val="{00000000-C9EF-4A90-943B-3CE769B6800C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1404,49 +1386,46 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$15</c:f>
+              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$14</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>商學院</c:v>
+                  <c:v>國貿系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>國貿系</c:v>
+                  <c:v>金融系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>金融系</c:v>
+                  <c:v>會計系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>會計系</c:v>
+                  <c:v>統計系</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>統計系</c:v>
+                  <c:v>企管系</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>企管系</c:v>
+                  <c:v>資管系</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>資管系</c:v>
+                  <c:v>財管系</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>財管系</c:v>
+                  <c:v>風管系</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>風管系</c:v>
+                  <c:v>科智所</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>科智所</c:v>
+                  <c:v>國營碩</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>國營碩</c:v>
+                  <c:v>營管碩</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>營管碩</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>企研所</c:v>
                 </c:pt>
               </c:strCache>
@@ -1454,14 +1433,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$E$2:$E$15</c:f>
+              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$E$2:$E$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0.03</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="12">
                   <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
@@ -1469,7 +1448,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6A50-4974-8625-C87313BAB4D8}"/>
+              <c16:uniqueId val="{00000001-C9EF-4A90-943B-3CE769B6800C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1504,49 +1483,46 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$15</c:f>
+              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$14</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>商學院</c:v>
+                  <c:v>國貿系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>國貿系</c:v>
+                  <c:v>金融系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>金融系</c:v>
+                  <c:v>會計系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>會計系</c:v>
+                  <c:v>統計系</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>統計系</c:v>
+                  <c:v>企管系</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>企管系</c:v>
+                  <c:v>資管系</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>資管系</c:v>
+                  <c:v>財管系</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>財管系</c:v>
+                  <c:v>風管系</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>風管系</c:v>
+                  <c:v>科智所</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>科智所</c:v>
+                  <c:v>國營碩</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>國營碩</c:v>
+                  <c:v>營管碩</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>營管碩</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>企研所</c:v>
                 </c:pt>
               </c:strCache>
@@ -1554,14 +1530,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$D$2:$D$15</c:f>
+              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$D$2:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="12">
                   <c:v>0.04</c:v>
                 </c:pt>
               </c:numCache>
@@ -1569,7 +1545,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-6A50-4974-8625-C87313BAB4D8}"/>
+              <c16:uniqueId val="{00000002-C9EF-4A90-943B-3CE769B6800C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1680,7 +1656,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-6A50-4974-8625-C87313BAB4D8}"/>
+                  <c16:uniqueId val="{00000003-C9EF-4A90-943B-3CE769B6800C}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1752,49 +1728,46 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$15</c:f>
+              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$14</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>商學院</c:v>
+                  <c:v>國貿系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>國貿系</c:v>
+                  <c:v>金融系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>金融系</c:v>
+                  <c:v>會計系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>會計系</c:v>
+                  <c:v>統計系</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>統計系</c:v>
+                  <c:v>企管系</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>企管系</c:v>
+                  <c:v>資管系</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>資管系</c:v>
+                  <c:v>財管系</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>財管系</c:v>
+                  <c:v>風管系</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>風管系</c:v>
+                  <c:v>科智所</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>科智所</c:v>
+                  <c:v>國營碩</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>國營碩</c:v>
+                  <c:v>營管碩</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>營管碩</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>企研所</c:v>
                 </c:pt>
               </c:strCache>
@@ -1802,14 +1775,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$C$2:$C$15</c:f>
+              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$C$2:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="12">
                   <c:v>0.05</c:v>
                 </c:pt>
               </c:numCache>
@@ -1818,7 +1791,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-6A50-4974-8625-C87313BAB4D8}"/>
+              <c16:uniqueId val="{00000004-C9EF-4A90-943B-3CE769B6800C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2099,49 +2072,46 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$15</c:f>
+              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$14</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>商學院</c:v>
+                  <c:v>國貿系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>國貿系</c:v>
+                  <c:v>金融系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>金融系</c:v>
+                  <c:v>會計系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>會計系</c:v>
+                  <c:v>統計系</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>統計系</c:v>
+                  <c:v>企管系</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>企管系</c:v>
+                  <c:v>資管系</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>資管系</c:v>
+                  <c:v>財管系</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>財管系</c:v>
+                  <c:v>風管系</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>風管系</c:v>
+                  <c:v>科智所</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>科智所</c:v>
+                  <c:v>國營碩</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>國營碩</c:v>
+                  <c:v>營管碩</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>營管碩</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>企研所</c:v>
                 </c:pt>
               </c:strCache>
@@ -2149,14 +2119,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$F$2:$F$15</c:f>
+              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$F$2:$F$14</c:f>
               <c:numCache>
                 <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="12">
                   <c:v>3.5000000000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -2164,7 +2134,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3CD1-488D-B6A3-591DBFB64682}"/>
+              <c16:uniqueId val="{00000000-16FF-447C-8C2D-FCA54F174F96}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2199,49 +2169,46 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$15</c:f>
+              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$14</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>商學院</c:v>
+                  <c:v>國貿系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>國貿系</c:v>
+                  <c:v>金融系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>金融系</c:v>
+                  <c:v>會計系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>會計系</c:v>
+                  <c:v>統計系</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>統計系</c:v>
+                  <c:v>企管系</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>企管系</c:v>
+                  <c:v>資管系</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>資管系</c:v>
+                  <c:v>財管系</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>財管系</c:v>
+                  <c:v>風管系</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>風管系</c:v>
+                  <c:v>科智所</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>科智所</c:v>
+                  <c:v>國營碩</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>國營碩</c:v>
+                  <c:v>營管碩</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>營管碩</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>企研所</c:v>
                 </c:pt>
               </c:strCache>
@@ -2249,14 +2216,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$E$2:$E$15</c:f>
+              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$E$2:$E$14</c:f>
               <c:numCache>
                 <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0.03</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="12">
                   <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
@@ -2264,7 +2231,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3CD1-488D-B6A3-591DBFB64682}"/>
+              <c16:uniqueId val="{00000001-16FF-447C-8C2D-FCA54F174F96}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2299,49 +2266,46 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$15</c:f>
+              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$14</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>商學院</c:v>
+                  <c:v>國貿系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>國貿系</c:v>
+                  <c:v>金融系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>金融系</c:v>
+                  <c:v>會計系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>會計系</c:v>
+                  <c:v>統計系</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>統計系</c:v>
+                  <c:v>企管系</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>企管系</c:v>
+                  <c:v>資管系</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>資管系</c:v>
+                  <c:v>財管系</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>財管系</c:v>
+                  <c:v>風管系</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>風管系</c:v>
+                  <c:v>科智所</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>科智所</c:v>
+                  <c:v>國營碩</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>國營碩</c:v>
+                  <c:v>營管碩</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>營管碩</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>企研所</c:v>
                 </c:pt>
               </c:strCache>
@@ -2349,14 +2313,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$D$2:$D$15</c:f>
+              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$D$2:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="12">
                   <c:v>0.04</c:v>
                 </c:pt>
               </c:numCache>
@@ -2364,7 +2328,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-3CD1-488D-B6A3-591DBFB64682}"/>
+              <c16:uniqueId val="{00000002-16FF-447C-8C2D-FCA54F174F96}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2475,7 +2439,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-3CD1-488D-B6A3-591DBFB64682}"/>
+                  <c16:uniqueId val="{00000003-16FF-447C-8C2D-FCA54F174F96}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2547,49 +2511,46 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$15</c:f>
+              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$14</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>商學院</c:v>
+                  <c:v>國貿系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>國貿系</c:v>
+                  <c:v>金融系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>金融系</c:v>
+                  <c:v>會計系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>會計系</c:v>
+                  <c:v>統計系</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>統計系</c:v>
+                  <c:v>企管系</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>企管系</c:v>
+                  <c:v>資管系</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>資管系</c:v>
+                  <c:v>財管系</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>財管系</c:v>
+                  <c:v>風管系</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>風管系</c:v>
+                  <c:v>科智所</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>科智所</c:v>
+                  <c:v>國營碩</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>國營碩</c:v>
+                  <c:v>營管碩</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>營管碩</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>企研所</c:v>
                 </c:pt>
               </c:strCache>
@@ -2597,14 +2558,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$C$2:$C$15</c:f>
+              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$C$2:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="12">
                   <c:v>0.05</c:v>
                 </c:pt>
               </c:numCache>
@@ -2613,7 +2574,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-3CD1-488D-B6A3-591DBFB64682}"/>
+              <c16:uniqueId val="{00000004-16FF-447C-8C2D-FCA54F174F96}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2894,49 +2855,46 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$15</c:f>
+              <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$14</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>商學院</c:v>
+                  <c:v>國貿系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>國貿系</c:v>
+                  <c:v>金融系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>金融系</c:v>
+                  <c:v>會計系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>會計系</c:v>
+                  <c:v>統計系</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>統計系</c:v>
+                  <c:v>企管系</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>企管系</c:v>
+                  <c:v>資管系</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>資管系</c:v>
+                  <c:v>財管系</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>財管系</c:v>
+                  <c:v>風管系</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>風管系</c:v>
+                  <c:v>科智所</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>科智所</c:v>
+                  <c:v>國營碩</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>國營碩</c:v>
+                  <c:v>營管碩</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>營管碩</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>企研所</c:v>
                 </c:pt>
               </c:strCache>
@@ -2944,14 +2902,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.7.1.4 碩士班平均修業年限'!$F$2:$F$15</c:f>
+              <c:f>'1.7.1.4 碩士班平均修業年限'!$F$2:$F$14</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="12">
                   <c:v>3.5000000000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -2959,7 +2917,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5ACE-4766-98BA-83335AA59391}"/>
+              <c16:uniqueId val="{00000000-7CBC-4EE1-8A48-CC891E6C10F5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2994,49 +2952,46 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$15</c:f>
+              <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$14</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>商學院</c:v>
+                  <c:v>國貿系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>國貿系</c:v>
+                  <c:v>金融系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>金融系</c:v>
+                  <c:v>會計系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>會計系</c:v>
+                  <c:v>統計系</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>統計系</c:v>
+                  <c:v>企管系</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>企管系</c:v>
+                  <c:v>資管系</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>資管系</c:v>
+                  <c:v>財管系</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>財管系</c:v>
+                  <c:v>風管系</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>風管系</c:v>
+                  <c:v>科智所</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>科智所</c:v>
+                  <c:v>國營碩</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>國營碩</c:v>
+                  <c:v>營管碩</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>營管碩</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>企研所</c:v>
                 </c:pt>
               </c:strCache>
@@ -3044,14 +2999,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.7.1.4 碩士班平均修業年限'!$E$2:$E$15</c:f>
+              <c:f>'1.7.1.4 碩士班平均修業年限'!$E$2:$E$14</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0.03</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="12">
                   <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
@@ -3059,7 +3014,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5ACE-4766-98BA-83335AA59391}"/>
+              <c16:uniqueId val="{00000001-7CBC-4EE1-8A48-CC891E6C10F5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3094,49 +3049,46 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$15</c:f>
+              <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$14</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>商學院</c:v>
+                  <c:v>國貿系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>國貿系</c:v>
+                  <c:v>金融系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>金融系</c:v>
+                  <c:v>會計系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>會計系</c:v>
+                  <c:v>統計系</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>統計系</c:v>
+                  <c:v>企管系</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>企管系</c:v>
+                  <c:v>資管系</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>資管系</c:v>
+                  <c:v>財管系</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>財管系</c:v>
+                  <c:v>風管系</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>風管系</c:v>
+                  <c:v>科智所</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>科智所</c:v>
+                  <c:v>國營碩</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>國營碩</c:v>
+                  <c:v>營管碩</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>營管碩</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>企研所</c:v>
                 </c:pt>
               </c:strCache>
@@ -3144,14 +3096,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.7.1.4 碩士班平均修業年限'!$D$2:$D$15</c:f>
+              <c:f>'1.7.1.4 碩士班平均修業年限'!$D$2:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="12">
                   <c:v>0.04</c:v>
                 </c:pt>
               </c:numCache>
@@ -3159,7 +3111,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-5ACE-4766-98BA-83335AA59391}"/>
+              <c16:uniqueId val="{00000002-7CBC-4EE1-8A48-CC891E6C10F5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3270,7 +3222,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-5ACE-4766-98BA-83335AA59391}"/>
+                  <c16:uniqueId val="{00000003-7CBC-4EE1-8A48-CC891E6C10F5}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3342,49 +3294,46 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$15</c:f>
+              <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$14</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>商學院</c:v>
+                  <c:v>國貿系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>國貿系</c:v>
+                  <c:v>金融系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>金融系</c:v>
+                  <c:v>會計系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>會計系</c:v>
+                  <c:v>統計系</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>統計系</c:v>
+                  <c:v>企管系</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>企管系</c:v>
+                  <c:v>資管系</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>資管系</c:v>
+                  <c:v>財管系</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>財管系</c:v>
+                  <c:v>風管系</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>風管系</c:v>
+                  <c:v>科智所</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>科智所</c:v>
+                  <c:v>國營碩</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>國營碩</c:v>
+                  <c:v>營管碩</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>營管碩</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>企研所</c:v>
                 </c:pt>
               </c:strCache>
@@ -3392,14 +3341,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.7.1.4 碩士班平均修業年限'!$C$2:$C$15</c:f>
+              <c:f>'1.7.1.4 碩士班平均修業年限'!$C$2:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="12">
                   <c:v>0.05</c:v>
                 </c:pt>
               </c:numCache>
@@ -3408,7 +3357,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-5ACE-4766-98BA-83335AA59391}"/>
+              <c16:uniqueId val="{00000004-7CBC-4EE1-8A48-CC891E6C10F5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3689,49 +3638,46 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$15</c:f>
+              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$14</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>商學院</c:v>
+                  <c:v>國貿系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>國貿系</c:v>
+                  <c:v>金融系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>金融系</c:v>
+                  <c:v>會計系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>會計系</c:v>
+                  <c:v>統計系</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>統計系</c:v>
+                  <c:v>企管系</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>企管系</c:v>
+                  <c:v>資管系</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>資管系</c:v>
+                  <c:v>財管系</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>財管系</c:v>
+                  <c:v>風管系</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>風管系</c:v>
+                  <c:v>科智所</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>科智所</c:v>
+                  <c:v>國營碩</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>國營碩</c:v>
+                  <c:v>營管碩</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>營管碩</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>企研所</c:v>
                 </c:pt>
               </c:strCache>
@@ -3739,14 +3685,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$F$2:$F$15</c:f>
+              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$F$2:$F$14</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="12">
                   <c:v>3.5000000000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -3754,7 +3700,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B21B-4961-9CF6-B922F38076EB}"/>
+              <c16:uniqueId val="{00000000-CD5F-413A-8586-5AEBA3DDEEA8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3789,49 +3735,46 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$15</c:f>
+              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$14</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>商學院</c:v>
+                  <c:v>國貿系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>國貿系</c:v>
+                  <c:v>金融系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>金融系</c:v>
+                  <c:v>會計系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>會計系</c:v>
+                  <c:v>統計系</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>統計系</c:v>
+                  <c:v>企管系</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>企管系</c:v>
+                  <c:v>資管系</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>資管系</c:v>
+                  <c:v>財管系</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>財管系</c:v>
+                  <c:v>風管系</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>風管系</c:v>
+                  <c:v>科智所</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>科智所</c:v>
+                  <c:v>國營碩</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>國營碩</c:v>
+                  <c:v>營管碩</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>營管碩</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>企研所</c:v>
                 </c:pt>
               </c:strCache>
@@ -3839,14 +3782,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$E$2:$E$15</c:f>
+              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$E$2:$E$14</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0.03</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="12">
                   <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
@@ -3854,7 +3797,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B21B-4961-9CF6-B922F38076EB}"/>
+              <c16:uniqueId val="{00000001-CD5F-413A-8586-5AEBA3DDEEA8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3889,49 +3832,46 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$15</c:f>
+              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$14</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>商學院</c:v>
+                  <c:v>國貿系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>國貿系</c:v>
+                  <c:v>金融系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>金融系</c:v>
+                  <c:v>會計系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>會計系</c:v>
+                  <c:v>統計系</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>統計系</c:v>
+                  <c:v>企管系</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>企管系</c:v>
+                  <c:v>資管系</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>資管系</c:v>
+                  <c:v>財管系</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>財管系</c:v>
+                  <c:v>風管系</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>風管系</c:v>
+                  <c:v>科智所</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>科智所</c:v>
+                  <c:v>國營碩</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>國營碩</c:v>
+                  <c:v>營管碩</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>營管碩</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>企研所</c:v>
                 </c:pt>
               </c:strCache>
@@ -3939,14 +3879,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$D$2:$D$15</c:f>
+              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$D$2:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="12">
                   <c:v>0.04</c:v>
                 </c:pt>
               </c:numCache>
@@ -3954,7 +3894,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-B21B-4961-9CF6-B922F38076EB}"/>
+              <c16:uniqueId val="{00000002-CD5F-413A-8586-5AEBA3DDEEA8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4065,7 +4005,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-B21B-4961-9CF6-B922F38076EB}"/>
+                  <c16:uniqueId val="{00000003-CD5F-413A-8586-5AEBA3DDEEA8}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4137,49 +4077,46 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$15</c:f>
+              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$14</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>商學院</c:v>
+                  <c:v>國貿系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>國貿系</c:v>
+                  <c:v>金融系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>金融系</c:v>
+                  <c:v>會計系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>會計系</c:v>
+                  <c:v>統計系</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>統計系</c:v>
+                  <c:v>企管系</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>企管系</c:v>
+                  <c:v>資管系</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>資管系</c:v>
+                  <c:v>財管系</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>財管系</c:v>
+                  <c:v>風管系</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>風管系</c:v>
+                  <c:v>科智所</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>科智所</c:v>
+                  <c:v>國營碩</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>國營碩</c:v>
+                  <c:v>營管碩</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>營管碩</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>企研所</c:v>
                 </c:pt>
               </c:strCache>
@@ -4187,14 +4124,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$C$2:$C$15</c:f>
+              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$C$2:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="12">
                   <c:v>0.05</c:v>
                 </c:pt>
               </c:numCache>
@@ -4203,7 +4140,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-B21B-4961-9CF6-B922F38076EB}"/>
+              <c16:uniqueId val="{00000004-CD5F-413A-8586-5AEBA3DDEEA8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4484,49 +4421,46 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$15</c:f>
+              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$14</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>商學院</c:v>
+                  <c:v>國貿系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>國貿系</c:v>
+                  <c:v>金融系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>金融系</c:v>
+                  <c:v>會計系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>會計系</c:v>
+                  <c:v>統計系</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>統計系</c:v>
+                  <c:v>企管系</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>企管系</c:v>
+                  <c:v>資管系</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>資管系</c:v>
+                  <c:v>財管系</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>財管系</c:v>
+                  <c:v>風管系</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>風管系</c:v>
+                  <c:v>科智所</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>科智所</c:v>
+                  <c:v>國營碩</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>國營碩</c:v>
+                  <c:v>營管碩</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>營管碩</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>企研所</c:v>
                 </c:pt>
               </c:strCache>
@@ -4534,14 +4468,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$F$2:$F$15</c:f>
+              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$F$2:$F$14</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="12">
                   <c:v>3.5000000000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -4549,7 +4483,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0D73-4FF3-8416-5BDA89D62BE6}"/>
+              <c16:uniqueId val="{00000000-30F2-4897-B133-4888AA5D91A7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4584,49 +4518,46 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$15</c:f>
+              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$14</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>商學院</c:v>
+                  <c:v>國貿系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>國貿系</c:v>
+                  <c:v>金融系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>金融系</c:v>
+                  <c:v>會計系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>會計系</c:v>
+                  <c:v>統計系</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>統計系</c:v>
+                  <c:v>企管系</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>企管系</c:v>
+                  <c:v>資管系</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>資管系</c:v>
+                  <c:v>財管系</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>財管系</c:v>
+                  <c:v>風管系</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>風管系</c:v>
+                  <c:v>科智所</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>科智所</c:v>
+                  <c:v>國營碩</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>國營碩</c:v>
+                  <c:v>營管碩</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>營管碩</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>企研所</c:v>
                 </c:pt>
               </c:strCache>
@@ -4634,14 +4565,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$E$2:$E$15</c:f>
+              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$E$2:$E$14</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0.03</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="12">
                   <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
@@ -4649,7 +4580,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0D73-4FF3-8416-5BDA89D62BE6}"/>
+              <c16:uniqueId val="{00000001-30F2-4897-B133-4888AA5D91A7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4684,49 +4615,46 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$15</c:f>
+              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$14</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>商學院</c:v>
+                  <c:v>國貿系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>國貿系</c:v>
+                  <c:v>金融系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>金融系</c:v>
+                  <c:v>會計系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>會計系</c:v>
+                  <c:v>統計系</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>統計系</c:v>
+                  <c:v>企管系</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>企管系</c:v>
+                  <c:v>資管系</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>資管系</c:v>
+                  <c:v>財管系</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>財管系</c:v>
+                  <c:v>風管系</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>風管系</c:v>
+                  <c:v>科智所</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>科智所</c:v>
+                  <c:v>國營碩</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>國營碩</c:v>
+                  <c:v>營管碩</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>營管碩</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>企研所</c:v>
                 </c:pt>
               </c:strCache>
@@ -4734,14 +4662,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$D$2:$D$15</c:f>
+              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$D$2:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="12">
                   <c:v>0.04</c:v>
                 </c:pt>
               </c:numCache>
@@ -4749,7 +4677,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-0D73-4FF3-8416-5BDA89D62BE6}"/>
+              <c16:uniqueId val="{00000002-30F2-4897-B133-4888AA5D91A7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4860,7 +4788,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-0D73-4FF3-8416-5BDA89D62BE6}"/>
+                  <c16:uniqueId val="{00000003-30F2-4897-B133-4888AA5D91A7}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4932,49 +4860,46 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$15</c:f>
+              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$14</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>商學院</c:v>
+                  <c:v>國貿系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>國貿系</c:v>
+                  <c:v>金融系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>金融系</c:v>
+                  <c:v>會計系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>會計系</c:v>
+                  <c:v>統計系</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>統計系</c:v>
+                  <c:v>企管系</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>企管系</c:v>
+                  <c:v>資管系</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>資管系</c:v>
+                  <c:v>財管系</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>財管系</c:v>
+                  <c:v>風管系</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>風管系</c:v>
+                  <c:v>科智所</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>科智所</c:v>
+                  <c:v>國營碩</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>國營碩</c:v>
+                  <c:v>營管碩</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>營管碩</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>企研所</c:v>
                 </c:pt>
               </c:strCache>
@@ -4982,14 +4907,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$C$2:$C$15</c:f>
+              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$C$2:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="12">
                   <c:v>0.05</c:v>
                 </c:pt>
               </c:numCache>
@@ -4998,7 +4923,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-0D73-4FF3-8416-5BDA89D62BE6}"/>
+              <c16:uniqueId val="{00000004-30F2-4897-B133-4888AA5D91A7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5279,49 +5204,46 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$15</c:f>
+              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$14</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>商學院</c:v>
+                  <c:v>國貿系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>國貿系</c:v>
+                  <c:v>金融系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>金融系</c:v>
+                  <c:v>會計系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>會計系</c:v>
+                  <c:v>統計系</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>統計系</c:v>
+                  <c:v>企管系</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>企管系</c:v>
+                  <c:v>資管系</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>資管系</c:v>
+                  <c:v>財管系</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>財管系</c:v>
+                  <c:v>風管系</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>風管系</c:v>
+                  <c:v>科智所</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>科智所</c:v>
+                  <c:v>國營碩</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>國營碩</c:v>
+                  <c:v>營管碩</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>營管碩</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>企研所</c:v>
                 </c:pt>
               </c:strCache>
@@ -5329,14 +5251,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$F$2:$F$15</c:f>
+              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$F$2:$F$14</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="12">
                   <c:v>3.5000000000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -5344,7 +5266,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C6A2-4498-ADE5-33AD2560EE80}"/>
+              <c16:uniqueId val="{00000000-6662-4723-B343-501EFA8A4843}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5379,49 +5301,46 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$15</c:f>
+              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$14</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>商學院</c:v>
+                  <c:v>國貿系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>國貿系</c:v>
+                  <c:v>金融系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>金融系</c:v>
+                  <c:v>會計系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>會計系</c:v>
+                  <c:v>統計系</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>統計系</c:v>
+                  <c:v>企管系</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>企管系</c:v>
+                  <c:v>資管系</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>資管系</c:v>
+                  <c:v>財管系</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>財管系</c:v>
+                  <c:v>風管系</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>風管系</c:v>
+                  <c:v>科智所</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>科智所</c:v>
+                  <c:v>國營碩</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>國營碩</c:v>
+                  <c:v>營管碩</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>營管碩</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>企研所</c:v>
                 </c:pt>
               </c:strCache>
@@ -5429,14 +5348,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$E$2:$E$15</c:f>
+              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$E$2:$E$14</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0.03</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="12">
                   <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
@@ -5444,7 +5363,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C6A2-4498-ADE5-33AD2560EE80}"/>
+              <c16:uniqueId val="{00000001-6662-4723-B343-501EFA8A4843}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5479,49 +5398,46 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$15</c:f>
+              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$14</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>商學院</c:v>
+                  <c:v>國貿系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>國貿系</c:v>
+                  <c:v>金融系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>金融系</c:v>
+                  <c:v>會計系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>會計系</c:v>
+                  <c:v>統計系</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>統計系</c:v>
+                  <c:v>企管系</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>企管系</c:v>
+                  <c:v>資管系</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>資管系</c:v>
+                  <c:v>財管系</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>財管系</c:v>
+                  <c:v>風管系</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>風管系</c:v>
+                  <c:v>科智所</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>科智所</c:v>
+                  <c:v>國營碩</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>國營碩</c:v>
+                  <c:v>營管碩</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>營管碩</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>企研所</c:v>
                 </c:pt>
               </c:strCache>
@@ -5529,14 +5445,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$D$2:$D$15</c:f>
+              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$D$2:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="12">
                   <c:v>0.04</c:v>
                 </c:pt>
               </c:numCache>
@@ -5544,7 +5460,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-C6A2-4498-ADE5-33AD2560EE80}"/>
+              <c16:uniqueId val="{00000002-6662-4723-B343-501EFA8A4843}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5655,7 +5571,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-C6A2-4498-ADE5-33AD2560EE80}"/>
+                  <c16:uniqueId val="{00000003-6662-4723-B343-501EFA8A4843}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -5727,49 +5643,46 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$15</c:f>
+              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$14</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>商學院</c:v>
+                  <c:v>國貿系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>國貿系</c:v>
+                  <c:v>金融系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>金融系</c:v>
+                  <c:v>會計系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>會計系</c:v>
+                  <c:v>統計系</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>統計系</c:v>
+                  <c:v>企管系</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>企管系</c:v>
+                  <c:v>資管系</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>資管系</c:v>
+                  <c:v>財管系</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>財管系</c:v>
+                  <c:v>風管系</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>風管系</c:v>
+                  <c:v>科智所</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>科智所</c:v>
+                  <c:v>國營碩</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>國營碩</c:v>
+                  <c:v>營管碩</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>營管碩</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>企研所</c:v>
                 </c:pt>
               </c:strCache>
@@ -5777,14 +5690,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$C$2:$C$15</c:f>
+              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$C$2:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="12">
                   <c:v>0.05</c:v>
                 </c:pt>
               </c:numCache>
@@ -5793,7 +5706,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-C6A2-4498-ADE5-33AD2560EE80}"/>
+              <c16:uniqueId val="{00000004-6662-4723-B343-501EFA8A4843}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6022,7 +5935,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77B01E24-9779-4F8D-B78C-FBEDBE06EED9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D88C6A42-E8BF-44FA-A602-5337BDE2C2D3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6055,7 +5968,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EBBE3CE-BA0E-4E0E-9D3A-F02203A04CA2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2457932-0DCC-471E-A69C-0E4B3A2C0DB9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6088,7 +6001,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FA9FE6F-3631-4EDE-A755-F3B59E103D4E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD76B534-A68A-4F14-ABCD-6A00838D1EEC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6121,7 +6034,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A52249B8-45FD-4481-AA5A-D1E252967019}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5ED6F5C-C84A-4C5A-8658-3CC6F36B8706}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6154,7 +6067,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75125247-86B1-4771-B4CF-308BAA4D04EB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF6CCEE1-E71B-46B4-8CDB-034C807F86C0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6187,7 +6100,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBD0BF0E-8F20-4B18-B373-BD1DE5D0C37C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8ED13E4B-8595-4D19-ABA3-252B26C2DE50}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6220,7 +6133,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{411F90E6-2201-4EEE-B303-A09AB62C8B17}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E88CF53-815D-41B7-B8D7-6E0FEFF8F9D7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6270,7 +6183,7 @@
         </row>
         <row r="2">
           <cell r="B2" t="str">
-            <v>院均值</v>
+            <v>科系1</v>
           </cell>
           <cell r="C2">
             <v>0.06</v>
@@ -6287,7 +6200,7 @@
         </row>
         <row r="3">
           <cell r="B3" t="str">
-            <v>測試二</v>
+            <v>院均值</v>
           </cell>
           <cell r="C3">
             <v>0.05</v>
@@ -6697,25 +6610,25 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" location="'1.1.1.1 學士班繁星推薦入學錄取率'!A1" display="1.1.1.1 學士班繁星推薦入學錄取率" xr:uid="{B4E4541A-06A3-4853-AA12-62572BCF1DB4}"/>
-    <hyperlink ref="A3" location="'1.1.3.4 博士班招收國內重點大學畢業生比率'!A1" display="1.1.3.4 博士班招收國內重點大學畢業生比率" xr:uid="{18EA936F-DE4B-436C-A083-835CE43D24CD}"/>
-    <hyperlink ref="A4" location="'1.4.1.1 學士班獲獎助學金平均金額'!A1" display="1.4.1.1 學士班獲獎助學金平均金額" xr:uid="{600436C7-DE12-48F7-B522-ADC47857B269}"/>
-    <hyperlink ref="A5" location="'1.7.1.4 碩士班平均修業年限'!A1" display="1.7.1.4 碩士班平均修業年限" xr:uid="{0DA83C27-E1E7-4B9F-A964-68F29B512602}"/>
-    <hyperlink ref="A6" location="'2.1.1.2 平均碩博士班修課學生人數'!A1" display="2.1.1.2 平均碩博士班修課學生人數" xr:uid="{AECFFF60-7CD9-4CE3-881D-4AEE8D6865E3}"/>
-    <hyperlink ref="A7" location="'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!A1" display="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" xr:uid="{84DDFA93-7264-461F-A6E9-9E5A1E20F339}"/>
-    <hyperlink ref="A8" location="'3.2.1.1 舉辦國際學術研討會數'!A1" display="3.2.1.1 舉辦國際學術研討會數" xr:uid="{E7011A40-EA66-46CD-80B5-1B77B3AB4C0F}"/>
+    <hyperlink ref="A2" location="'1.1.1.1 學士班繁星推薦入學錄取率'!A1" display="1.1.1.1 學士班繁星推薦入學錄取率" xr:uid="{8AC09E46-A310-4A7A-ADB8-32E676CDE92C}"/>
+    <hyperlink ref="A3" location="'1.1.3.4 博士班招收國內重點大學畢業生比率'!A1" display="1.1.3.4 博士班招收國內重點大學畢業生比率" xr:uid="{C7F889CB-4CE0-4D28-8A27-EB53079A9BAC}"/>
+    <hyperlink ref="A4" location="'1.4.1.1 學士班獲獎助學金平均金額'!A1" display="1.4.1.1 學士班獲獎助學金平均金額" xr:uid="{E3A20648-5212-49FA-8481-A793B763941C}"/>
+    <hyperlink ref="A5" location="'1.7.1.4 碩士班平均修業年限'!A1" display="1.7.1.4 碩士班平均修業年限" xr:uid="{EBF4B286-8AA1-48B2-9FCF-EDE6EE1604EA}"/>
+    <hyperlink ref="A6" location="'2.1.1.2 平均碩博士班修課學生人數'!A1" display="2.1.1.2 平均碩博士班修課學生人數" xr:uid="{7E9812F3-78BC-4265-9162-D8905F7F5304}"/>
+    <hyperlink ref="A7" location="'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!A1" display="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" xr:uid="{5406148F-A5AA-4F20-B01B-EA3C04171095}"/>
+    <hyperlink ref="A8" location="'3.2.1.1 舉辦國際學術研討會數'!A1" display="3.2.1.1 舉辦國際學術研討會數" xr:uid="{F1A15883-6987-4971-B751-BDEE11900991}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07859306-8AC5-4EEF-BDB2-C9ABF3F2D9D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{599E617F-E53B-45D1-9ED9-CFCE3E846B4F}">
   <sheetPr codeName="工作表2"/>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6770,16 +6683,14 @@
       <c r="F2" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G2" s="9">
-        <v>999</v>
-      </c>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
@@ -6792,7 +6703,7 @@
         <v>30</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -6805,7 +6716,7 @@
         <v>31</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
@@ -6818,7 +6729,7 @@
         <v>32</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
@@ -6831,7 +6742,7 @@
         <v>33</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -6844,7 +6755,7 @@
         <v>34</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
@@ -6857,7 +6768,7 @@
         <v>35</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -6870,7 +6781,7 @@
         <v>36</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
@@ -6883,7 +6794,7 @@
         <v>37</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
@@ -6896,7 +6807,7 @@
         <v>38</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
@@ -6909,7 +6820,7 @@
         <v>39</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
@@ -6922,39 +6833,28 @@
         <v>40</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="9"/>
-    </row>
-    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="10">
+      <c r="C14" s="10">
         <v>0.05</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D14" s="10">
         <v>0.04</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E14" s="10">
         <v>0.01</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F14" s="10">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="G15" s="9"/>
+      <c r="G14" s="9">
+        <v>999</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G15" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G15">
-      <sortCondition descending="1" ref="G1:G15"/>
+  <autoFilter ref="A1:G14" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G14">
+      <sortCondition descending="1" ref="G1:G14"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6965,12 +6865,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17194A54-6103-428F-912E-5B2AB828B8DA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C35E8637-DDBF-4CC5-B665-06F3B74C4527}">
   <sheetPr codeName="工作表3"/>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7025,16 +6925,14 @@
       <c r="F2" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G2" s="9">
-        <v>999</v>
-      </c>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
@@ -7047,7 +6945,7 @@
         <v>30</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -7060,7 +6958,7 @@
         <v>31</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
@@ -7073,7 +6971,7 @@
         <v>32</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
@@ -7086,7 +6984,7 @@
         <v>33</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -7099,7 +6997,7 @@
         <v>34</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
@@ -7112,7 +7010,7 @@
         <v>35</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -7125,7 +7023,7 @@
         <v>36</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
@@ -7138,7 +7036,7 @@
         <v>37</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
@@ -7151,7 +7049,7 @@
         <v>38</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
@@ -7164,7 +7062,7 @@
         <v>39</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
@@ -7177,39 +7075,28 @@
         <v>40</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="9"/>
-    </row>
-    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="10">
+      <c r="C14" s="10">
         <v>0.05</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D14" s="10">
         <v>0.04</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E14" s="10">
         <v>0.01</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F14" s="10">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="G15" s="9"/>
+      <c r="G14" s="9">
+        <v>999</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G15" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G15">
-      <sortCondition descending="1" ref="G1:G15"/>
+  <autoFilter ref="A1:G14" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G14">
+      <sortCondition descending="1" ref="G1:G14"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7220,12 +7107,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA52FF9A-8E8B-452E-84F0-C5F41D4A4DA6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FBBBBA1-04F5-4B5D-AC03-74250833599D}">
   <sheetPr codeName="工作表4"/>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7280,16 +7167,14 @@
       <c r="F2" s="11">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G2" s="9">
-        <v>999</v>
-      </c>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -7302,7 +7187,7 @@
         <v>30</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -7315,7 +7200,7 @@
         <v>31</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
@@ -7328,7 +7213,7 @@
         <v>32</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
@@ -7341,7 +7226,7 @@
         <v>33</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
@@ -7354,7 +7239,7 @@
         <v>34</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
@@ -7367,7 +7252,7 @@
         <v>35</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
@@ -7380,7 +7265,7 @@
         <v>36</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -7393,7 +7278,7 @@
         <v>37</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
@@ -7406,7 +7291,7 @@
         <v>38</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
@@ -7419,7 +7304,7 @@
         <v>39</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
@@ -7432,39 +7317,28 @@
         <v>40</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="9"/>
-    </row>
-    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="11">
+      <c r="C14" s="11">
         <v>0.05</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D14" s="11">
         <v>0.04</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E14" s="11">
         <v>0.01</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F14" s="11">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="G15" s="9"/>
+      <c r="G14" s="9">
+        <v>999</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G15" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G15">
-      <sortCondition descending="1" ref="G1:G15"/>
+  <autoFilter ref="A1:G14" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G14">
+      <sortCondition descending="1" ref="G1:G14"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7475,12 +7349,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98CE08EE-9AAB-4269-8340-1A4402C09753}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{374123A3-36E6-43B8-AA0C-A8FF3E0F5D6C}">
   <sheetPr codeName="工作表5"/>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7535,16 +7409,14 @@
       <c r="F2" s="12">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G2" s="9">
-        <v>999</v>
-      </c>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
@@ -7557,7 +7429,7 @@
         <v>30</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
@@ -7570,7 +7442,7 @@
         <v>31</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -7583,7 +7455,7 @@
         <v>32</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
@@ -7596,7 +7468,7 @@
         <v>33</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
@@ -7609,7 +7481,7 @@
         <v>34</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
@@ -7622,7 +7494,7 @@
         <v>35</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
@@ -7635,7 +7507,7 @@
         <v>36</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
@@ -7648,7 +7520,7 @@
         <v>37</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
@@ -7661,7 +7533,7 @@
         <v>38</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
@@ -7674,7 +7546,7 @@
         <v>39</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
@@ -7687,39 +7559,28 @@
         <v>40</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="9"/>
-    </row>
-    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="12">
+      <c r="C14" s="12">
         <v>0.05</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D14" s="12">
         <v>0.04</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E14" s="12">
         <v>0.01</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F14" s="12">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="G15" s="9"/>
+      <c r="G14" s="9">
+        <v>999</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G15" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G15">
-      <sortCondition descending="1" ref="G1:G15"/>
+  <autoFilter ref="A1:G14" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G14">
+      <sortCondition descending="1" ref="G1:G14"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7730,12 +7591,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A81C16D4-780A-4E3F-8A3E-AB94EDBD5921}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A344DCB2-4427-499E-87F0-4477BBCCE2C4}">
   <sheetPr codeName="工作表6"/>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7790,16 +7651,14 @@
       <c r="F2" s="12">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G2" s="9">
-        <v>999</v>
-      </c>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
@@ -7812,7 +7671,7 @@
         <v>30</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
@@ -7825,7 +7684,7 @@
         <v>31</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -7838,7 +7697,7 @@
         <v>32</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
@@ -7851,7 +7710,7 @@
         <v>33</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
@@ -7864,7 +7723,7 @@
         <v>34</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
@@ -7877,7 +7736,7 @@
         <v>35</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
@@ -7890,7 +7749,7 @@
         <v>36</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
@@ -7903,7 +7762,7 @@
         <v>37</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
@@ -7916,7 +7775,7 @@
         <v>38</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
@@ -7929,7 +7788,7 @@
         <v>39</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
@@ -7942,39 +7801,28 @@
         <v>40</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="9"/>
-    </row>
-    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="12">
+      <c r="C14" s="12">
         <v>0.05</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D14" s="12">
         <v>0.04</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E14" s="12">
         <v>0.01</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F14" s="12">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="G15" s="9"/>
+      <c r="G14" s="9">
+        <v>999</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G15" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G15">
-      <sortCondition descending="1" ref="G1:G15"/>
+  <autoFilter ref="A1:G14" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G14">
+      <sortCondition descending="1" ref="G1:G14"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7985,12 +7833,12 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D316981-AFD8-49C6-9F58-031C34FFD936}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{184BFDDA-85C0-4A4F-AE64-C0A4DD5749FA}">
   <sheetPr codeName="工作表7"/>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8031,7 +7879,7 @@
         <v>28</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2" s="12">
         <v>0.06</v>
@@ -8045,16 +7893,14 @@
       <c r="F2" s="12">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G2" s="9">
-        <v>999</v>
-      </c>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
@@ -8067,7 +7913,7 @@
         <v>30</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
@@ -8080,7 +7926,7 @@
         <v>31</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -8093,7 +7939,7 @@
         <v>32</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
@@ -8106,7 +7952,7 @@
         <v>33</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
@@ -8119,7 +7965,7 @@
         <v>34</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
@@ -8132,7 +7978,7 @@
         <v>35</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
@@ -8145,7 +7991,7 @@
         <v>36</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
@@ -8158,7 +8004,7 @@
         <v>37</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
@@ -8171,7 +8017,7 @@
         <v>38</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
@@ -8184,7 +8030,7 @@
         <v>39</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
@@ -8197,39 +8043,28 @@
         <v>40</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="9"/>
-    </row>
-    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="12">
+      <c r="C14" s="12">
         <v>0.05</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D14" s="12">
         <v>0.04</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E14" s="12">
         <v>0.01</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F14" s="12">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="G15" s="9"/>
+      <c r="G14" s="9">
+        <v>999</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G15" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G15">
-      <sortCondition descending="1" ref="G1:G15"/>
+  <autoFilter ref="A1:G14" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G14">
+      <sortCondition descending="1" ref="G1:G14"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -8240,12 +8075,12 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B60F79C-75EA-44E4-B748-ECBCC0C72CC8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{549D8D20-81AA-4897-B46B-F77B56A82455}">
   <sheetPr codeName="工作表8"/>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8286,7 +8121,7 @@
         <v>28</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2" s="12">
         <v>0.06</v>
@@ -8300,16 +8135,14 @@
       <c r="F2" s="12">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G2" s="9">
-        <v>999</v>
-      </c>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
@@ -8322,7 +8155,7 @@
         <v>30</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
@@ -8335,7 +8168,7 @@
         <v>31</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -8348,7 +8181,7 @@
         <v>32</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
@@ -8361,7 +8194,7 @@
         <v>33</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
@@ -8374,7 +8207,7 @@
         <v>34</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
@@ -8387,7 +8220,7 @@
         <v>35</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
@@ -8400,7 +8233,7 @@
         <v>36</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
@@ -8413,7 +8246,7 @@
         <v>37</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
@@ -8426,7 +8259,7 @@
         <v>38</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
@@ -8439,7 +8272,7 @@
         <v>39</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
@@ -8452,39 +8285,28 @@
         <v>40</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="9"/>
-    </row>
-    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="12">
+      <c r="C14" s="12">
         <v>0.05</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D14" s="12">
         <v>0.04</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E14" s="12">
         <v>0.01</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F14" s="12">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="G15" s="9"/>
+      <c r="G14" s="9">
+        <v>999</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G15" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G15">
-      <sortCondition descending="1" ref="G1:G15"/>
+  <autoFilter ref="A1:G14" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G14">
+      <sortCondition descending="1" ref="G1:G14"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/test/1. 各院彙整資料/商學院.xlsx
+++ b/test/1. 各院彙整資料/商學院.xlsx
@@ -8,23 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\學評組工讀生\應數碩三_陳慎逸\3. Index-Evaluation-Analysis-Report\test\1. 各院彙整資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{066E97A2-A27C-482A-9BBD-48D21D52EEAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C2F01B9-F675-47E2-9525-61EC5B34A3DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="600" windowWidth="17595" windowHeight="15600" firstSheet="4" activeTab="7" xr2:uid="{2E9BB182-6497-4499-BC43-82F52A84B2D6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="7" xr2:uid="{2E9BB182-6497-4499-BC43-82F52A84B2D6}"/>
   </bookViews>
   <sheets>
     <sheet name="小結" sheetId="1" r:id="rId1"/>
-    <sheet name="1.1.1.1 學士班繁星推薦入學錄取率" sheetId="9" r:id="rId2"/>
-    <sheet name="1.1.3.4 博士班招收國內重點大學畢業生比率" sheetId="10" r:id="rId3"/>
-    <sheet name="1.4.1.1 學士班獲獎助學金平均金額" sheetId="11" r:id="rId4"/>
-    <sheet name="1.7.1.4 碩士班平均修業年限" sheetId="12" r:id="rId5"/>
-    <sheet name="2.1.1.2 平均碩博士班修課學生人數" sheetId="13" r:id="rId6"/>
-    <sheet name="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" sheetId="14" r:id="rId7"/>
-    <sheet name="3.2.1.1 舉辦國際學術研討會數" sheetId="15" r:id="rId8"/>
+    <sheet name="1.1.1.1 學士班繁星推薦入學錄取率" sheetId="72" r:id="rId2"/>
+    <sheet name="1.1.3.4 博士班招收國內重點大學畢業生比率" sheetId="73" r:id="rId3"/>
+    <sheet name="1.4.1.1 學士班獲獎助學金平均金額" sheetId="74" r:id="rId4"/>
+    <sheet name="1.7.1.4 碩士班平均修業年限" sheetId="75" r:id="rId5"/>
+    <sheet name="2.1.1.2 平均碩博士班修課學生人數" sheetId="76" r:id="rId6"/>
+    <sheet name="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" sheetId="77" r:id="rId7"/>
+    <sheet name="3.2.1.1 舉辦國際學術研討會數" sheetId="78" r:id="rId8"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId9"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1.1.1.1 學士班繁星推薦入學錄取率'!$A$1:$G$14</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'1.1.3.4 博士班招收國內重點大學畢業生比率'!$A$1:$G$14</definedName>
@@ -53,10 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="43">
-  <si>
-    <t>商學院</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="52">
   <si>
     <t>國貿系</t>
   </si>
@@ -92,27 +86,6 @@
   </si>
   <si>
     <t>企研所</t>
-  </si>
-  <si>
-    <t>1.1.1.1 學士班繁星推薦入學錄取率</t>
-  </si>
-  <si>
-    <t>1.1.3.4 博士班招收國內重點大學畢業生比率</t>
-  </si>
-  <si>
-    <t>1.4.1.1 學士班獲獎助學金平均金額</t>
-  </si>
-  <si>
-    <t>1.7.1.4 碩士班平均修業年限</t>
-  </si>
-  <si>
-    <t>2.1.1.2 平均碩博士班修課學生人數</t>
-  </si>
-  <si>
-    <t>2.3.1.2 各系所教師兼任本校二級學術行政主管人次</t>
-  </si>
-  <si>
-    <t>3.2.1.1 舉辦國際學術研討會數</t>
   </si>
   <si>
     <t>科系</t>
@@ -192,6 +165,57 @@
   <si>
     <t>院加總</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>商學院</t>
+  </si>
+  <si>
+    <t>1.1.1.1</t>
+  </si>
+  <si>
+    <t>學士班繁星推薦入學錄取率</t>
+  </si>
+  <si>
+    <t>1.1.3.4</t>
+  </si>
+  <si>
+    <t>博士班招收國內重點大學畢業生比率</t>
+  </si>
+  <si>
+    <t>1.4.1.1</t>
+  </si>
+  <si>
+    <t>學士班獲獎助學金平均金額</t>
+  </si>
+  <si>
+    <t>1.7.1.4</t>
+  </si>
+  <si>
+    <t>碩士班平均修業年限</t>
+  </si>
+  <si>
+    <t>2.1.1.2</t>
+  </si>
+  <si>
+    <t>平均碩博士班修課學生人數</t>
+  </si>
+  <si>
+    <t>2.3.1.2</t>
+  </si>
+  <si>
+    <t>各系所教師兼任本校二級學術行政主管人次</t>
+  </si>
+  <si>
+    <t>3.2.1.1</t>
+  </si>
+  <si>
+    <t>舉辦國際學術研討會數</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>無資料。</t>
   </si>
 </sst>
 </file>
@@ -508,45 +532,9 @@
             <c:strRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$14</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>國貿系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>金融系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>會計系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>統計系</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>企管系</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>資管系</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>財管系</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>風管系</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>科智所</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>國營碩</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>營管碩</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>企研所</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -556,19 +544,16 @@
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$F$2:$F$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.5000000000000003E-2</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-953E-4F6E-9EDD-7F0D60D7D703}"/>
+              <c16:uniqueId val="{00000000-70CA-4C97-9E3D-B16063E1C887}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -605,45 +590,9 @@
             <c:strRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$14</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>國貿系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>金融系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>會計系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>統計系</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>企管系</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>資管系</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>財管系</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>風管系</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>科智所</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>國營碩</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>營管碩</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>企研所</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -653,19 +602,16 @@
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$E$2:$E$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.01</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-953E-4F6E-9EDD-7F0D60D7D703}"/>
+              <c16:uniqueId val="{00000001-70CA-4C97-9E3D-B16063E1C887}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -702,45 +648,9 @@
             <c:strRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$14</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>國貿系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>金融系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>會計系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>統計系</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>企管系</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>資管系</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>財管系</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>風管系</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>科智所</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>國營碩</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>營管碩</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>企研所</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -750,19 +660,16 @@
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$D$2:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.04</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-953E-4F6E-9EDD-7F0D60D7D703}"/>
+              <c16:uniqueId val="{00000002-70CA-4C97-9E3D-B16063E1C887}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -826,7 +733,11 @@
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
-                <a:effectLst/>
+                <a:effectLst>
+                  <a:glow rad="63500">
+                    <a:schemeClr val="bg1"/>
+                  </a:glow>
+                </a:effectLst>
               </c:spPr>
               <c:txPr>
                 <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -873,7 +784,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-953E-4F6E-9EDD-7F0D60D7D703}"/>
+                  <c16:uniqueId val="{00000003-70CA-4C97-9E3D-B16063E1C887}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -882,7 +793,11 @@
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="bg1"/>
+                </a:glow>
+              </a:effectLst>
             </c:spPr>
             <c:txPr>
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -947,45 +862,9 @@
             <c:strRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$14</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>國貿系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>金融系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>會計系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>統計系</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>企管系</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>資管系</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>財管系</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>風管系</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>科智所</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>國營碩</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>營管碩</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>企研所</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -995,12 +874,9 @@
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$C$2:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.05</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1008,7 +884,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-953E-4F6E-9EDD-7F0D60D7D703}"/>
+              <c16:uniqueId val="{00000004-70CA-4C97-9E3D-B16063E1C887}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1291,45 +1167,9 @@
             <c:strRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$14</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>國貿系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>金融系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>會計系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>統計系</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>企管系</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>資管系</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>財管系</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>風管系</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>科智所</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>國營碩</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>營管碩</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>企研所</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1339,19 +1179,16 @@
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$F$2:$F$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.5000000000000003E-2</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C9EF-4A90-943B-3CE769B6800C}"/>
+              <c16:uniqueId val="{00000000-662B-4078-B520-C2413C9B2393}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1388,45 +1225,9 @@
             <c:strRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$14</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>國貿系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>金融系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>會計系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>統計系</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>企管系</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>資管系</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>財管系</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>風管系</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>科智所</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>國營碩</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>營管碩</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>企研所</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1436,19 +1237,16 @@
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$E$2:$E$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.01</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C9EF-4A90-943B-3CE769B6800C}"/>
+              <c16:uniqueId val="{00000001-662B-4078-B520-C2413C9B2393}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1485,45 +1283,9 @@
             <c:strRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$14</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>國貿系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>金融系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>會計系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>統計系</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>企管系</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>資管系</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>財管系</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>風管系</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>科智所</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>國營碩</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>營管碩</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>企研所</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1533,19 +1295,16 @@
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$D$2:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.04</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-C9EF-4A90-943B-3CE769B6800C}"/>
+              <c16:uniqueId val="{00000002-662B-4078-B520-C2413C9B2393}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1609,7 +1368,11 @@
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
-                <a:effectLst/>
+                <a:effectLst>
+                  <a:glow rad="63500">
+                    <a:schemeClr val="bg1"/>
+                  </a:glow>
+                </a:effectLst>
               </c:spPr>
               <c:txPr>
                 <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -1656,7 +1419,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-C9EF-4A90-943B-3CE769B6800C}"/>
+                  <c16:uniqueId val="{00000003-662B-4078-B520-C2413C9B2393}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1665,7 +1428,11 @@
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="bg1"/>
+                </a:glow>
+              </a:effectLst>
             </c:spPr>
             <c:txPr>
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -1730,45 +1497,9 @@
             <c:strRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$14</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>國貿系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>金融系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>會計系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>統計系</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>企管系</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>資管系</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>財管系</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>風管系</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>科智所</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>國營碩</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>營管碩</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>企研所</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1778,12 +1509,9 @@
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$C$2:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.05</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1791,7 +1519,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-C9EF-4A90-943B-3CE769B6800C}"/>
+              <c16:uniqueId val="{00000004-662B-4078-B520-C2413C9B2393}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2074,45 +1802,9 @@
             <c:strRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$14</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>國貿系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>金融系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>會計系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>統計系</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>企管系</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>資管系</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>財管系</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>風管系</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>科智所</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>國營碩</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>營管碩</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>企研所</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2122,19 +1814,16 @@
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$F$2:$F$14</c:f>
               <c:numCache>
                 <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.5000000000000003E-2</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-16FF-447C-8C2D-FCA54F174F96}"/>
+              <c16:uniqueId val="{00000000-2044-4D13-8EAB-D4B5210F0790}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2171,45 +1860,9 @@
             <c:strRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$14</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>國貿系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>金融系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>會計系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>統計系</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>企管系</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>資管系</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>財管系</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>風管系</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>科智所</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>國營碩</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>營管碩</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>企研所</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2219,19 +1872,16 @@
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$E$2:$E$14</c:f>
               <c:numCache>
                 <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.01</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-16FF-447C-8C2D-FCA54F174F96}"/>
+              <c16:uniqueId val="{00000001-2044-4D13-8EAB-D4B5210F0790}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2268,45 +1918,9 @@
             <c:strRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$14</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>國貿系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>金融系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>會計系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>統計系</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>企管系</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>資管系</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>財管系</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>風管系</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>科智所</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>國營碩</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>營管碩</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>企研所</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2316,19 +1930,16 @@
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$D$2:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.04</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-16FF-447C-8C2D-FCA54F174F96}"/>
+              <c16:uniqueId val="{00000002-2044-4D13-8EAB-D4B5210F0790}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2392,7 +2003,11 @@
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
-                <a:effectLst/>
+                <a:effectLst>
+                  <a:glow rad="63500">
+                    <a:schemeClr val="bg1"/>
+                  </a:glow>
+                </a:effectLst>
               </c:spPr>
               <c:txPr>
                 <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -2439,7 +2054,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-16FF-447C-8C2D-FCA54F174F96}"/>
+                  <c16:uniqueId val="{00000003-2044-4D13-8EAB-D4B5210F0790}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2448,7 +2063,11 @@
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="bg1"/>
+                </a:glow>
+              </a:effectLst>
             </c:spPr>
             <c:txPr>
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -2513,45 +2132,9 @@
             <c:strRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$14</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>國貿系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>金融系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>會計系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>統計系</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>企管系</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>資管系</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>財管系</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>風管系</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>科智所</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>國營碩</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>營管碩</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>企研所</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2561,12 +2144,9 @@
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$C$2:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.05</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2574,7 +2154,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-16FF-447C-8C2D-FCA54F174F96}"/>
+              <c16:uniqueId val="{00000004-2044-4D13-8EAB-D4B5210F0790}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2857,45 +2437,9 @@
             <c:strRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$14</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>國貿系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>金融系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>會計系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>統計系</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>企管系</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>資管系</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>財管系</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>風管系</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>科智所</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>國營碩</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>營管碩</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>企研所</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2905,19 +2449,16 @@
               <c:f>'1.7.1.4 碩士班平均修業年限'!$F$2:$F$14</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.5000000000000003E-2</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7CBC-4EE1-8A48-CC891E6C10F5}"/>
+              <c16:uniqueId val="{00000000-7DB2-4813-BDA2-16CFDB1ECC14}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2954,45 +2495,9 @@
             <c:strRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$14</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>國貿系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>金融系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>會計系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>統計系</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>企管系</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>資管系</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>財管系</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>風管系</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>科智所</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>國營碩</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>營管碩</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>企研所</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3002,19 +2507,16 @@
               <c:f>'1.7.1.4 碩士班平均修業年限'!$E$2:$E$14</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.01</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7CBC-4EE1-8A48-CC891E6C10F5}"/>
+              <c16:uniqueId val="{00000001-7DB2-4813-BDA2-16CFDB1ECC14}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3051,45 +2553,9 @@
             <c:strRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$14</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>國貿系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>金融系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>會計系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>統計系</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>企管系</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>資管系</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>財管系</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>風管系</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>科智所</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>國營碩</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>營管碩</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>企研所</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3099,19 +2565,16 @@
               <c:f>'1.7.1.4 碩士班平均修業年限'!$D$2:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.04</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-7CBC-4EE1-8A48-CC891E6C10F5}"/>
+              <c16:uniqueId val="{00000002-7DB2-4813-BDA2-16CFDB1ECC14}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3175,7 +2638,11 @@
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
-                <a:effectLst/>
+                <a:effectLst>
+                  <a:glow rad="63500">
+                    <a:schemeClr val="bg1"/>
+                  </a:glow>
+                </a:effectLst>
               </c:spPr>
               <c:txPr>
                 <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -3222,7 +2689,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-7CBC-4EE1-8A48-CC891E6C10F5}"/>
+                  <c16:uniqueId val="{00000003-7DB2-4813-BDA2-16CFDB1ECC14}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3231,7 +2698,11 @@
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="bg1"/>
+                </a:glow>
+              </a:effectLst>
             </c:spPr>
             <c:txPr>
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -3296,45 +2767,9 @@
             <c:strRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$14</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>國貿系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>金融系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>會計系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>統計系</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>企管系</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>資管系</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>財管系</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>風管系</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>科智所</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>國營碩</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>營管碩</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>企研所</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3344,12 +2779,9 @@
               <c:f>'1.7.1.4 碩士班平均修業年限'!$C$2:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.05</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3357,7 +2789,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-7CBC-4EE1-8A48-CC891E6C10F5}"/>
+              <c16:uniqueId val="{00000004-7DB2-4813-BDA2-16CFDB1ECC14}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3640,45 +3072,9 @@
             <c:strRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$14</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>國貿系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>金融系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>會計系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>統計系</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>企管系</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>資管系</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>財管系</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>風管系</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>科智所</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>國營碩</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>營管碩</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>企研所</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3688,19 +3084,16 @@
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$F$2:$F$14</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.5000000000000003E-2</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CD5F-413A-8586-5AEBA3DDEEA8}"/>
+              <c16:uniqueId val="{00000000-C6D9-4C39-BF17-F63104B80989}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3737,45 +3130,9 @@
             <c:strRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$14</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>國貿系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>金融系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>會計系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>統計系</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>企管系</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>資管系</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>財管系</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>風管系</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>科智所</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>國營碩</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>營管碩</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>企研所</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3785,19 +3142,16 @@
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$E$2:$E$14</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.01</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-CD5F-413A-8586-5AEBA3DDEEA8}"/>
+              <c16:uniqueId val="{00000001-C6D9-4C39-BF17-F63104B80989}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3834,45 +3188,9 @@
             <c:strRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$14</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>國貿系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>金融系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>會計系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>統計系</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>企管系</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>資管系</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>財管系</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>風管系</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>科智所</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>國營碩</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>營管碩</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>企研所</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3882,19 +3200,16 @@
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$D$2:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.04</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-CD5F-413A-8586-5AEBA3DDEEA8}"/>
+              <c16:uniqueId val="{00000002-C6D9-4C39-BF17-F63104B80989}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3958,7 +3273,11 @@
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
-                <a:effectLst/>
+                <a:effectLst>
+                  <a:glow rad="63500">
+                    <a:schemeClr val="bg1"/>
+                  </a:glow>
+                </a:effectLst>
               </c:spPr>
               <c:txPr>
                 <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -4005,7 +3324,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-CD5F-413A-8586-5AEBA3DDEEA8}"/>
+                  <c16:uniqueId val="{00000003-C6D9-4C39-BF17-F63104B80989}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4014,7 +3333,11 @@
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="bg1"/>
+                </a:glow>
+              </a:effectLst>
             </c:spPr>
             <c:txPr>
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -4079,45 +3402,9 @@
             <c:strRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$14</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>國貿系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>金融系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>會計系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>統計系</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>企管系</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>資管系</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>財管系</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>風管系</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>科智所</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>國營碩</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>營管碩</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>企研所</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4127,12 +3414,9 @@
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$C$2:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.05</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4140,7 +3424,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-CD5F-413A-8586-5AEBA3DDEEA8}"/>
+              <c16:uniqueId val="{00000004-C6D9-4C39-BF17-F63104B80989}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4423,45 +3707,9 @@
             <c:strRef>
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$14</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>國貿系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>金融系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>會計系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>統計系</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>企管系</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>資管系</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>財管系</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>風管系</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>科智所</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>國營碩</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>營管碩</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>企研所</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4471,19 +3719,16 @@
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$F$2:$F$14</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.5000000000000003E-2</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-30F2-4897-B133-4888AA5D91A7}"/>
+              <c16:uniqueId val="{00000000-2142-4C79-A419-0890F69E2670}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4520,45 +3765,9 @@
             <c:strRef>
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$14</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>國貿系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>金融系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>會計系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>統計系</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>企管系</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>資管系</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>財管系</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>風管系</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>科智所</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>國營碩</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>營管碩</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>企研所</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4568,19 +3777,16 @@
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$E$2:$E$14</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.01</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-30F2-4897-B133-4888AA5D91A7}"/>
+              <c16:uniqueId val="{00000001-2142-4C79-A419-0890F69E2670}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4617,45 +3823,9 @@
             <c:strRef>
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$14</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>國貿系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>金融系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>會計系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>統計系</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>企管系</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>資管系</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>財管系</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>風管系</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>科智所</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>國營碩</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>營管碩</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>企研所</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4665,19 +3835,16 @@
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$D$2:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.04</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-30F2-4897-B133-4888AA5D91A7}"/>
+              <c16:uniqueId val="{00000002-2142-4C79-A419-0890F69E2670}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4741,7 +3908,11 @@
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
-                <a:effectLst/>
+                <a:effectLst>
+                  <a:glow rad="63500">
+                    <a:schemeClr val="bg1"/>
+                  </a:glow>
+                </a:effectLst>
               </c:spPr>
               <c:txPr>
                 <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -4788,7 +3959,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-30F2-4897-B133-4888AA5D91A7}"/>
+                  <c16:uniqueId val="{00000003-2142-4C79-A419-0890F69E2670}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4797,7 +3968,11 @@
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="bg1"/>
+                </a:glow>
+              </a:effectLst>
             </c:spPr>
             <c:txPr>
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -4862,45 +4037,9 @@
             <c:strRef>
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$14</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>國貿系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>金融系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>會計系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>統計系</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>企管系</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>資管系</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>財管系</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>風管系</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>科智所</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>國營碩</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>營管碩</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>企研所</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4910,12 +4049,9 @@
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$C$2:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.05</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4923,7 +4059,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-30F2-4897-B133-4888AA5D91A7}"/>
+              <c16:uniqueId val="{00000004-2142-4C79-A419-0890F69E2670}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5206,45 +4342,9 @@
             <c:strRef>
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$14</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>國貿系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>金融系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>會計系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>統計系</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>企管系</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>資管系</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>財管系</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>風管系</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>科智所</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>國營碩</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>營管碩</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>企研所</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5254,19 +4354,16 @@
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$F$2:$F$14</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.5000000000000003E-2</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6662-4723-B343-501EFA8A4843}"/>
+              <c16:uniqueId val="{00000000-A48A-4C76-A5DF-FB9D5AACD0E4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5303,45 +4400,9 @@
             <c:strRef>
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$14</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>國貿系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>金融系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>會計系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>統計系</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>企管系</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>資管系</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>財管系</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>風管系</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>科智所</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>國營碩</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>營管碩</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>企研所</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5351,19 +4412,16 @@
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$E$2:$E$14</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.01</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6662-4723-B343-501EFA8A4843}"/>
+              <c16:uniqueId val="{00000001-A48A-4C76-A5DF-FB9D5AACD0E4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5400,45 +4458,9 @@
             <c:strRef>
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$14</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>國貿系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>金融系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>會計系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>統計系</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>企管系</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>資管系</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>財管系</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>風管系</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>科智所</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>國營碩</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>營管碩</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>企研所</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5448,19 +4470,16 @@
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$D$2:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.04</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-6662-4723-B343-501EFA8A4843}"/>
+              <c16:uniqueId val="{00000002-A48A-4C76-A5DF-FB9D5AACD0E4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5524,7 +4543,11 @@
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
-                <a:effectLst/>
+                <a:effectLst>
+                  <a:glow rad="63500">
+                    <a:schemeClr val="bg1"/>
+                  </a:glow>
+                </a:effectLst>
               </c:spPr>
               <c:txPr>
                 <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -5571,7 +4594,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-6662-4723-B343-501EFA8A4843}"/>
+                  <c16:uniqueId val="{00000003-A48A-4C76-A5DF-FB9D5AACD0E4}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -5580,7 +4603,11 @@
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="bg1"/>
+                </a:glow>
+              </a:effectLst>
             </c:spPr>
             <c:txPr>
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -5645,45 +4672,9 @@
             <c:strRef>
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$14</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>國貿系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>金融系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>會計系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>統計系</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>企管系</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>資管系</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>財管系</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>風管系</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>科智所</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>國營碩</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>營管碩</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>企研所</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5693,12 +4684,9 @@
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$C$2:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.05</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5706,7 +4694,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-6662-4723-B343-501EFA8A4843}"/>
+              <c16:uniqueId val="{00000004-A48A-4C76-A5DF-FB9D5AACD0E4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5935,7 +4923,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D88C6A42-E8BF-44FA-A602-5337BDE2C2D3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98D2EF1B-D6E1-414E-AC6B-704FA4C38F82}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5968,7 +4956,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2457932-0DCC-471E-A69C-0E4B3A2C0DB9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33E03826-3062-432F-8EE0-A7E7A85B87FE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6001,7 +4989,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD76B534-A68A-4F14-ABCD-6A00838D1EEC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52F5C724-D427-451A-9F4B-FE92641327B6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6034,7 +5022,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5ED6F5C-C84A-4C5A-8658-3CC6F36B8706}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91220F3A-CA7C-4219-A5C5-4702F5B57D1D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6067,7 +5055,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF6CCEE1-E71B-46B4-8CDB-034C807F86C0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6519CC6A-4555-4FAF-9108-F081AABA652B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6100,7 +5088,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8ED13E4B-8595-4D19-ABA3-252B26C2DE50}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C34DC309-09F0-4C3A-B6F9-6E4A8D669FF5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6133,7 +5121,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E88CF53-815D-41B7-B8D7-6E0FEFF8F9D7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{536DB27D-41A8-43DF-BCEB-72819F9BE8F5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6154,72 +5142,6 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="主控台"/>
-      <sheetName val="template"/>
-      <sheetName val="test1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="1">
-          <cell r="C1" t="str">
-            <v>三年均值</v>
-          </cell>
-          <cell r="D1" t="str">
-            <v>110年</v>
-          </cell>
-          <cell r="E1" t="str">
-            <v>109年</v>
-          </cell>
-          <cell r="F1" t="str">
-            <v>108年</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="B2" t="str">
-            <v>科系1</v>
-          </cell>
-          <cell r="C2">
-            <v>0.06</v>
-          </cell>
-          <cell r="D2">
-            <v>0.06</v>
-          </cell>
-          <cell r="E2">
-            <v>0.03</v>
-          </cell>
-          <cell r="F2">
-            <v>1.4999999999999999E-2</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3" t="str">
-            <v>院均值</v>
-          </cell>
-          <cell r="C3">
-            <v>0.05</v>
-          </cell>
-          <cell r="D3">
-            <v>0.04</v>
-          </cell>
-          <cell r="E3">
-            <v>0.01</v>
-          </cell>
-          <cell r="F3">
-            <v>3.5000000000000003E-2</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6517,118 +5439,201 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="0" row="0">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{7E0AA41F-9CF7-4260-A3A6-016339928425}">
+  <we:reference id="wa104380862" version="1.5.0.0" store="zh-TW" storeType="OMEX"/>
+  <we:alternateReferences>
+    <we:reference id="wa104380862" version="1.5.0.0" store="" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties/>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76FB742E-61BC-458F-9DE5-03FF6EFD8B4E}">
   <sheetPr codeName="工作表1"/>
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="13" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="14" width="7.625" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>19</v>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" location="'1.1.1.1 學士班繁星推薦入學錄取率'!A1" display="1.1.1.1 學士班繁星推薦入學錄取率" xr:uid="{8AC09E46-A310-4A7A-ADB8-32E676CDE92C}"/>
-    <hyperlink ref="A3" location="'1.1.3.4 博士班招收國內重點大學畢業生比率'!A1" display="1.1.3.4 博士班招收國內重點大學畢業生比率" xr:uid="{C7F889CB-4CE0-4D28-8A27-EB53079A9BAC}"/>
-    <hyperlink ref="A4" location="'1.4.1.1 學士班獲獎助學金平均金額'!A1" display="1.4.1.1 學士班獲獎助學金平均金額" xr:uid="{E3A20648-5212-49FA-8481-A793B763941C}"/>
-    <hyperlink ref="A5" location="'1.7.1.4 碩士班平均修業年限'!A1" display="1.7.1.4 碩士班平均修業年限" xr:uid="{EBF4B286-8AA1-48B2-9FCF-EDE6EE1604EA}"/>
-    <hyperlink ref="A6" location="'2.1.1.2 平均碩博士班修課學生人數'!A1" display="2.1.1.2 平均碩博士班修課學生人數" xr:uid="{7E9812F3-78BC-4265-9162-D8905F7F5304}"/>
-    <hyperlink ref="A7" location="'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!A1" display="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" xr:uid="{5406148F-A5AA-4F20-B01B-EA3C04171095}"/>
-    <hyperlink ref="A8" location="'3.2.1.1 舉辦國際學術研討會數'!A1" display="3.2.1.1 舉辦國際學術研討會數" xr:uid="{F1A15883-6987-4971-B751-BDEE11900991}"/>
+    <hyperlink ref="B3" location="'1.1.1.1 學士班繁星推薦入學錄取率'!A1" display="學士班繁星推薦入學錄取率" xr:uid="{28A85599-2B13-459F-BD8E-CCDEBA343E68}"/>
+    <hyperlink ref="B4" location="'1.1.3.4 博士班招收國內重點大學畢業生比率'!A1" display="博士班招收國內重點大學畢業生比率" xr:uid="{06C7A40F-6FCE-4557-9833-35B8C02F8EF5}"/>
+    <hyperlink ref="B5" location="'1.4.1.1 學士班獲獎助學金平均金額'!A1" display="學士班獲獎助學金平均金額" xr:uid="{3C73848F-6682-42B0-93A9-3138365B12BB}"/>
+    <hyperlink ref="B6" location="'1.7.1.4 碩士班平均修業年限'!A1" display="碩士班平均修業年限" xr:uid="{A562E203-84A5-4351-89A9-3EF9D737290A}"/>
+    <hyperlink ref="B7" location="'2.1.1.2 平均碩博士班修課學生人數'!A1" display="平均碩博士班修課學生人數" xr:uid="{4F5F6FE0-F2D4-4CCD-8E86-AD44347B45A3}"/>
+    <hyperlink ref="B8" location="'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!A1" display="各系所教師兼任本校二級學術行政主管人次" xr:uid="{F539388A-4A43-4891-9175-E0F30BC2078F}"/>
+    <hyperlink ref="B9" location="'3.2.1.1 舉辦國際學術研討會數'!A1" display="舉辦國際學術研討會數" xr:uid="{1476EA1F-92A5-4E89-B3BB-2A2783EA5EDD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{599E617F-E53B-45D1-9ED9-CFCE3E846B4F}">
-  <sheetPr codeName="工作表2"/>
-  <dimension ref="A1:G14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{246D9BAC-2712-4F6B-B15C-9765DC358992}">
+  <sheetPr codeName="工作表1" filterMode="1"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6641,222 +5646,345 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="9">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="B4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="B5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="B6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="B7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="B8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="10">
-        <v>0.06</v>
-      </c>
-      <c r="D2" s="10">
-        <v>0.06</v>
-      </c>
-      <c r="E2" s="10">
-        <v>0.03</v>
-      </c>
-      <c r="F2" s="10">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="B10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="B11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="B12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="B13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="B14" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="9"/>
-    </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="9"/>
-    </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="D14" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="E14" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="F14" s="10">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="G14" s="9">
-        <v>999</v>
+      <c r="C14" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G14" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val="-"/>
+      </customFilters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G14">
       <sortCondition descending="1" ref="G1:G14"/>
     </sortState>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+    <sortCondition ref="G2"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6865,12 +5993,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C35E8637-DDBF-4CC5-B665-06F3B74C4527}">
-  <sheetPr codeName="工作表3"/>
-  <dimension ref="A1:G14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9928A60-16DF-4A1B-B425-0B0BC46DA5F6}">
+  <sheetPr codeName="工作表2" filterMode="1"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6883,222 +6011,345 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="9">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="B4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="B5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="B6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="B7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="B8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="10">
-        <v>0.06</v>
-      </c>
-      <c r="D2" s="10">
-        <v>0.06</v>
-      </c>
-      <c r="E2" s="10">
-        <v>0.03</v>
-      </c>
-      <c r="F2" s="10">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="B10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="B11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="B12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="B13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="B14" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="9"/>
-    </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="9"/>
-    </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="D14" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="E14" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="F14" s="10">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="G14" s="9">
-        <v>999</v>
+      <c r="C14" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G14" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val="-"/>
+      </customFilters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G14">
       <sortCondition descending="1" ref="G1:G14"/>
     </sortState>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+    <sortCondition ref="G2"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7107,12 +6358,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FBBBBA1-04F5-4B5D-AC03-74250833599D}">
-  <sheetPr codeName="工作表4"/>
-  <dimension ref="A1:G14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59ADE006-5989-49B4-94E5-2661A3E7DA2B}">
+  <sheetPr codeName="工作表3" filterMode="1"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7125,222 +6376,345 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="9">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="B4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="B5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="B6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="B7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="B8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="11">
-        <v>0.06</v>
-      </c>
-      <c r="D2" s="11">
-        <v>0.06</v>
-      </c>
-      <c r="E2" s="11">
-        <v>0.03</v>
-      </c>
-      <c r="F2" s="11">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="B10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="B11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="B12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="B13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="B14" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="9"/>
-    </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="9"/>
-    </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="11">
-        <v>0.05</v>
-      </c>
-      <c r="D14" s="11">
-        <v>0.04</v>
-      </c>
-      <c r="E14" s="11">
-        <v>0.01</v>
-      </c>
-      <c r="F14" s="11">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="G14" s="9">
-        <v>999</v>
+      <c r="C14" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G14" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val="-"/>
+      </customFilters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G14">
       <sortCondition descending="1" ref="G1:G14"/>
     </sortState>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+    <sortCondition ref="G2"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7349,12 +6723,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{374123A3-36E6-43B8-AA0C-A8FF3E0F5D6C}">
-  <sheetPr codeName="工作表5"/>
-  <dimension ref="A1:G14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{561DDAF8-120D-46F5-AABD-2C868477A9E2}">
+  <sheetPr codeName="工作表4" filterMode="1"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7367,222 +6741,345 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="9">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="B4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="B5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="B6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="B7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="B8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="12">
-        <v>0.06</v>
-      </c>
-      <c r="D2" s="12">
-        <v>0.06</v>
-      </c>
-      <c r="E2" s="12">
-        <v>0.03</v>
-      </c>
-      <c r="F2" s="12">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="B10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="B11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="B12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="B13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="B14" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="9"/>
-    </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="9"/>
-    </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="D14" s="12">
-        <v>0.04</v>
-      </c>
-      <c r="E14" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="F14" s="12">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="G14" s="9">
-        <v>999</v>
+      <c r="C14" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G14" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val="-"/>
+      </customFilters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G14">
       <sortCondition descending="1" ref="G1:G14"/>
     </sortState>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+    <sortCondition ref="G2"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7591,12 +7088,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A344DCB2-4427-499E-87F0-4477BBCCE2C4}">
-  <sheetPr codeName="工作表6"/>
-  <dimension ref="A1:G14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A560593F-DE87-4D49-AC2B-746FCD2C81D2}">
+  <sheetPr codeName="工作表5" filterMode="1"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7609,222 +7106,345 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="9">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="B4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="B5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="B6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="B7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="B8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="12">
-        <v>0.06</v>
-      </c>
-      <c r="D2" s="12">
-        <v>0.06</v>
-      </c>
-      <c r="E2" s="12">
-        <v>0.03</v>
-      </c>
-      <c r="F2" s="12">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="B10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="B11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="B12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="B13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="B14" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="9"/>
-    </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="9"/>
-    </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="D14" s="12">
-        <v>0.04</v>
-      </c>
-      <c r="E14" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="F14" s="12">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="G14" s="9">
-        <v>999</v>
+      <c r="C14" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G14" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val="-"/>
+      </customFilters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G14">
       <sortCondition descending="1" ref="G1:G14"/>
     </sortState>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+    <sortCondition ref="G2"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7833,12 +7453,12 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{184BFDDA-85C0-4A4F-AE64-C0A4DD5749FA}">
-  <sheetPr codeName="工作表7"/>
-  <dimension ref="A1:G14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5663859A-55E8-4CAA-9342-DB5A90ADE245}">
+  <sheetPr codeName="工作表6" filterMode="1"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7851,222 +7471,345 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="9">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="B4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="B5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="B6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="B7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="B8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="12">
-        <v>0.06</v>
-      </c>
-      <c r="D2" s="12">
-        <v>0.06</v>
-      </c>
-      <c r="E2" s="12">
-        <v>0.03</v>
-      </c>
-      <c r="F2" s="12">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="B10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="B11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="B12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="B13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="B14" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="9"/>
-    </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="9"/>
-    </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="D14" s="12">
-        <v>0.04</v>
-      </c>
-      <c r="E14" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="F14" s="12">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="G14" s="9">
-        <v>999</v>
+      <c r="C14" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G14" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val="-"/>
+      </customFilters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G14">
       <sortCondition descending="1" ref="G1:G14"/>
     </sortState>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+    <sortCondition ref="G2"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8075,12 +7818,12 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{549D8D20-81AA-4897-B46B-F77B56A82455}">
-  <sheetPr codeName="工作表8"/>
-  <dimension ref="A1:G14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5412C38-383B-43C1-B9D3-73EA2B7EEBB8}">
+  <sheetPr codeName="工作表7" filterMode="1"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8093,222 +7836,345 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="9">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="B4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="B5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="B6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="B7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="B8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="12">
-        <v>0.06</v>
-      </c>
-      <c r="D2" s="12">
-        <v>0.06</v>
-      </c>
-      <c r="E2" s="12">
-        <v>0.03</v>
-      </c>
-      <c r="F2" s="12">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="B10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="B11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="B12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="B13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="B14" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="9"/>
-    </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="9"/>
-    </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="D14" s="12">
-        <v>0.04</v>
-      </c>
-      <c r="E14" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="F14" s="12">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="G14" s="9">
-        <v>999</v>
+      <c r="C14" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G14" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val="-"/>
+      </customFilters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G14">
       <sortCondition descending="1" ref="G1:G14"/>
     </sortState>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+    <sortCondition ref="G2"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/test/1. 各院彙整資料/商學院.xlsx
+++ b/test/1. 各院彙整資料/商學院.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\學評組工讀生\應數碩三_陳慎逸\3. Index-Evaluation-Analysis-Report\test\1. 各院彙整資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C2F01B9-F675-47E2-9525-61EC5B34A3DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14918A42-F8E6-43BF-9759-A6DF2E03B3C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="7" xr2:uid="{2E9BB182-6497-4499-BC43-82F52A84B2D6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="7" xr2:uid="{43661B9F-549E-45C0-867C-82B2E6390FF3}"/>
   </bookViews>
   <sheets>
     <sheet name="小結" sheetId="1" r:id="rId1"/>
-    <sheet name="1.1.1.1 學士班繁星推薦入學錄取率" sheetId="72" r:id="rId2"/>
-    <sheet name="1.1.3.4 博士班招收國內重點大學畢業生比率" sheetId="73" r:id="rId3"/>
-    <sheet name="1.4.1.1 學士班獲獎助學金平均金額" sheetId="74" r:id="rId4"/>
-    <sheet name="1.7.1.4 碩士班平均修業年限" sheetId="75" r:id="rId5"/>
-    <sheet name="2.1.1.2 平均碩博士班修課學生人數" sheetId="76" r:id="rId6"/>
-    <sheet name="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" sheetId="77" r:id="rId7"/>
-    <sheet name="3.2.1.1 舉辦國際學術研討會數" sheetId="78" r:id="rId8"/>
+    <sheet name="1.1.1.1 學士班繁星推薦入學錄取率" sheetId="93" r:id="rId2"/>
+    <sheet name="1.1.3.4 博士班招收國內重點大學畢業生比率" sheetId="94" r:id="rId3"/>
+    <sheet name="1.4.1.1 學士班獲獎助學金平均金額" sheetId="95" r:id="rId4"/>
+    <sheet name="1.7.1.4 碩士班平均修業年限" sheetId="96" r:id="rId5"/>
+    <sheet name="2.1.1.2 平均碩博士班修課學生人數" sheetId="97" r:id="rId6"/>
+    <sheet name="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" sheetId="98" r:id="rId7"/>
+    <sheet name="3.2.1.1 舉辦國際學術研討會數" sheetId="99" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1.1.1.1 學士班繁星推薦入學錄取率'!$A$1:$G$14</definedName>
@@ -50,124 +50,84 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="62">
+  <si>
+    <t>300 商學院（院加總 / 院均值）</t>
+  </si>
+  <si>
+    <t>商學院</t>
+  </si>
+  <si>
+    <t>301 國際經營與貿易學系</t>
+  </si>
   <si>
     <t>國貿系</t>
+  </si>
+  <si>
+    <t>302 金融學系</t>
   </si>
   <si>
     <t>金融系</t>
   </si>
   <si>
+    <t>303 會計學系</t>
+  </si>
+  <si>
     <t>會計系</t>
+  </si>
+  <si>
+    <t>304 統計學系</t>
   </si>
   <si>
     <t>統計系</t>
   </si>
   <si>
+    <t>305 企業管理學系</t>
+  </si>
+  <si>
     <t>企管系</t>
+  </si>
+  <si>
+    <t>306 資訊管理學系</t>
   </si>
   <si>
     <t>資管系</t>
   </si>
   <si>
+    <t>307 財務管理學系</t>
+  </si>
+  <si>
     <t>財管系</t>
+  </si>
+  <si>
+    <t>308 風險管理與保險學系</t>
   </si>
   <si>
     <t>風管系</t>
   </si>
   <si>
+    <t>364 科技管理與智慧財產研究所</t>
+  </si>
+  <si>
     <t>科智所</t>
+  </si>
+  <si>
+    <t>933 國際經營管理英語碩士學位學程</t>
   </si>
   <si>
     <t>國營碩</t>
   </si>
   <si>
-    <t>營管碩</t>
+    <t>932 經營管理碩士學程</t>
   </si>
   <si>
-    <t>企研所</t>
-  </si>
-  <si>
-    <t>科系</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>簡稱</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>三年均值</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>110年</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>109年</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>108年</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>排序欄</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>院均值</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>300 商學院（院加總 / 院均值）</t>
-  </si>
-  <si>
-    <t>301 國際經營與貿易學系</t>
-  </si>
-  <si>
-    <t>302 金融學系</t>
-  </si>
-  <si>
-    <t>303 會計學系</t>
-  </si>
-  <si>
-    <t>304 統計學系</t>
-  </si>
-  <si>
-    <t>305 企業管理學系</t>
-  </si>
-  <si>
-    <t>306 資訊管理學系</t>
-  </si>
-  <si>
-    <t>307 財務管理學系</t>
-  </si>
-  <si>
-    <t>308 風險管理與保險學系</t>
-  </si>
-  <si>
-    <t>364 科技管理與智慧財產研究所</t>
-  </si>
-  <si>
-    <t>933 國際經營管理英語碩士學位學程</t>
-  </si>
-  <si>
-    <t>932 經營管理碩士學程</t>
+    <t>營管碩</t>
   </si>
   <si>
     <t>363 企業管理研究所(MBA學位學程)</t>
   </si>
   <si>
     <t>企研所</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>院加總</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>商學院</t>
   </si>
   <si>
     <t>1.1.1.1</t>
@@ -212,21 +172,102 @@
     <t>舉辦國際學術研討會數</t>
   </si>
   <si>
-    <t>-</t>
+    <t>科系</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>簡稱</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>三年均值</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>110年</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>109年</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>108年</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序欄</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>院均值</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>企研所</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>院加總</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均</t>
+  </si>
+  <si>
+    <t>小結 3</t>
+  </si>
+  <si>
+    <t>小結 2</t>
+  </si>
+  <si>
+    <t>小結 1</t>
+  </si>
+  <si>
+    <t>—</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>院三年均值為11.09%，低於院三年均值者計有4個系，為金融系6.14%、財管系7.98%、統計系8.89%、風管系9.49%。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>院三年均值為41.32%，高於院三年均值者計有4個系，為資管系58.62%、科智所46.67%、財管系42.86%、企管系41.94%。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>院三年均值為38,702，高於院三年均值者計有2個系，為企管系61,248、會計系40,150。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>院三年均值為19.92，高於院三年均值者計有6個系，為企研所33.66、國營碩30.33、會計系22.61、財管系20.73、金融系20.43、統計系20.23。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>院加總三年均值為0.67，包含統計系0.67。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>無資料。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>院三年均值為2.73，低於院三年均值者計有8個系，為資管系、財管系2.18、統計系2.2、金融系2.22、會計系2.3、國貿系2.38、企研所2.48、國營碩2.67。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="7">
     <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="177" formatCode="0.00%;&quot;—&quot;;&quot;—&quot;"/>
-    <numFmt numFmtId="178" formatCode="#,##0;&quot;—&quot;;&quot;—&quot;"/>
-    <numFmt numFmtId="179" formatCode="#,##0.00;&quot;—&quot;;&quot;—&quot;"/>
+    <numFmt numFmtId="177" formatCode="&quot;—&quot;"/>
+    <numFmt numFmtId="178" formatCode="#,##0;\-#,###;0"/>
+    <numFmt numFmtId="179" formatCode="###.##%;\-###.##%;0%"/>
+    <numFmt numFmtId="180" formatCode="###%;###%;0%"/>
+    <numFmt numFmtId="181" formatCode="#,##0.##;\-#,##0.##;0"/>
+    <numFmt numFmtId="182" formatCode="#,###;#,###;0"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -409,7 +450,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -444,15 +485,27 @@
     <xf numFmtId="178" fontId="12" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="12" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="12" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="12" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="12" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="3" xr:uid="{190BB275-0AE3-4EC5-AD4F-479FE3283F94}"/>
-    <cellStyle name="一般 3" xfId="2" xr:uid="{7C042AD3-B538-4EC2-8251-A98602020933}"/>
-    <cellStyle name="百分比 2" xfId="4" xr:uid="{CAC813C1-184F-4EE1-A28E-FB151B796B05}"/>
+    <cellStyle name="一般 2" xfId="3" xr:uid="{434C914C-8E2A-4264-BDB7-6146D8A91C67}"/>
+    <cellStyle name="一般 3" xfId="2" xr:uid="{797603AB-9DDC-4180-B55C-217FD74D8EDE}"/>
+    <cellStyle name="百分比 2" xfId="4" xr:uid="{EB521341-D840-4E42-A23A-7485934A4F9D}"/>
     <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -532,8 +585,32 @@
             <c:strRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$14</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>金融系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>財管系</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>統計系</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>風管系</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>國貿系</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>資管系</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>企管系</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>會計系</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -543,17 +620,41 @@
             <c:numRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$F$2:$F$14</c:f>
               <c:numCache>
-                <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
+                <c:formatCode>###.##%;\-###.##%;0%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0" formatCode="###%;###%;0%">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.8599999999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.21049999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1143</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.15379999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.19400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.2281</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.25419999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1615</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-70CA-4C97-9E3D-B16063E1C887}"/>
+              <c16:uniqueId val="{00000000-5341-46F9-9092-8B5B04730264}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -590,8 +691,32 @@
             <c:strRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$14</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>金融系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>財管系</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>統計系</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>風管系</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>國貿系</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>資管系</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>企管系</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>會計系</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -601,17 +726,41 @@
             <c:numRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$E$2:$E$14</c:f>
               <c:numCache>
-                <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>###.##%;\-###.##%;0%</c:formatCode>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>4.7600000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.6000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.4000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.2099999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="###%;###%;0%">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.4899999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.12039999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.14560000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.5099999999999995E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-70CA-4C97-9E3D-B16063E1C887}"/>
+              <c16:uniqueId val="{00000001-5341-46F9-9092-8B5B04730264}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -648,8 +797,32 @@
             <c:strRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$14</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>金融系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>財管系</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>統計系</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>風管系</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>國貿系</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>資管系</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>企管系</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>會計系</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -659,17 +832,41 @@
             <c:numRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$D$2:$D$14</c:f>
               <c:numCache>
-                <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>###.##%;\-###.##%;0%</c:formatCode>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>5.8000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.14E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.4800000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1111</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1237</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1215</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1646</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.19739999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.11020000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-70CA-4C97-9E3D-B16063E1C887}"/>
+              <c16:uniqueId val="{00000002-5341-46F9-9092-8B5B04730264}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -784,7 +981,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-70CA-4C97-9E3D-B16063E1C887}"/>
+                  <c16:uniqueId val="{00000003-5341-46F9-9092-8B5B04730264}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -862,8 +1059,32 @@
             <c:strRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$14</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>金融系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>財管系</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>統計系</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>風管系</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>國貿系</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>資管系</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>企管系</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>會計系</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -873,10 +1094,34 @@
             <c:numRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$C$2:$C$14</c:f>
               <c:numCache>
-                <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>###.##%;\-###.##%;0%</c:formatCode>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>6.1400000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.9799999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.8900000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.4899999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.122</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.12540000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1598</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.18909999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1109</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -884,7 +1129,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-70CA-4C97-9E3D-B16063E1C887}"/>
+              <c16:uniqueId val="{00000004-5341-46F9-9092-8B5B04730264}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -984,7 +1229,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:numFmt formatCode="0%;\-0%;0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1167,8 +1412,35 @@
             <c:strRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$14</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>資管系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>科智所</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>財管系</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>企管系</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>金融系</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>會計系</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>統計系</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>國貿系</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>風管系</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -1178,17 +1450,44 @@
             <c:numRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$F$2:$F$14</c:f>
               <c:numCache>
-                <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>###%;###%;0%</c:formatCode>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="###.##%;\-###.##%;0%">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="###.##%;\-###.##%;0%">
+                  <c:v>0.42859999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="&quot;—&quot;">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="###.##%;\-###.##%;0%">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="###.##%;\-###.##%;0%">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-662B-4078-B520-C2413C9B2393}"/>
+              <c16:uniqueId val="{00000000-7B7B-47F7-BD9F-90339E7189E5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1225,8 +1524,35 @@
             <c:strRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$14</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>資管系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>科智所</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>財管系</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>企管系</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>金融系</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>會計系</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>統計系</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>國貿系</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>風管系</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -1236,17 +1562,44 @@
             <c:numRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$E$2:$E$14</c:f>
               <c:numCache>
-                <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>###%;###%;0%</c:formatCode>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="###.##%;\-###.##%;0%">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="###.##%;\-###.##%;0%">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="###.##%;\-###.##%;0%">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-662B-4078-B520-C2413C9B2393}"/>
+              <c16:uniqueId val="{00000001-7B7B-47F7-BD9F-90339E7189E5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1283,8 +1636,35 @@
             <c:strRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$14</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>資管系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>科智所</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>財管系</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>企管系</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>金融系</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>會計系</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>統計系</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>國貿系</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>風管系</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -1294,17 +1674,44 @@
             <c:numRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$D$2:$D$14</c:f>
               <c:numCache>
-                <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:formatCode>###%;###%;0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0" formatCode="###.##%;\-###.##%;0%">
+                  <c:v>0.44440000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="###.##%;\-###.##%;0%">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="###.##%;\-###.##%;0%">
+                  <c:v>0.23080000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="###.##%;\-###.##%;0%">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="###.##%;\-###.##%;0%">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="###.##%;\-###.##%;0%">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="###.##%;\-###.##%;0%">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="###.##%;\-###.##%;0%">
+                  <c:v>0.24390000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-662B-4078-B520-C2413C9B2393}"/>
+              <c16:uniqueId val="{00000002-7B7B-47F7-BD9F-90339E7189E5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1419,7 +1826,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-662B-4078-B520-C2413C9B2393}"/>
+                  <c16:uniqueId val="{00000003-7B7B-47F7-BD9F-90339E7189E5}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1497,8 +1904,35 @@
             <c:strRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$14</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>資管系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>科智所</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>財管系</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>企管系</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>金融系</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>會計系</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>統計系</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>國貿系</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>風管系</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -1508,10 +1942,37 @@
             <c:numRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$C$2:$C$14</c:f>
               <c:numCache>
-                <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>###.##%;\-###.##%;0%</c:formatCode>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>0.58620000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.42859999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4194</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.36840000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.33329999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="###%;###%;0%">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.16669999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.41320000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1519,7 +1980,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-662B-4078-B520-C2413C9B2393}"/>
+              <c16:uniqueId val="{00000004-7B7B-47F7-BD9F-90339E7189E5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1619,7 +2080,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:numFmt formatCode="0%;\-0%;0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1802,8 +2263,44 @@
             <c:strRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$14</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
+                  <c:v>企管系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>會計系</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>資管系</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>統計系</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>國貿系</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>金融系</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>財管系</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>風管系</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>科智所</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>國營碩</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>營管碩</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>企研所</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -1813,17 +2310,53 @@
             <c:numRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$F$2:$F$14</c:f>
               <c:numCache>
-                <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>#,##0;\-#,###;0</c:formatCode>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
+                  <c:v>72931</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39882</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30775</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24672</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27459</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27819</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25541</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="&quot;—&quot;">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="&quot;—&quot;">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="&quot;—&quot;">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="&quot;—&quot;">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>40765.440000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2044-4D13-8EAB-D4B5210F0790}"/>
+              <c16:uniqueId val="{00000000-D434-45AB-BBAA-0CF78E2EFC0C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1860,8 +2393,44 @@
             <c:strRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$14</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
+                  <c:v>企管系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>會計系</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>資管系</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>統計系</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>國貿系</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>金融系</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>財管系</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>風管系</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>科智所</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>國營碩</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>營管碩</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>企研所</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -1871,17 +2440,53 @@
             <c:numRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$E$2:$E$14</c:f>
               <c:numCache>
-                <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>#,##0;\-#,###;0</c:formatCode>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
+                  <c:v>63195.12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46419.78</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39920.949999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34856.29</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32026.67</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28237.03</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28684.47</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19224.87</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="&quot;—&quot;">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="&quot;—&quot;">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="&quot;—&quot;">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="&quot;—&quot;">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>40166.74</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2044-4D13-8EAB-D4B5210F0790}"/>
+              <c16:uniqueId val="{00000001-D434-45AB-BBAA-0CF78E2EFC0C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1918,8 +2523,44 @@
             <c:strRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$14</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
+                  <c:v>企管系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>會計系</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>資管系</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>統計系</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>國貿系</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>金融系</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>財管系</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>風管系</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>科智所</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>國營碩</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>營管碩</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>企研所</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -1929,17 +2570,53 @@
             <c:numRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$D$2:$D$14</c:f>
               <c:numCache>
-                <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>#,##0;\-#,###;0</c:formatCode>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
+                  <c:v>50592.26</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34589.03</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33303.61</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28390.54</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32060.92</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31334.33</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30335.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28670.880000000001</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="&quot;—&quot;">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="&quot;—&quot;">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="&quot;—&quot;">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="&quot;—&quot;">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>35876.589999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-2044-4D13-8EAB-D4B5210F0790}"/>
+              <c16:uniqueId val="{00000002-D434-45AB-BBAA-0CF78E2EFC0C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2054,7 +2731,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-2044-4D13-8EAB-D4B5210F0790}"/>
+                  <c16:uniqueId val="{00000003-D434-45AB-BBAA-0CF78E2EFC0C}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2132,8 +2809,44 @@
             <c:strRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$14</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
+                  <c:v>企管系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>會計系</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>資管系</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>統計系</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>國貿系</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>金融系</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>財管系</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>風管系</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>科智所</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>國營碩</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>營管碩</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>企研所</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -2143,10 +2856,46 @@
             <c:numRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$C$2:$C$14</c:f>
               <c:numCache>
-                <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>#,##0;\-#,###;0</c:formatCode>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
+                  <c:v>61247.839999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40149.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37659.49</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31048.84</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29834</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29240.81</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29162.45</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24916.04</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>38701.97</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2154,7 +2903,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-2044-4D13-8EAB-D4B5210F0790}"/>
+              <c16:uniqueId val="{00000004-D434-45AB-BBAA-0CF78E2EFC0C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2254,7 +3003,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:numFmt formatCode="#,##0;\-#,###;0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2437,8 +3186,41 @@
             <c:strRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$14</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>資管系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>財管系</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>統計系</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>金融系</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>會計系</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>國貿系</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>企研所</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>國營碩</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>風管系</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>科智所</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>營管碩</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -2448,17 +3230,50 @@
             <c:numRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$F$2:$F$14</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>#,##0.##;\-#,##0.##;0</c:formatCode>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="#,###;#,###;0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.72</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7DB2-4813-BDA2-16CFDB1ECC14}"/>
+              <c16:uniqueId val="{00000000-B33F-4DB4-8DA1-4B4B117DEFAB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2495,8 +3310,41 @@
             <c:strRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$14</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>資管系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>財管系</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>統計系</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>金融系</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>會計系</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>國貿系</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>企研所</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>國營碩</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>風管系</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>科智所</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>營管碩</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -2506,17 +3354,50 @@
             <c:numRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$E$2:$E$14</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>#,##0.##;\-#,##0.##;0</c:formatCode>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.34</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.63</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.57</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.68</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.77</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7DB2-4813-BDA2-16CFDB1ECC14}"/>
+              <c16:uniqueId val="{00000001-B33F-4DB4-8DA1-4B4B117DEFAB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2553,8 +3434,41 @@
             <c:strRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$14</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>資管系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>財管系</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>統計系</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>金融系</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>會計系</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>國貿系</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>企研所</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>國營碩</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>風管系</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>科智所</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>營管碩</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -2564,17 +3478,50 @@
             <c:numRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$D$2:$D$14</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>#,##0.##;\-#,##0.##;0</c:formatCode>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2.13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.23</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.23</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.4700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.52</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.96</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.06</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.38</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.71</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-7DB2-4813-BDA2-16CFDB1ECC14}"/>
+              <c16:uniqueId val="{00000002-B33F-4DB4-8DA1-4B4B117DEFAB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2689,7 +3636,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-7DB2-4813-BDA2-16CFDB1ECC14}"/>
+                  <c16:uniqueId val="{00000003-B33F-4DB4-8DA1-4B4B117DEFAB}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2767,8 +3714,41 @@
             <c:strRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$14</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>資管系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>財管系</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>統計系</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>金融系</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>會計系</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>國貿系</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>企研所</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>國營碩</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>風管系</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>科智所</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>營管碩</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -2778,10 +3758,43 @@
             <c:numRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$C$2:$C$14</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>#,##0.##;\-#,##0.##;0</c:formatCode>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2.1800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.38</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.48</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.67</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.86</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.03</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.47</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.73</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2789,7 +3802,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-7DB2-4813-BDA2-16CFDB1ECC14}"/>
+              <c16:uniqueId val="{00000004-B33F-4DB4-8DA1-4B4B117DEFAB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2889,7 +3902,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:numFmt formatCode="0.0;\-0.0;0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3072,8 +4085,41 @@
             <c:strRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$14</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>企研所</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>國營碩</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>會計系</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>財管系</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>金融系</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>統計系</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>資管系</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>國貿系</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>科智所</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>風管系</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>企管系</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -3083,17 +4129,50 @@
             <c:numRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$F$2:$F$14</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>#,##0.##;\-#,##0.##;0</c:formatCode>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>36.71</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33.96</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.08</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.95</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.04</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16.02</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.61</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.51</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.86</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21.21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C6D9-4C39-BF17-F63104B80989}"/>
+              <c16:uniqueId val="{00000000-F7A4-44F4-B67C-FD16C4E8A329}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3130,8 +4209,41 @@
             <c:strRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$14</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>企研所</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>國營碩</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>會計系</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>財管系</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>金融系</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>統計系</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>資管系</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>國貿系</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>科智所</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>風管系</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>企管系</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -3141,17 +4253,50 @@
             <c:numRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$E$2:$E$14</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>#,##0.##;\-#,##0.##;0</c:formatCode>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>34.520000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.54</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.85</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.649999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.95</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.17</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.55</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.61</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.14</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19.22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C6D9-4C39-BF17-F63104B80989}"/>
+              <c16:uniqueId val="{00000001-F7A4-44F4-B67C-FD16C4E8A329}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3188,8 +4333,41 @@
             <c:strRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$14</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>企研所</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>國營碩</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>會計系</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>財管系</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>金融系</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>統計系</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>資管系</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>國貿系</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>科智所</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>風管系</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>企管系</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -3199,17 +4377,50 @@
             <c:numRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$D$2:$D$14</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>#,##0.##;\-#,##0.##;0</c:formatCode>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>30.03</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29.42</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.79</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.61</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.38</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.23</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.78</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.64</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14.33</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.63</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.21</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19.399999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-C6D9-4C39-BF17-F63104B80989}"/>
+              <c16:uniqueId val="{00000002-F7A4-44F4-B67C-FD16C4E8A329}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3324,7 +4535,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-C6D9-4C39-BF17-F63104B80989}"/>
+                  <c16:uniqueId val="{00000003-F7A4-44F4-B67C-FD16C4E8A329}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3402,8 +4613,41 @@
             <c:strRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$14</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>企研所</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>國營碩</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>會計系</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>財管系</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>金融系</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>統計系</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>資管系</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>國貿系</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>科智所</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>風管系</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>企管系</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -3413,10 +4657,43 @@
             <c:numRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$C$2:$C$14</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>#,##0.##;\-#,##0.##;0</c:formatCode>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>33.659999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.61</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.73</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.43</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.23</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.83</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.07</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.85</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.23</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.07</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19.920000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3424,7 +4701,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-C6D9-4C39-BF17-F63104B80989}"/>
+              <c16:uniqueId val="{00000004-F7A4-44F4-B67C-FD16C4E8A329}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3524,7 +4801,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:numFmt formatCode="#,##0;\-#,###;0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3707,8 +4984,38 @@
             <c:strRef>
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$14</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>統計系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>國貿系</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>金融系</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>會計系</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>企管系</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>資管系</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>財管系</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>風管系</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>科智所</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>國營碩</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>院加總</c:v>
                 </c:pt>
               </c:strCache>
@@ -3718,17 +5025,47 @@
             <c:numRef>
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$F$2:$F$14</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:formatCode>#,##0.##;\-#,##0.##;0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0" formatCode="#,###;#,###;0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="#,###;#,###;0">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2142-4C79-A419-0890F69E2670}"/>
+              <c16:uniqueId val="{00000000-E06E-4D1E-9E7B-2A3EE85E0FFA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3765,8 +5102,38 @@
             <c:strRef>
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$14</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>統計系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>國貿系</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>金融系</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>會計系</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>企管系</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>資管系</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>財管系</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>風管系</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>科智所</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>國營碩</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>院加總</c:v>
                 </c:pt>
               </c:strCache>
@@ -3776,17 +5143,47 @@
             <c:numRef>
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$E$2:$E$14</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:formatCode>#,##0.##;\-#,##0.##;0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0" formatCode="#,###;#,###;0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="#,###;#,###;0">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2142-4C79-A419-0890F69E2670}"/>
+              <c16:uniqueId val="{00000001-E06E-4D1E-9E7B-2A3EE85E0FFA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3823,8 +5220,38 @@
             <c:strRef>
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$14</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>統計系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>國貿系</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>金融系</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>會計系</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>企管系</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>資管系</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>財管系</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>風管系</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>科智所</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>國營碩</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>院加總</c:v>
                 </c:pt>
               </c:strCache>
@@ -3834,9 +5261,39 @@
             <c:numRef>
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$D$2:$D$14</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>#,##0.##;\-#,##0.##;0</c:formatCode>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3844,7 +5301,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-2142-4C79-A419-0890F69E2670}"/>
+              <c16:uniqueId val="{00000002-E06E-4D1E-9E7B-2A3EE85E0FFA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3959,7 +5416,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-2142-4C79-A419-0890F69E2670}"/>
+                  <c16:uniqueId val="{00000003-E06E-4D1E-9E7B-2A3EE85E0FFA}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4037,8 +5494,38 @@
             <c:strRef>
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$14</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>統計系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>國貿系</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>金融系</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>會計系</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>企管系</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>資管系</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>財管系</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>風管系</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>科智所</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>國營碩</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>院加總</c:v>
                 </c:pt>
               </c:strCache>
@@ -4048,10 +5535,40 @@
             <c:numRef>
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$C$2:$C$14</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>#,##0.##;\-#,##0.##;0</c:formatCode>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.67</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4059,7 +5576,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-2142-4C79-A419-0890F69E2670}"/>
+              <c16:uniqueId val="{00000004-E06E-4D1E-9E7B-2A3EE85E0FFA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4159,7 +5676,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:numFmt formatCode="0.0;\-0.0;0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4353,7 +5870,7 @@
             <c:numRef>
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$F$2:$F$14</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
+                <c:formatCode>"—"</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -4363,7 +5880,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A48A-4C76-A5DF-FB9D5AACD0E4}"/>
+              <c16:uniqueId val="{00000000-AA4D-4CD6-8568-94149E8B7EB7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4411,7 +5928,7 @@
             <c:numRef>
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$E$2:$E$14</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
+                <c:formatCode>"—"</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -4421,7 +5938,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A48A-4C76-A5DF-FB9D5AACD0E4}"/>
+              <c16:uniqueId val="{00000001-AA4D-4CD6-8568-94149E8B7EB7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4469,7 +5986,7 @@
             <c:numRef>
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$D$2:$D$14</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
+                <c:formatCode>"—"</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -4479,7 +5996,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-A48A-4C76-A5DF-FB9D5AACD0E4}"/>
+              <c16:uniqueId val="{00000002-AA4D-4CD6-8568-94149E8B7EB7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4594,7 +6111,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-A48A-4C76-A5DF-FB9D5AACD0E4}"/>
+                  <c16:uniqueId val="{00000003-AA4D-4CD6-8568-94149E8B7EB7}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4683,7 +6200,7 @@
             <c:numRef>
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$C$2:$C$14</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
+                <c:formatCode>"—"</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -4694,7 +6211,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-A48A-4C76-A5DF-FB9D5AACD0E4}"/>
+              <c16:uniqueId val="{00000004-AA4D-4CD6-8568-94149E8B7EB7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4794,7 +6311,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:numFmt formatCode="0.0;\-0.0;0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4923,7 +6440,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98D2EF1B-D6E1-414E-AC6B-704FA4C38F82}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D9285CE-493A-4C5C-86DD-B187F02C07B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4956,7 +6473,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33E03826-3062-432F-8EE0-A7E7A85B87FE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D14AC591-3ECE-460A-95C6-5F97A14476F1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4989,7 +6506,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52F5C724-D427-451A-9F4B-FE92641327B6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9B63A80-FD01-4A38-8F41-C2AEC3CE4CC2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5022,7 +6539,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91220F3A-CA7C-4219-A5C5-4702F5B57D1D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5166A92F-CDB5-4B52-961C-ACC5943E263F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5055,7 +6572,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6519CC6A-4555-4FAF-9108-F081AABA652B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{573CB76B-3104-4B8F-97FB-E160FA11FA3D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5088,7 +6605,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C34DC309-09F0-4C3A-B6F9-6E4A8D669FF5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E81D2028-6009-4E8B-ACA1-F66357AF1249}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5121,7 +6638,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{536DB27D-41A8-43DF-BCEB-72819F9BE8F5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A83025E4-235B-432B-8AF0-23E60AF37F86}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5448,7 +6965,7 @@
 </file>
 
 <file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{7E0AA41F-9CF7-4260-A3A6-016339928425}">
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{ACCBE6AA-775C-4F79-AD4A-98C7146B4D62}">
   <we:reference id="wa104380862" version="1.5.0.0" store="zh-TW" storeType="OMEX"/>
   <we:alternateReferences>
     <we:reference id="wa104380862" version="1.5.0.0" store="" storeType="OMEX"/>
@@ -5460,9 +6977,9 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76FB742E-61BC-458F-9DE5-03FF6EFD8B4E}">
-  <sheetPr codeName="工作表1"/>
-  <dimension ref="A1:N9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B59C1267-A4AB-4C43-9E4A-B5C7F784EE5C}">
+  <sheetPr codeName="工作表8"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5476,513 +6993,897 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>37</v>
+        <v>27</v>
+      </c>
+      <c r="C3" s="12">
+        <v>5</v>
+      </c>
+      <c r="D3" s="12">
+        <v>1</v>
+      </c>
+      <c r="E3" s="12">
+        <v>8</v>
+      </c>
+      <c r="F3" s="12">
+        <v>3</v>
+      </c>
+      <c r="G3" s="12">
+        <v>7</v>
+      </c>
+      <c r="H3" s="12">
+        <v>6</v>
+      </c>
+      <c r="I3" s="12">
+        <v>2</v>
+      </c>
+      <c r="J3" s="12">
+        <v>4</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>39</v>
+        <v>29</v>
+      </c>
+      <c r="C4" s="12">
+        <v>8</v>
+      </c>
+      <c r="D4" s="12">
+        <v>5</v>
+      </c>
+      <c r="E4" s="12">
+        <v>6</v>
+      </c>
+      <c r="F4" s="12">
+        <v>7</v>
+      </c>
+      <c r="G4" s="12">
+        <v>4</v>
+      </c>
+      <c r="H4" s="12">
+        <v>1</v>
+      </c>
+      <c r="I4" s="12">
+        <v>3</v>
+      </c>
+      <c r="J4" s="12">
+        <v>9</v>
+      </c>
+      <c r="K4" s="12">
+        <v>2</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
+      </c>
+      <c r="C5" s="12">
+        <v>5</v>
+      </c>
+      <c r="D5" s="12">
+        <v>6</v>
+      </c>
+      <c r="E5" s="12">
+        <v>2</v>
+      </c>
+      <c r="F5" s="12">
+        <v>4</v>
+      </c>
+      <c r="G5" s="12">
+        <v>1</v>
+      </c>
+      <c r="H5" s="12">
+        <v>3</v>
+      </c>
+      <c r="I5" s="12">
+        <v>7</v>
+      </c>
+      <c r="J5" s="12">
+        <v>8</v>
+      </c>
+      <c r="K5" s="12">
+        <v>9</v>
+      </c>
+      <c r="L5" s="12">
+        <v>9</v>
+      </c>
+      <c r="M5" s="12">
+        <v>9</v>
+      </c>
+      <c r="N5" s="12">
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
+      </c>
+      <c r="C6" s="12">
+        <v>6</v>
+      </c>
+      <c r="D6" s="12">
+        <v>4</v>
+      </c>
+      <c r="E6" s="12">
+        <v>5</v>
+      </c>
+      <c r="F6" s="12">
+        <v>3</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" s="12">
+        <v>1</v>
+      </c>
+      <c r="I6" s="12">
+        <v>1</v>
+      </c>
+      <c r="J6" s="12">
+        <v>9</v>
+      </c>
+      <c r="K6" s="12">
+        <v>10</v>
+      </c>
+      <c r="L6" s="12">
+        <v>8</v>
+      </c>
+      <c r="M6" s="12">
+        <v>11</v>
+      </c>
+      <c r="N6" s="12">
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="12">
+        <v>6</v>
+      </c>
+      <c r="D7" s="12">
+        <v>4</v>
+      </c>
+      <c r="E7" s="12">
+        <v>5.25</v>
+      </c>
+      <c r="F7" s="12">
+        <v>4.25</v>
+      </c>
+      <c r="G7" s="12">
+        <v>4</v>
+      </c>
+      <c r="H7" s="12">
+        <v>2.75</v>
+      </c>
+      <c r="I7" s="12">
+        <v>3.25</v>
+      </c>
+      <c r="J7" s="12">
+        <v>7.5</v>
+      </c>
+      <c r="K7" s="12">
+        <v>7</v>
+      </c>
+      <c r="L7" s="12">
+        <v>8.5</v>
+      </c>
+      <c r="M7" s="12">
+        <v>10</v>
+      </c>
+      <c r="N7" s="12">
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>47</v>
+        <v>35</v>
+      </c>
+      <c r="C8" s="12">
+        <v>8</v>
+      </c>
+      <c r="D8" s="12">
+        <v>5</v>
+      </c>
+      <c r="E8" s="12">
+        <v>3</v>
+      </c>
+      <c r="F8" s="12">
+        <v>6</v>
+      </c>
+      <c r="G8" s="12">
+        <v>11</v>
+      </c>
+      <c r="H8" s="12">
+        <v>7</v>
+      </c>
+      <c r="I8" s="12">
+        <v>4</v>
+      </c>
+      <c r="J8" s="12">
+        <v>10</v>
+      </c>
+      <c r="K8" s="12">
+        <v>9</v>
+      </c>
+      <c r="L8" s="12">
+        <v>2</v>
+      </c>
+      <c r="M8" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="N8" s="12">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>49</v>
+        <v>37</v>
+      </c>
+      <c r="C9" s="12">
+        <v>2</v>
+      </c>
+      <c r="D9" s="12">
+        <v>2</v>
+      </c>
+      <c r="E9" s="12">
+        <v>2</v>
+      </c>
+      <c r="F9" s="12">
+        <v>1</v>
+      </c>
+      <c r="G9" s="12">
+        <v>2</v>
+      </c>
+      <c r="H9" s="12">
+        <v>2</v>
+      </c>
+      <c r="I9" s="12">
+        <v>2</v>
+      </c>
+      <c r="J9" s="12">
+        <v>2</v>
+      </c>
+      <c r="K9" s="12">
+        <v>2</v>
+      </c>
+      <c r="L9" s="12">
+        <v>2</v>
+      </c>
+      <c r="M9" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="N9" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="12">
+        <v>5.71</v>
+      </c>
+      <c r="D10" s="12">
+        <v>3.86</v>
+      </c>
+      <c r="E10" s="12">
+        <v>4.46</v>
+      </c>
+      <c r="F10" s="12">
+        <v>4.04</v>
+      </c>
+      <c r="G10" s="12">
+        <v>4.83</v>
+      </c>
+      <c r="H10" s="12">
+        <v>3.25</v>
+      </c>
+      <c r="I10" s="12">
+        <v>3.18</v>
+      </c>
+      <c r="J10" s="12">
+        <v>7.07</v>
+      </c>
+      <c r="K10" s="12">
+        <v>6.5</v>
+      </c>
+      <c r="L10" s="12">
+        <v>5.9</v>
+      </c>
+      <c r="M10" s="12">
+        <v>10</v>
+      </c>
+      <c r="N10" s="12">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="L11" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="M11" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="N11" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="12">
+        <v>5.71</v>
+      </c>
+      <c r="D12" s="12">
+        <v>3.86</v>
+      </c>
+      <c r="E12" s="12">
+        <v>4.46</v>
+      </c>
+      <c r="F12" s="12">
+        <v>4.04</v>
+      </c>
+      <c r="G12" s="12">
+        <v>4.83</v>
+      </c>
+      <c r="H12" s="12">
+        <v>3.25</v>
+      </c>
+      <c r="I12" s="12">
+        <v>3.18</v>
+      </c>
+      <c r="J12" s="12">
+        <v>7.07</v>
+      </c>
+      <c r="K12" s="12">
+        <v>6.5</v>
+      </c>
+      <c r="L12" s="12">
+        <v>5.9</v>
+      </c>
+      <c r="M12" s="12">
+        <v>10</v>
+      </c>
+      <c r="N12" s="12">
+        <v>6.25</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" location="'1.1.1.1 學士班繁星推薦入學錄取率'!A1" display="學士班繁星推薦入學錄取率" xr:uid="{28A85599-2B13-459F-BD8E-CCDEBA343E68}"/>
-    <hyperlink ref="B4" location="'1.1.3.4 博士班招收國內重點大學畢業生比率'!A1" display="博士班招收國內重點大學畢業生比率" xr:uid="{06C7A40F-6FCE-4557-9833-35B8C02F8EF5}"/>
-    <hyperlink ref="B5" location="'1.4.1.1 學士班獲獎助學金平均金額'!A1" display="學士班獲獎助學金平均金額" xr:uid="{3C73848F-6682-42B0-93A9-3138365B12BB}"/>
-    <hyperlink ref="B6" location="'1.7.1.4 碩士班平均修業年限'!A1" display="碩士班平均修業年限" xr:uid="{A562E203-84A5-4351-89A9-3EF9D737290A}"/>
-    <hyperlink ref="B7" location="'2.1.1.2 平均碩博士班修課學生人數'!A1" display="平均碩博士班修課學生人數" xr:uid="{4F5F6FE0-F2D4-4CCD-8E86-AD44347B45A3}"/>
-    <hyperlink ref="B8" location="'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!A1" display="各系所教師兼任本校二級學術行政主管人次" xr:uid="{F539388A-4A43-4891-9175-E0F30BC2078F}"/>
-    <hyperlink ref="B9" location="'3.2.1.1 舉辦國際學術研討會數'!A1" display="舉辦國際學術研討會數" xr:uid="{1476EA1F-92A5-4E89-B3BB-2A2783EA5EDD}"/>
+    <hyperlink ref="B3" location="'1.1.1.1 學士班繁星推薦入學錄取率'!A1" display="學士班繁星推薦入學錄取率" xr:uid="{AF734C59-6DCA-4615-AC67-4EA92472C0E5}"/>
+    <hyperlink ref="B4" location="'1.1.3.4 博士班招收國內重點大學畢業生比率'!A1" display="博士班招收國內重點大學畢業生比率" xr:uid="{7D2BBEE5-D1B6-4871-9614-E68A752B8945}"/>
+    <hyperlink ref="B5" location="'1.4.1.1 學士班獲獎助學金平均金額'!A1" display="學士班獲獎助學金平均金額" xr:uid="{15202481-189D-4310-9753-530536BD6D83}"/>
+    <hyperlink ref="B6" location="'1.7.1.4 碩士班平均修業年限'!A1" display="碩士班平均修業年限" xr:uid="{BBED49B2-F3A4-44E0-A86E-5E8B46044CAB}"/>
+    <hyperlink ref="B8" location="'2.1.1.2 平均碩博士班修課學生人數'!A1" display="平均碩博士班修課學生人數" xr:uid="{9E0C66C2-9C28-48C7-9A11-AF4C9F69F525}"/>
+    <hyperlink ref="B9" location="'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!A1" display="各系所教師兼任本校二級學術行政主管人次" xr:uid="{4694BB2D-0DF2-47AF-B4F7-C8AFAC1C6198}"/>
+    <hyperlink ref="B11" location="'3.2.1.1 舉辦國際學術研討會數'!A1" display="舉辦國際學術研討會數" xr:uid="{0B1573D8-1BF8-40CD-9488-5422C250A1FB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{246D9BAC-2712-4F6B-B15C-9765DC358992}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BB05E04-A736-4B6E-8BC7-029C7B28F2DB}">
   <sheetPr codeName="工作表1" filterMode="1"/>
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="6" customWidth="1"/>
-    <col min="4" max="8" width="9" style="6"/>
+    <col min="3" max="6" width="7.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>50</v>
+        <v>5</v>
+      </c>
+      <c r="C2" s="13">
+        <v>6.1400000000000003E-2</v>
+      </c>
+      <c r="D2" s="13">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="E2" s="13">
+        <v>4.7600000000000003E-2</v>
+      </c>
+      <c r="F2" s="14">
+        <v>0.1</v>
       </c>
       <c r="G2" s="9">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="C3" s="13">
+        <v>7.9799999999999996E-2</v>
+      </c>
+      <c r="D3" s="13">
+        <v>8.14E-2</v>
+      </c>
+      <c r="E3" s="13">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="F3" s="13">
+        <v>9.8599999999999993E-2</v>
+      </c>
+      <c r="G3" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="C4" s="13">
+        <v>8.8900000000000007E-2</v>
+      </c>
+      <c r="D4" s="13">
+        <v>7.4800000000000005E-2</v>
+      </c>
+      <c r="E4" s="13">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="F4" s="13">
+        <v>0.21049999999999999</v>
+      </c>
+      <c r="G4" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="13">
+        <v>9.4899999999999998E-2</v>
+      </c>
+      <c r="D5" s="13">
+        <v>0.1111</v>
+      </c>
+      <c r="E5" s="13">
+        <v>7.2099999999999997E-2</v>
+      </c>
+      <c r="F5" s="13">
+        <v>0.1143</v>
+      </c>
+      <c r="G5" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>2</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="13">
+        <v>0.122</v>
+      </c>
+      <c r="D6" s="13">
+        <v>0.1237</v>
+      </c>
+      <c r="E6" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="F6" s="13">
+        <v>0.15379999999999999</v>
+      </c>
+      <c r="G6" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="C7" s="13">
+        <v>0.12540000000000001</v>
+      </c>
+      <c r="D7" s="13">
+        <v>0.1215</v>
+      </c>
+      <c r="E7" s="13">
+        <v>9.4899999999999998E-2</v>
+      </c>
+      <c r="F7" s="13">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="G7" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="C8" s="13">
+        <v>0.1598</v>
+      </c>
+      <c r="D8" s="13">
+        <v>0.1646</v>
+      </c>
+      <c r="E8" s="13">
+        <v>0.12039999999999999</v>
+      </c>
+      <c r="F8" s="13">
+        <v>0.2281</v>
+      </c>
+      <c r="G8" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="C9" s="13">
+        <v>0.18909999999999999</v>
+      </c>
+      <c r="D9" s="13">
+        <v>0.19739999999999999</v>
+      </c>
+      <c r="E9" s="13">
+        <v>0.14560000000000001</v>
+      </c>
+      <c r="F9" s="13">
+        <v>0.25419999999999998</v>
+      </c>
+      <c r="G9" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
+      </c>
+      <c r="C10" s="13">
+        <v>0.1109</v>
+      </c>
+      <c r="D10" s="13">
+        <v>0.11020000000000001</v>
+      </c>
+      <c r="E10" s="13">
+        <v>8.5099999999999995E-2</v>
+      </c>
+      <c r="F10" s="13">
+        <v>0.1615</v>
+      </c>
+      <c r="G10" s="9">
+        <v>999</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G14" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="6">
       <customFilters>
-        <customFilter operator="notEqual" val="-"/>
+        <customFilter operator="notEqual" val="—"/>
       </customFilters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G14">
-      <sortCondition descending="1" ref="G1:G14"/>
+      <sortCondition ref="G1:G14"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G10">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5993,361 +7894,363 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9928A60-16DF-4A1B-B425-0B0BC46DA5F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E955FA20-D3DB-491F-B1AC-1C0D739288D8}">
   <sheetPr codeName="工作表2" filterMode="1"/>
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="6" customWidth="1"/>
-    <col min="4" max="8" width="9" style="6"/>
+    <col min="3" max="4" width="7.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="13">
+        <v>0.58620000000000005</v>
+      </c>
+      <c r="D2" s="13">
+        <v>0.44440000000000002</v>
+      </c>
+      <c r="E2" s="14">
+        <v>0.7</v>
+      </c>
+      <c r="F2" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="G2" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G2" s="9">
+      <c r="C3" s="13">
+        <v>0.4667</v>
+      </c>
+      <c r="D3" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="E3" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="F3" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="G3" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="13">
+        <v>0.42859999999999998</v>
+      </c>
+      <c r="D4" s="13">
+        <v>0</v>
+      </c>
+      <c r="E4" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="F4" s="14">
+        <v>1</v>
+      </c>
+      <c r="G4" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="13">
+        <v>0.4194</v>
+      </c>
+      <c r="D5" s="13">
+        <v>0.23080000000000001</v>
+      </c>
+      <c r="E5" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="13">
+        <v>0.625</v>
+      </c>
+      <c r="G5" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="13">
+        <v>0.36840000000000001</v>
+      </c>
+      <c r="D6" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="E6" s="13">
+        <v>0.375</v>
+      </c>
+      <c r="F6" s="13">
+        <v>0.42859999999999998</v>
+      </c>
+      <c r="G6" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="13">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="D7" s="13">
+        <v>0</v>
+      </c>
+      <c r="E7" s="14">
+        <v>1</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="D8" s="13">
+        <v>0</v>
+      </c>
+      <c r="E8" s="13">
+        <v>0</v>
+      </c>
+      <c r="F8" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="G8" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="13">
+        <v>0.16669999999999999</v>
+      </c>
+      <c r="D9" s="13">
+        <v>0</v>
+      </c>
+      <c r="E9" s="14">
+        <v>1</v>
+      </c>
+      <c r="F9" s="13">
+        <v>0</v>
+      </c>
+      <c r="G9" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="13">
+        <v>0</v>
+      </c>
+      <c r="D10" s="13">
+        <v>0</v>
+      </c>
+      <c r="E10" s="13">
+        <v>0</v>
+      </c>
+      <c r="F10" s="13">
+        <v>0</v>
+      </c>
+      <c r="G10" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="13">
+        <v>0.41320000000000001</v>
+      </c>
+      <c r="D11" s="13">
+        <v>0.24390000000000001</v>
+      </c>
+      <c r="E11" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="F11" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="G11" s="9">
         <v>999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G14" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="6">
       <customFilters>
-        <customFilter operator="notEqual" val="-"/>
+        <customFilter operator="notEqual" val="—"/>
       </customFilters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G14">
-      <sortCondition descending="1" ref="G1:G14"/>
+      <sortCondition ref="G1:G14"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G11">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6358,361 +8261,361 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59ADE006-5989-49B4-94E5-2661A3E7DA2B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A65F834-1AC9-4564-942D-3547AD25C08B}">
   <sheetPr codeName="工作表3" filterMode="1"/>
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="6" customWidth="1"/>
-    <col min="4" max="8" width="9" style="6"/>
+    <col min="3" max="6" width="6.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>50</v>
+        <v>11</v>
+      </c>
+      <c r="C2" s="11">
+        <v>61247.839999999997</v>
+      </c>
+      <c r="D2" s="11">
+        <v>50592.26</v>
+      </c>
+      <c r="E2" s="11">
+        <v>63195.12</v>
+      </c>
+      <c r="F2" s="11">
+        <v>72931</v>
       </c>
       <c r="G2" s="9">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="C3" s="11">
+        <v>40149.9</v>
+      </c>
+      <c r="D3" s="11">
+        <v>34589.03</v>
+      </c>
+      <c r="E3" s="11">
+        <v>46419.78</v>
+      </c>
+      <c r="F3" s="11">
+        <v>39882</v>
+      </c>
+      <c r="G3" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="C4" s="11">
+        <v>37659.49</v>
+      </c>
+      <c r="D4" s="11">
+        <v>33303.61</v>
+      </c>
+      <c r="E4" s="11">
+        <v>39920.949999999997</v>
+      </c>
+      <c r="F4" s="11">
+        <v>40128</v>
+      </c>
+      <c r="G4" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="11">
+        <v>31048.84</v>
+      </c>
+      <c r="D5" s="11">
+        <v>28390.54</v>
+      </c>
+      <c r="E5" s="11">
+        <v>34856.29</v>
+      </c>
+      <c r="F5" s="11">
+        <v>30775</v>
+      </c>
+      <c r="G5" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>2</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="11">
+        <v>29834</v>
+      </c>
+      <c r="D6" s="11">
+        <v>32060.92</v>
+      </c>
+      <c r="E6" s="11">
+        <v>32026.67</v>
+      </c>
+      <c r="F6" s="11">
+        <v>24672</v>
+      </c>
+      <c r="G6" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="C7" s="11">
+        <v>29240.81</v>
+      </c>
+      <c r="D7" s="11">
+        <v>31334.33</v>
+      </c>
+      <c r="E7" s="11">
+        <v>28237.03</v>
+      </c>
+      <c r="F7" s="11">
+        <v>27459</v>
+      </c>
+      <c r="G7" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="C8" s="11">
+        <v>29162.45</v>
+      </c>
+      <c r="D8" s="11">
+        <v>30335.8</v>
+      </c>
+      <c r="E8" s="11">
+        <v>28684.47</v>
+      </c>
+      <c r="F8" s="11">
+        <v>27819</v>
+      </c>
+      <c r="G8" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="C9" s="11">
+        <v>24916.04</v>
+      </c>
+      <c r="D9" s="11">
+        <v>28670.880000000001</v>
+      </c>
+      <c r="E9" s="11">
+        <v>19224.87</v>
+      </c>
+      <c r="F9" s="11">
+        <v>25541</v>
+      </c>
+      <c r="G9" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="C10" s="11">
+        <v>0</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="C11" s="11">
+        <v>0</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B12" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="11">
+        <v>0</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" s="9">
         <v>9</v>
       </c>
-      <c r="C12" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="C13" s="11">
+        <v>0</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
+      </c>
+      <c r="C14" s="11">
+        <v>38701.97</v>
+      </c>
+      <c r="D14" s="11">
+        <v>35876.589999999997</v>
+      </c>
+      <c r="E14" s="11">
+        <v>40166.74</v>
+      </c>
+      <c r="F14" s="11">
+        <v>40765.440000000002</v>
+      </c>
+      <c r="G14" s="9">
+        <v>999</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G14" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="6">
       <customFilters>
-        <customFilter operator="notEqual" val="-"/>
+        <customFilter operator="notEqual" val="—"/>
       </customFilters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G14">
-      <sortCondition descending="1" ref="G1:G14"/>
+      <sortCondition ref="G1:G14"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G14">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6723,361 +8626,361 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{561DDAF8-120D-46F5-AABD-2C868477A9E2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD0852AF-6276-4BF2-ABA3-3A8520EC82B7}">
   <sheetPr codeName="工作表4" filterMode="1"/>
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="6" customWidth="1"/>
-    <col min="4" max="8" width="9" style="6"/>
+    <col min="3" max="6" width="4.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="15">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="D2" s="15">
+        <v>2.13</v>
+      </c>
+      <c r="E2" s="15">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F2" s="15">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G2" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="15">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="D3" s="15">
+        <v>2.23</v>
+      </c>
+      <c r="E3" s="15">
+        <v>2.13</v>
+      </c>
+      <c r="F3" s="15">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G3" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="15">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D4" s="15">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="E4" s="15">
+        <v>2.21</v>
+      </c>
+      <c r="F4" s="15">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G4" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="15">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="D5" s="15">
+        <v>2.25</v>
+      </c>
+      <c r="E5" s="15">
+        <v>2.21</v>
+      </c>
+      <c r="F5" s="15">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G5" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D6" s="15">
+        <v>2.4</v>
+      </c>
+      <c r="E6" s="15">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="F6" s="15">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G6" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="15">
+        <v>2.38</v>
+      </c>
+      <c r="D7" s="15">
+        <v>2.23</v>
+      </c>
+      <c r="E7" s="15">
+        <v>2.34</v>
+      </c>
+      <c r="F7" s="15">
+        <v>2.5</v>
+      </c>
+      <c r="G7" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="15">
+        <v>2.48</v>
+      </c>
+      <c r="D8" s="15">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="E8" s="15">
+        <v>2.5</v>
+      </c>
+      <c r="F8" s="15">
+        <v>2.5</v>
+      </c>
+      <c r="G8" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="15">
+        <v>2.67</v>
+      </c>
+      <c r="D9" s="15">
+        <v>2.52</v>
+      </c>
+      <c r="E9" s="15">
+        <v>2.63</v>
+      </c>
+      <c r="F9" s="15">
+        <v>2.8</v>
+      </c>
+      <c r="G9" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="15">
+        <v>2.86</v>
+      </c>
+      <c r="D10" s="15">
+        <v>2.96</v>
+      </c>
+      <c r="E10" s="15">
+        <v>2.57</v>
+      </c>
+      <c r="F10" s="16">
+        <v>3</v>
+      </c>
+      <c r="G10" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G2" s="9">
+      <c r="C11" s="15">
+        <v>3.03</v>
+      </c>
+      <c r="D11" s="15">
+        <v>3.06</v>
+      </c>
+      <c r="E11" s="15">
+        <v>3.13</v>
+      </c>
+      <c r="F11" s="15">
+        <v>2.9</v>
+      </c>
+      <c r="G11" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="15">
+        <v>3.47</v>
+      </c>
+      <c r="D12" s="15">
+        <v>3.38</v>
+      </c>
+      <c r="E12" s="15">
+        <v>3.68</v>
+      </c>
+      <c r="F12" s="15">
+        <v>3.4</v>
+      </c>
+      <c r="G12" s="9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="15">
+        <v>2.73</v>
+      </c>
+      <c r="D13" s="15">
+        <v>2.71</v>
+      </c>
+      <c r="E13" s="15">
+        <v>2.77</v>
+      </c>
+      <c r="F13" s="15">
+        <v>2.72</v>
+      </c>
+      <c r="G13" s="9">
         <v>999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>50</v>
+        <v>11</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G14" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="6">
       <customFilters>
-        <customFilter operator="notEqual" val="-"/>
+        <customFilter operator="notEqual" val="—"/>
       </customFilters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G14">
-      <sortCondition descending="1" ref="G1:G14"/>
+      <sortCondition ref="G1:G14"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G13">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7088,361 +8991,361 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A560593F-DE87-4D49-AC2B-746FCD2C81D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AE6FEEA-6B32-4A33-8BFB-DA89B9AA65D9}">
   <sheetPr codeName="工作表5" filterMode="1"/>
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="6" customWidth="1"/>
-    <col min="4" max="8" width="9" style="6"/>
+    <col min="3" max="6" width="5.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="15">
+        <v>33.659999999999997</v>
+      </c>
+      <c r="D2" s="15">
+        <v>30.03</v>
+      </c>
+      <c r="E2" s="15">
+        <v>34.520000000000003</v>
+      </c>
+      <c r="F2" s="15">
+        <v>36.71</v>
+      </c>
+      <c r="G2" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="15">
+        <v>30.33</v>
+      </c>
+      <c r="D3" s="15">
+        <v>29.42</v>
+      </c>
+      <c r="E3" s="15">
+        <v>27.54</v>
+      </c>
+      <c r="F3" s="15">
+        <v>33.96</v>
+      </c>
+      <c r="G3" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="15">
+        <v>22.61</v>
+      </c>
+      <c r="D4" s="15">
+        <v>20.79</v>
+      </c>
+      <c r="E4" s="15">
+        <v>20.85</v>
+      </c>
+      <c r="F4" s="15">
+        <v>27.08</v>
+      </c>
+      <c r="G4" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="15">
+        <v>20.73</v>
+      </c>
+      <c r="D5" s="15">
+        <v>18.61</v>
+      </c>
+      <c r="E5" s="15">
+        <v>19.649999999999999</v>
+      </c>
+      <c r="F5" s="15">
+        <v>24.95</v>
+      </c>
+      <c r="G5" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="15">
+        <v>20.43</v>
+      </c>
+      <c r="D6" s="15">
+        <v>19.38</v>
+      </c>
+      <c r="E6" s="15">
+        <v>22.9</v>
+      </c>
+      <c r="F6" s="15">
+        <v>19.18</v>
+      </c>
+      <c r="G6" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="15">
+        <v>20.23</v>
+      </c>
+      <c r="D7" s="15">
+        <v>18.23</v>
+      </c>
+      <c r="E7" s="15">
+        <v>22.95</v>
+      </c>
+      <c r="F7" s="15">
+        <v>20.04</v>
+      </c>
+      <c r="G7" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="15">
+        <v>15.83</v>
+      </c>
+      <c r="D8" s="15">
+        <v>14.78</v>
+      </c>
+      <c r="E8" s="15">
+        <v>14.17</v>
+      </c>
+      <c r="F8" s="15">
+        <v>18.5</v>
+      </c>
+      <c r="G8" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="15">
+        <v>15.07</v>
+      </c>
+      <c r="D9" s="15">
+        <v>15.64</v>
+      </c>
+      <c r="E9" s="15">
+        <v>13.55</v>
+      </c>
+      <c r="F9" s="15">
+        <v>16.02</v>
+      </c>
+      <c r="G9" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G2" s="9">
+      <c r="C10" s="15">
+        <v>13.85</v>
+      </c>
+      <c r="D10" s="15">
+        <v>14.33</v>
+      </c>
+      <c r="E10" s="15">
+        <v>13.61</v>
+      </c>
+      <c r="F10" s="15">
+        <v>13.61</v>
+      </c>
+      <c r="G10" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="15">
+        <v>12.23</v>
+      </c>
+      <c r="D11" s="15">
+        <v>12.63</v>
+      </c>
+      <c r="E11" s="15">
+        <v>12.45</v>
+      </c>
+      <c r="F11" s="15">
+        <v>11.51</v>
+      </c>
+      <c r="G11" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="15">
+        <v>3.07</v>
+      </c>
+      <c r="D12" s="15">
+        <v>3.21</v>
+      </c>
+      <c r="E12" s="15">
+        <v>3.14</v>
+      </c>
+      <c r="F12" s="15">
+        <v>2.86</v>
+      </c>
+      <c r="G12" s="9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="15">
+        <v>19.920000000000002</v>
+      </c>
+      <c r="D13" s="15">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="E13" s="15">
+        <v>19.22</v>
+      </c>
+      <c r="F13" s="15">
+        <v>21.21</v>
+      </c>
+      <c r="G13" s="9">
         <v>999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>50</v>
+        <v>23</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G14" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="6">
       <customFilters>
-        <customFilter operator="notEqual" val="-"/>
+        <customFilter operator="notEqual" val="—"/>
       </customFilters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G14">
-      <sortCondition descending="1" ref="G1:G14"/>
+      <sortCondition ref="G1:G14"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G13">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7453,361 +9356,362 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5663859A-55E8-4CAA-9342-DB5A90ADE245}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBC0D196-92CE-45DC-AF4C-4442A30FAF97}">
   <sheetPr codeName="工作表6" filterMode="1"/>
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="6" customWidth="1"/>
-    <col min="4" max="8" width="9" style="6"/>
+    <col min="3" max="3" width="4.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="3.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="15">
+        <v>0.67</v>
+      </c>
+      <c r="D2" s="15">
+        <v>0</v>
+      </c>
+      <c r="E2" s="16">
+        <v>1</v>
+      </c>
+      <c r="F2" s="16">
+        <v>1</v>
+      </c>
+      <c r="G2" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="15">
+        <v>0</v>
+      </c>
+      <c r="D3" s="15">
+        <v>0</v>
+      </c>
+      <c r="E3" s="15">
+        <v>0</v>
+      </c>
+      <c r="F3" s="15">
+        <v>0</v>
+      </c>
+      <c r="G3" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="15">
+        <v>0</v>
+      </c>
+      <c r="D4" s="15">
+        <v>0</v>
+      </c>
+      <c r="E4" s="15">
+        <v>0</v>
+      </c>
+      <c r="F4" s="15">
+        <v>0</v>
+      </c>
+      <c r="G4" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="15">
+        <v>0</v>
+      </c>
+      <c r="D5" s="15">
+        <v>0</v>
+      </c>
+      <c r="E5" s="15">
+        <v>0</v>
+      </c>
+      <c r="F5" s="15">
+        <v>0</v>
+      </c>
+      <c r="G5" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="15">
+        <v>0</v>
+      </c>
+      <c r="D6" s="15">
+        <v>0</v>
+      </c>
+      <c r="E6" s="15">
+        <v>0</v>
+      </c>
+      <c r="F6" s="15">
+        <v>0</v>
+      </c>
+      <c r="G6" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="15">
+        <v>0</v>
+      </c>
+      <c r="D7" s="15">
+        <v>0</v>
+      </c>
+      <c r="E7" s="15">
+        <v>0</v>
+      </c>
+      <c r="F7" s="15">
+        <v>0</v>
+      </c>
+      <c r="G7" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="15">
+        <v>0</v>
+      </c>
+      <c r="D8" s="15">
+        <v>0</v>
+      </c>
+      <c r="E8" s="15">
+        <v>0</v>
+      </c>
+      <c r="F8" s="15">
+        <v>0</v>
+      </c>
+      <c r="G8" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="15">
+        <v>0</v>
+      </c>
+      <c r="D9" s="15">
+        <v>0</v>
+      </c>
+      <c r="E9" s="15">
+        <v>0</v>
+      </c>
+      <c r="F9" s="15">
+        <v>0</v>
+      </c>
+      <c r="G9" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="15">
+        <v>0</v>
+      </c>
+      <c r="D10" s="15">
+        <v>0</v>
+      </c>
+      <c r="E10" s="15">
+        <v>0</v>
+      </c>
+      <c r="F10" s="15">
+        <v>0</v>
+      </c>
+      <c r="G10" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G2" s="9">
+      <c r="B11" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="15">
+        <v>0</v>
+      </c>
+      <c r="D11" s="15">
+        <v>0</v>
+      </c>
+      <c r="E11" s="15">
+        <v>0</v>
+      </c>
+      <c r="F11" s="15">
+        <v>0</v>
+      </c>
+      <c r="G11" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="15">
+        <v>0.67</v>
+      </c>
+      <c r="D12" s="15">
+        <v>0</v>
+      </c>
+      <c r="E12" s="16">
+        <v>1</v>
+      </c>
+      <c r="F12" s="16">
+        <v>1</v>
+      </c>
+      <c r="G12" s="9">
         <v>999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>50</v>
+        <v>23</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G14" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="6">
       <customFilters>
-        <customFilter operator="notEqual" val="-"/>
+        <customFilter operator="notEqual" val="—"/>
       </customFilters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G14">
-      <sortCondition descending="1" ref="G1:G14"/>
+      <sortCondition ref="G1:G14"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G12">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7818,68 +9722,68 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5412C38-383B-43C1-B9D3-73EA2B7EEBB8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DE724D7-C836-41E7-ACA3-67404F985A20}">
   <sheetPr codeName="工作表7" filterMode="1"/>
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="6" customWidth="1"/>
-    <col min="4" max="8" width="9" style="6"/>
+    <col min="3" max="6" width="3.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="G2" s="9">
         <v>999</v>
@@ -7887,289 +9791,289 @@
     </row>
     <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>50</v>
+        <v>3</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>50</v>
+        <v>5</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>50</v>
+        <v>7</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>50</v>
+        <v>9</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>50</v>
+        <v>11</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>50</v>
+        <v>13</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>50</v>
+        <v>15</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>50</v>
+        <v>17</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>50</v>
+        <v>19</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>50</v>
+        <v>21</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>50</v>
+        <v>23</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G14" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="6">
       <customFilters>
-        <customFilter operator="notEqual" val="-"/>
+        <customFilter operator="notEqual" val="—"/>
       </customFilters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G14">
-      <sortCondition descending="1" ref="G1:G14"/>
+      <sortCondition ref="G1:G14"/>
     </sortState>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">

--- a/test/1. 各院彙整資料/商學院.xlsx
+++ b/test/1. 各院彙整資料/商學院.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\學評組工讀生\應數碩三_陳慎逸\3. Index-Evaluation-Analysis-Report\test\1. 各院彙整資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14918A42-F8E6-43BF-9759-A6DF2E03B3C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F816E0-3913-437F-B661-857F2BCE3168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="7" xr2:uid="{43661B9F-549E-45C0-867C-82B2E6390FF3}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="14580" windowHeight="10230" firstSheet="5" activeTab="7" xr2:uid="{43661B9F-549E-45C0-867C-82B2E6390FF3}"/>
   </bookViews>
   <sheets>
     <sheet name="小結" sheetId="1" r:id="rId1"/>
-    <sheet name="1.1.1.1 學士班繁星推薦入學錄取率" sheetId="93" r:id="rId2"/>
-    <sheet name="1.1.3.4 博士班招收國內重點大學畢業生比率" sheetId="94" r:id="rId3"/>
-    <sheet name="1.4.1.1 學士班獲獎助學金平均金額" sheetId="95" r:id="rId4"/>
-    <sheet name="1.7.1.4 碩士班平均修業年限" sheetId="96" r:id="rId5"/>
-    <sheet name="2.1.1.2 平均碩博士班修課學生人數" sheetId="97" r:id="rId6"/>
-    <sheet name="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" sheetId="98" r:id="rId7"/>
-    <sheet name="3.2.1.1 舉辦國際學術研討會數" sheetId="99" r:id="rId8"/>
+    <sheet name="1.1.1.1 學士班繁星推薦入學錄取率" sheetId="100" r:id="rId2"/>
+    <sheet name="1.1.3.4 博士班招收國內重點大學畢業生比率" sheetId="101" r:id="rId3"/>
+    <sheet name="1.4.1.1 學士班獲獎助學金平均金額" sheetId="102" r:id="rId4"/>
+    <sheet name="1.7.1.4 碩士班平均修業年限" sheetId="103" r:id="rId5"/>
+    <sheet name="2.1.1.2 平均碩博士班修課學生人數" sheetId="104" r:id="rId6"/>
+    <sheet name="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" sheetId="105" r:id="rId7"/>
+    <sheet name="3.2.1.1 舉辦國際學術研討會數" sheetId="106" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1.1.1.1 學士班繁星推薦入學錄取率'!$A$1:$G$14</definedName>
@@ -218,42 +218,34 @@
     <t>小結 3</t>
   </si>
   <si>
-    <t>小結 2</t>
+    <t>平均 1</t>
   </si>
   <si>
-    <t>小結 1</t>
+    <t>平均 2</t>
   </si>
   <si>
     <t>—</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>院三年均值為11.09%，低於院三年均值者計有4個系，為金融系6.14%、財管系7.98%、統計系8.89%、風管系9.49%。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>院三年均值為41.32%，高於院三年均值者計有4個系，為資管系58.62%、科智所46.67%、財管系42.86%、企管系41.94%。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>院三年均值為38,702，高於院三年均值者計有2個系，為企管系61,248、會計系40,150。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>院三年均值為2.73，低於院三年均值者計有8個系，為資管系、財管系2.18、統計系2.2、金融系2.22、會計系2.3、國貿系2.38、企研所2.48、國營碩2.67。</t>
   </si>
   <si>
     <t>院三年均值為19.92，高於院三年均值者計有6個系，為企研所33.66、國營碩30.33、會計系22.61、財管系20.73、金融系20.43、統計系20.23。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>院加總三年均值為0.67，包含統計系0.67。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>無資料。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>院三年均值為2.73，低於院三年均值者計有8個系，為資管系、財管系2.18、統計系2.2、金融系2.22、會計系2.3、國貿系2.38、企研所2.48、國營碩2.67。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -262,10 +254,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
     <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="177" formatCode="&quot;—&quot;"/>
-    <numFmt numFmtId="178" formatCode="#,##0;\-#,###;0"/>
-    <numFmt numFmtId="179" formatCode="###.##%;\-###.##%;0%"/>
-    <numFmt numFmtId="180" formatCode="###%;###%;0%"/>
+    <numFmt numFmtId="177" formatCode="###.##%;\-###.##%;0%"/>
+    <numFmt numFmtId="178" formatCode="###%;###%;0%"/>
+    <numFmt numFmtId="179" formatCode="&quot;—&quot;"/>
+    <numFmt numFmtId="180" formatCode="#,##0;\-#,###;0"/>
     <numFmt numFmtId="181" formatCode="#,##0.##;\-#,##0.##;0"/>
     <numFmt numFmtId="182" formatCode="#,###;#,###;0"/>
   </numFmts>
@@ -485,9 +477,6 @@
     <xf numFmtId="178" fontId="12" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="12" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -498,6 +487,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="182" fontId="12" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -654,7 +646,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5341-46F9-9092-8B5B04730264}"/>
+              <c16:uniqueId val="{00000000-FC68-4290-BEF0-ED29F884E663}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -760,7 +752,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5341-46F9-9092-8B5B04730264}"/>
+              <c16:uniqueId val="{00000001-FC68-4290-BEF0-ED29F884E663}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -866,7 +858,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-5341-46F9-9092-8B5B04730264}"/>
+              <c16:uniqueId val="{00000002-FC68-4290-BEF0-ED29F884E663}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -924,7 +916,7 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="0"/>
+              <c:idx val="8"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -979,9 +971,6 @@
                       <a:avLst/>
                     </a:prstGeom>
                   </c15:spPr>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-5341-46F9-9092-8B5B04730264}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1129,7 +1118,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-5341-46F9-9092-8B5B04730264}"/>
+              <c16:uniqueId val="{00000004-FC68-4290-BEF0-ED29F884E663}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1487,7 +1476,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7B7B-47F7-BD9F-90339E7189E5}"/>
+              <c16:uniqueId val="{00000000-9BEA-4E51-B1D3-6FB5BD15E95A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1599,7 +1588,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7B7B-47F7-BD9F-90339E7189E5}"/>
+              <c16:uniqueId val="{00000001-9BEA-4E51-B1D3-6FB5BD15E95A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1711,7 +1700,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-7B7B-47F7-BD9F-90339E7189E5}"/>
+              <c16:uniqueId val="{00000002-9BEA-4E51-B1D3-6FB5BD15E95A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1769,7 +1758,7 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="0"/>
+              <c:idx val="9"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -1824,9 +1813,6 @@
                       <a:avLst/>
                     </a:prstGeom>
                   </c15:spPr>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-7B7B-47F7-BD9F-90339E7189E5}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1980,7 +1966,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-7B7B-47F7-BD9F-90339E7189E5}"/>
+              <c16:uniqueId val="{00000004-9BEA-4E51-B1D3-6FB5BD15E95A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2356,7 +2342,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D434-45AB-BBAA-0CF78E2EFC0C}"/>
+              <c16:uniqueId val="{00000000-CE70-4051-88FD-3C36AEC760D0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2486,7 +2472,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D434-45AB-BBAA-0CF78E2EFC0C}"/>
+              <c16:uniqueId val="{00000001-CE70-4051-88FD-3C36AEC760D0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2616,7 +2602,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-D434-45AB-BBAA-0CF78E2EFC0C}"/>
+              <c16:uniqueId val="{00000002-CE70-4051-88FD-3C36AEC760D0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2674,7 +2660,7 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="0"/>
+              <c:idx val="12"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -2729,9 +2715,6 @@
                       <a:avLst/>
                     </a:prstGeom>
                   </c15:spPr>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-D434-45AB-BBAA-0CF78E2EFC0C}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2903,7 +2886,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-D434-45AB-BBAA-0CF78E2EFC0C}"/>
+              <c16:uniqueId val="{00000004-CE70-4051-88FD-3C36AEC760D0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3273,7 +3256,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B33F-4DB4-8DA1-4B4B117DEFAB}"/>
+              <c16:uniqueId val="{00000000-1B3A-4158-8637-17EC9D382E1F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3397,7 +3380,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B33F-4DB4-8DA1-4B4B117DEFAB}"/>
+              <c16:uniqueId val="{00000001-1B3A-4158-8637-17EC9D382E1F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3521,7 +3504,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-B33F-4DB4-8DA1-4B4B117DEFAB}"/>
+              <c16:uniqueId val="{00000002-1B3A-4158-8637-17EC9D382E1F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3579,7 +3562,7 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="0"/>
+              <c:idx val="11"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -3634,9 +3617,6 @@
                       <a:avLst/>
                     </a:prstGeom>
                   </c15:spPr>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-B33F-4DB4-8DA1-4B4B117DEFAB}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3802,7 +3782,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-B33F-4DB4-8DA1-4B4B117DEFAB}"/>
+              <c16:uniqueId val="{00000004-1B3A-4158-8637-17EC9D382E1F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4172,7 +4152,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F7A4-44F4-B67C-FD16C4E8A329}"/>
+              <c16:uniqueId val="{00000000-97AA-473D-9E44-C7CEBBE3949E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4296,7 +4276,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F7A4-44F4-B67C-FD16C4E8A329}"/>
+              <c16:uniqueId val="{00000001-97AA-473D-9E44-C7CEBBE3949E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4420,7 +4400,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-F7A4-44F4-B67C-FD16C4E8A329}"/>
+              <c16:uniqueId val="{00000002-97AA-473D-9E44-C7CEBBE3949E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4478,7 +4458,7 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="0"/>
+              <c:idx val="11"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -4533,9 +4513,6 @@
                       <a:avLst/>
                     </a:prstGeom>
                   </c15:spPr>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-F7A4-44F4-B67C-FD16C4E8A329}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4701,7 +4678,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-F7A4-44F4-B67C-FD16C4E8A329}"/>
+              <c16:uniqueId val="{00000004-97AA-473D-9E44-C7CEBBE3949E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5065,7 +5042,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E06E-4D1E-9E7B-2A3EE85E0FFA}"/>
+              <c16:uniqueId val="{00000000-C868-4860-8B5C-A447D6066406}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5183,7 +5160,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E06E-4D1E-9E7B-2A3EE85E0FFA}"/>
+              <c16:uniqueId val="{00000001-C868-4860-8B5C-A447D6066406}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5301,7 +5278,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-E06E-4D1E-9E7B-2A3EE85E0FFA}"/>
+              <c16:uniqueId val="{00000002-C868-4860-8B5C-A447D6066406}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5359,7 +5336,7 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="0"/>
+              <c:idx val="10"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -5414,9 +5391,6 @@
                       <a:avLst/>
                     </a:prstGeom>
                   </c15:spPr>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-E06E-4D1E-9E7B-2A3EE85E0FFA}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -5576,7 +5550,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-E06E-4D1E-9E7B-2A3EE85E0FFA}"/>
+              <c16:uniqueId val="{00000004-C868-4860-8B5C-A447D6066406}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5880,7 +5854,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-AA4D-4CD6-8568-94149E8B7EB7}"/>
+              <c16:uniqueId val="{00000000-A064-4A41-AA5F-49332F859254}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5938,7 +5912,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-AA4D-4CD6-8568-94149E8B7EB7}"/>
+              <c16:uniqueId val="{00000001-A064-4A41-AA5F-49332F859254}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5996,7 +5970,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-AA4D-4CD6-8568-94149E8B7EB7}"/>
+              <c16:uniqueId val="{00000002-A064-4A41-AA5F-49332F859254}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6111,7 +6085,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-AA4D-4CD6-8568-94149E8B7EB7}"/>
+                  <c16:uniqueId val="{00000003-A064-4A41-AA5F-49332F859254}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -6211,7 +6185,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-AA4D-4CD6-8568-94149E8B7EB7}"/>
+              <c16:uniqueId val="{00000004-A064-4A41-AA5F-49332F859254}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6440,7 +6414,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D9285CE-493A-4C5C-86DD-B187F02C07B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24F43A03-A40E-4728-84E4-437877DD4872}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6473,7 +6447,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D14AC591-3ECE-460A-95C6-5F97A14476F1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FB9968F-CA91-472E-B9A6-DD6F4E5043F3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6506,7 +6480,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9B63A80-FD01-4A38-8F41-C2AEC3CE4CC2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEAADE21-8192-4E4D-81D1-CAFC9FA81C0B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6539,7 +6513,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5166A92F-CDB5-4B52-961C-ACC5943E263F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7AA5888-298B-4E46-AC6D-19C556A71980}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6572,7 +6546,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{573CB76B-3104-4B8F-97FB-E160FA11FA3D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A6B8DA0-1F71-420F-820B-A919E259DA4D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6605,7 +6579,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E81D2028-6009-4E8B-ACA1-F66357AF1249}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97A38C84-5FEB-4DF7-BDD4-5C516FF62EF9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6638,7 +6612,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A83025E4-235B-432B-8AF0-23E60AF37F86}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE89D048-9553-4BA6-B442-7702ABAD2B58}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7080,40 +7054,40 @@
       <c r="B3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="16">
         <v>5</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="16">
         <v>1</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="16">
         <v>8</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="16">
         <v>3</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="16">
         <v>7</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="16">
         <v>6</v>
       </c>
-      <c r="I3" s="12">
+      <c r="I3" s="16">
         <v>2</v>
       </c>
-      <c r="J3" s="12">
+      <c r="J3" s="16">
         <v>4</v>
       </c>
-      <c r="K3" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="L3" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="M3" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="N3" s="12" t="s">
+      <c r="K3" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="M3" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="N3" s="16" t="s">
         <v>54</v>
       </c>
     </row>
@@ -7124,40 +7098,40 @@
       <c r="B4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="16">
         <v>8</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="16">
         <v>5</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="16">
         <v>6</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="16">
         <v>7</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="16">
         <v>4</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="16">
         <v>1</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I4" s="16">
         <v>3</v>
       </c>
-      <c r="J4" s="12">
+      <c r="J4" s="16">
         <v>9</v>
       </c>
-      <c r="K4" s="12">
+      <c r="K4" s="16">
         <v>2</v>
       </c>
-      <c r="L4" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="M4" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="N4" s="12" t="s">
+      <c r="L4" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="M4" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="N4" s="16" t="s">
         <v>54</v>
       </c>
     </row>
@@ -7168,40 +7142,40 @@
       <c r="B5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="16">
         <v>5</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="16">
         <v>6</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="16">
         <v>2</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="16">
         <v>4</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="16">
         <v>1</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="16">
         <v>3</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="16">
         <v>7</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="16">
         <v>8</v>
       </c>
-      <c r="K5" s="12">
+      <c r="K5" s="16">
         <v>9</v>
       </c>
-      <c r="L5" s="12">
+      <c r="L5" s="16">
         <v>9</v>
       </c>
-      <c r="M5" s="12">
+      <c r="M5" s="16">
         <v>9</v>
       </c>
-      <c r="N5" s="12">
+      <c r="N5" s="16">
         <v>9</v>
       </c>
     </row>
@@ -7212,40 +7186,40 @@
       <c r="B6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="16">
         <v>6</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="16">
         <v>4</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="16">
         <v>5</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="16">
         <v>3</v>
       </c>
-      <c r="G6" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="H6" s="12">
+      <c r="G6" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" s="16">
         <v>1</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="16">
         <v>1</v>
       </c>
-      <c r="J6" s="12">
+      <c r="J6" s="16">
         <v>9</v>
       </c>
-      <c r="K6" s="12">
+      <c r="K6" s="16">
         <v>10</v>
       </c>
-      <c r="L6" s="12">
+      <c r="L6" s="16">
         <v>8</v>
       </c>
-      <c r="M6" s="12">
+      <c r="M6" s="16">
         <v>11</v>
       </c>
-      <c r="N6" s="12">
+      <c r="N6" s="16">
         <v>7</v>
       </c>
     </row>
@@ -7254,42 +7228,42 @@
         <v>50</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="12">
+        <v>52</v>
+      </c>
+      <c r="C7" s="16">
         <v>6</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="16">
         <v>4</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="16">
         <v>5.25</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="16">
         <v>4.25</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="16">
         <v>4</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="16">
         <v>2.75</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="16">
         <v>3.25</v>
       </c>
-      <c r="J7" s="12">
+      <c r="J7" s="16">
         <v>7.5</v>
       </c>
-      <c r="K7" s="12">
+      <c r="K7" s="16">
         <v>7</v>
       </c>
-      <c r="L7" s="12">
+      <c r="L7" s="16">
         <v>8.5</v>
       </c>
-      <c r="M7" s="12">
+      <c r="M7" s="16">
         <v>10</v>
       </c>
-      <c r="N7" s="12">
+      <c r="N7" s="16">
         <v>8</v>
       </c>
     </row>
@@ -7300,40 +7274,40 @@
       <c r="B8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="16">
         <v>8</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="16">
         <v>5</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="16">
         <v>3</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="16">
         <v>6</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="16">
         <v>11</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="16">
         <v>7</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="16">
         <v>4</v>
       </c>
-      <c r="J8" s="12">
+      <c r="J8" s="16">
         <v>10</v>
       </c>
-      <c r="K8" s="12">
+      <c r="K8" s="16">
         <v>9</v>
       </c>
-      <c r="L8" s="12">
+      <c r="L8" s="16">
         <v>2</v>
       </c>
-      <c r="M8" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="N8" s="12">
+      <c r="M8" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="N8" s="16">
         <v>1</v>
       </c>
     </row>
@@ -7344,40 +7318,40 @@
       <c r="B9" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="16">
         <v>2</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="16">
         <v>2</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="16">
         <v>2</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="16">
         <v>1</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="16">
         <v>2</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="16">
         <v>2</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I9" s="16">
         <v>2</v>
       </c>
-      <c r="J9" s="12">
+      <c r="J9" s="16">
         <v>2</v>
       </c>
-      <c r="K9" s="12">
+      <c r="K9" s="16">
         <v>2</v>
       </c>
-      <c r="L9" s="12">
+      <c r="L9" s="16">
         <v>2</v>
       </c>
-      <c r="M9" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="N9" s="12" t="s">
+      <c r="M9" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="N9" s="16" t="s">
         <v>54</v>
       </c>
     </row>
@@ -7386,42 +7360,42 @@
         <v>50</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="12">
+        <v>53</v>
+      </c>
+      <c r="C10" s="16">
         <v>5.71</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="16">
         <v>3.86</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="16">
         <v>4.46</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="16">
         <v>4.04</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="16">
         <v>4.83</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="16">
         <v>3.25</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I10" s="16">
         <v>3.18</v>
       </c>
-      <c r="J10" s="12">
+      <c r="J10" s="16">
         <v>7.07</v>
       </c>
-      <c r="K10" s="12">
+      <c r="K10" s="16">
         <v>6.5</v>
       </c>
-      <c r="L10" s="12">
+      <c r="L10" s="16">
         <v>5.9</v>
       </c>
-      <c r="M10" s="12">
+      <c r="M10" s="16">
         <v>10</v>
       </c>
-      <c r="N10" s="12">
+      <c r="N10" s="16">
         <v>6.25</v>
       </c>
     </row>
@@ -7432,40 +7406,40 @@
       <c r="B11" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="K11" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="L11" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="M11" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="N11" s="12" t="s">
+      <c r="C11" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J11" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="M11" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="N11" s="16" t="s">
         <v>54</v>
       </c>
     </row>
@@ -7476,60 +7450,60 @@
       <c r="B12" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="16">
         <v>5.71</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="16">
         <v>3.86</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="16">
         <v>4.46</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="16">
         <v>4.04</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="16">
         <v>4.83</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="16">
         <v>3.25</v>
       </c>
-      <c r="I12" s="12">
+      <c r="I12" s="16">
         <v>3.18</v>
       </c>
-      <c r="J12" s="12">
+      <c r="J12" s="16">
         <v>7.07</v>
       </c>
-      <c r="K12" s="12">
+      <c r="K12" s="16">
         <v>6.5</v>
       </c>
-      <c r="L12" s="12">
+      <c r="L12" s="16">
         <v>5.9</v>
       </c>
-      <c r="M12" s="12">
+      <c r="M12" s="16">
         <v>10</v>
       </c>
-      <c r="N12" s="12">
+      <c r="N12" s="16">
         <v>6.25</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" location="'1.1.1.1 學士班繁星推薦入學錄取率'!A1" display="學士班繁星推薦入學錄取率" xr:uid="{AF734C59-6DCA-4615-AC67-4EA92472C0E5}"/>
-    <hyperlink ref="B4" location="'1.1.3.4 博士班招收國內重點大學畢業生比率'!A1" display="博士班招收國內重點大學畢業生比率" xr:uid="{7D2BBEE5-D1B6-4871-9614-E68A752B8945}"/>
-    <hyperlink ref="B5" location="'1.4.1.1 學士班獲獎助學金平均金額'!A1" display="學士班獲獎助學金平均金額" xr:uid="{15202481-189D-4310-9753-530536BD6D83}"/>
-    <hyperlink ref="B6" location="'1.7.1.4 碩士班平均修業年限'!A1" display="碩士班平均修業年限" xr:uid="{BBED49B2-F3A4-44E0-A86E-5E8B46044CAB}"/>
-    <hyperlink ref="B8" location="'2.1.1.2 平均碩博士班修課學生人數'!A1" display="平均碩博士班修課學生人數" xr:uid="{9E0C66C2-9C28-48C7-9A11-AF4C9F69F525}"/>
-    <hyperlink ref="B9" location="'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!A1" display="各系所教師兼任本校二級學術行政主管人次" xr:uid="{4694BB2D-0DF2-47AF-B4F7-C8AFAC1C6198}"/>
-    <hyperlink ref="B11" location="'3.2.1.1 舉辦國際學術研討會數'!A1" display="舉辦國際學術研討會數" xr:uid="{0B1573D8-1BF8-40CD-9488-5422C250A1FB}"/>
+    <hyperlink ref="B3" location="'1.1.1.1 學士班繁星推薦入學錄取率'!A1" display="學士班繁星推薦入學錄取率" xr:uid="{5D1C6427-F42A-471C-BEBB-0A7CFB6FD2DC}"/>
+    <hyperlink ref="B4" location="'1.1.3.4 博士班招收國內重點大學畢業生比率'!A1" display="博士班招收國內重點大學畢業生比率" xr:uid="{4023E4F7-759E-4660-B011-18C670DEA6C1}"/>
+    <hyperlink ref="B5" location="'1.4.1.1 學士班獲獎助學金平均金額'!A1" display="學士班獲獎助學金平均金額" xr:uid="{0F3C3A85-D5E7-4076-BCD4-9209D81F9DD8}"/>
+    <hyperlink ref="B6" location="'1.7.1.4 碩士班平均修業年限'!A1" display="碩士班平均修業年限" xr:uid="{CF312876-50EF-4FC0-BBA5-A3CCB088812B}"/>
+    <hyperlink ref="B8" location="'2.1.1.2 平均碩博士班修課學生人數'!A1" display="平均碩博士班修課學生人數" xr:uid="{C407FB37-22BC-4F56-BF63-D042101CBE67}"/>
+    <hyperlink ref="B9" location="'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!A1" display="各系所教師兼任本校二級學術行政主管人次" xr:uid="{22A11671-F196-4EF5-9CD3-C14A5D27340B}"/>
+    <hyperlink ref="B11" location="'3.2.1.1 舉辦國際學術研討會數'!A1" display="舉辦國際學術研討會數" xr:uid="{0BF2DFF9-B2E1-4FE2-AA6F-961BD7DA85CE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BB05E04-A736-4B6E-8BC7-029C7B28F2DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF8AABB8-360C-4E34-AC9D-CE3232B969EA}">
   <sheetPr codeName="工作表1" filterMode="1"/>
   <dimension ref="A1:Q14"/>
   <sheetViews>
@@ -7580,16 +7554,16 @@
       <c r="B2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="10">
         <v>6.1400000000000003E-2</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="10">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="10">
         <v>4.7600000000000003E-2</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="11">
         <v>0.1</v>
       </c>
       <c r="G2" s="9">
@@ -7603,16 +7577,16 @@
       <c r="B3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="10">
         <v>7.9799999999999996E-2</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="10">
         <v>8.14E-2</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="10">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="10">
         <v>9.8599999999999993E-2</v>
       </c>
       <c r="G3" s="9">
@@ -7626,16 +7600,16 @@
       <c r="B4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="10">
         <v>8.8900000000000007E-2</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="10">
         <v>7.4800000000000005E-2</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="10">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="10">
         <v>0.21049999999999999</v>
       </c>
       <c r="G4" s="9">
@@ -7649,16 +7623,16 @@
       <c r="B5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="10">
         <v>9.4899999999999998E-2</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="10">
         <v>0.1111</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="10">
         <v>7.2099999999999997E-2</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="10">
         <v>0.1143</v>
       </c>
       <c r="G5" s="9">
@@ -7672,16 +7646,16 @@
       <c r="B6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="10">
         <v>0.122</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="10">
         <v>0.1237</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="11">
         <v>0.1</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="10">
         <v>0.15379999999999999</v>
       </c>
       <c r="G6" s="9">
@@ -7695,16 +7669,16 @@
       <c r="B7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="10">
         <v>0.12540000000000001</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="10">
         <v>0.1215</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="10">
         <v>9.4899999999999998E-2</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="10">
         <v>0.19400000000000001</v>
       </c>
       <c r="G7" s="9">
@@ -7718,16 +7692,16 @@
       <c r="B8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="10">
         <v>0.1598</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="10">
         <v>0.1646</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="10">
         <v>0.12039999999999999</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="10">
         <v>0.2281</v>
       </c>
       <c r="G8" s="9">
@@ -7741,16 +7715,16 @@
       <c r="B9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="10">
         <v>0.18909999999999999</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="10">
         <v>0.19739999999999999</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="10">
         <v>0.14560000000000001</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="10">
         <v>0.25419999999999998</v>
       </c>
       <c r="G9" s="9">
@@ -7764,16 +7738,16 @@
       <c r="B10" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="10">
         <v>0.1109</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="10">
         <v>0.11020000000000001</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="10">
         <v>8.5099999999999995E-2</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="10">
         <v>0.1615</v>
       </c>
       <c r="G10" s="9">
@@ -7787,16 +7761,16 @@
       <c r="B11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" s="10" t="s">
+      <c r="C11" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="12" t="s">
         <v>54</v>
       </c>
       <c r="G11" s="9" t="s">
@@ -7810,16 +7784,16 @@
       <c r="B12" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" s="10" t="s">
+      <c r="C12" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="12" t="s">
         <v>54</v>
       </c>
       <c r="G12" s="9" t="s">
@@ -7833,16 +7807,16 @@
       <c r="B13" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13" s="10" t="s">
+      <c r="C13" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="12" t="s">
         <v>54</v>
       </c>
       <c r="G13" s="9" t="s">
@@ -7856,16 +7830,16 @@
       <c r="B14" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" s="10" t="s">
+      <c r="C14" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="12" t="s">
         <v>54</v>
       </c>
       <c r="G14" s="9" t="s">
@@ -7883,7 +7857,7 @@
       <sortCondition ref="G1:G14"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G10">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G14">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7894,7 +7868,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E955FA20-D3DB-491F-B1AC-1C0D739288D8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBA6F579-146F-4C05-A70C-CB38DF073C43}">
   <sheetPr codeName="工作表2" filterMode="1"/>
   <dimension ref="A1:Q14"/>
   <sheetViews>
@@ -7907,8 +7881,7 @@
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
     <col min="3" max="4" width="7.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.25" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
@@ -7947,16 +7920,16 @@
       <c r="B2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="10">
         <v>0.58620000000000005</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="10">
         <v>0.44440000000000002</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="11">
         <v>0.7</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="11">
         <v>0.6</v>
       </c>
       <c r="G2" s="9">
@@ -7970,16 +7943,16 @@
       <c r="B3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="10">
         <v>0.4667</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="11">
         <v>0.4</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="11">
         <v>0.4</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="11">
         <v>0.6</v>
       </c>
       <c r="G3" s="9">
@@ -7993,16 +7966,16 @@
       <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="10">
         <v>0.42859999999999998</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="10">
         <v>0</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="11">
         <v>0.5</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="11">
         <v>1</v>
       </c>
       <c r="G4" s="9">
@@ -8016,16 +7989,16 @@
       <c r="B5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="10">
         <v>0.4194</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="10">
         <v>0.23080000000000001</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="11">
         <v>0.5</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="10">
         <v>0.625</v>
       </c>
       <c r="G5" s="9">
@@ -8039,16 +8012,16 @@
       <c r="B6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="10">
         <v>0.36840000000000001</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="11">
         <v>0.25</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="10">
         <v>0.375</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="10">
         <v>0.42859999999999998</v>
       </c>
       <c r="G6" s="9">
@@ -8062,16 +8035,16 @@
       <c r="B7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="10">
         <v>0.33329999999999999</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="10">
         <v>0</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="11">
         <v>1</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="12" t="s">
         <v>54</v>
       </c>
       <c r="G7" s="9">
@@ -8085,16 +8058,16 @@
       <c r="B8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="11">
         <v>0.2</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="10">
         <v>0</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="10">
         <v>0</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="11">
         <v>0.5</v>
       </c>
       <c r="G8" s="9">
@@ -8108,16 +8081,16 @@
       <c r="B9" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="10">
         <v>0.16669999999999999</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="10">
         <v>0</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="11">
         <v>1</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="10">
         <v>0</v>
       </c>
       <c r="G9" s="9">
@@ -8131,16 +8104,16 @@
       <c r="B10" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="10">
         <v>0</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="10">
         <v>0</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="10">
         <v>0</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="10">
         <v>0</v>
       </c>
       <c r="G10" s="9">
@@ -8154,16 +8127,16 @@
       <c r="B11" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="10">
         <v>0.41320000000000001</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="10">
         <v>0.24390000000000001</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="11">
         <v>0.5</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="11">
         <v>0.5</v>
       </c>
       <c r="G11" s="9">
@@ -8177,16 +8150,16 @@
       <c r="B12" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" s="10" t="s">
+      <c r="C12" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="12" t="s">
         <v>54</v>
       </c>
       <c r="G12" s="9" t="s">
@@ -8200,16 +8173,16 @@
       <c r="B13" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13" s="10" t="s">
+      <c r="C13" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="12" t="s">
         <v>54</v>
       </c>
       <c r="G13" s="9" t="s">
@@ -8223,16 +8196,16 @@
       <c r="B14" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" s="10" t="s">
+      <c r="C14" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="12" t="s">
         <v>54</v>
       </c>
       <c r="G14" s="9" t="s">
@@ -8250,7 +8223,7 @@
       <sortCondition ref="G1:G14"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G11">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G14">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -8261,7 +8234,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A65F834-1AC9-4564-942D-3547AD25C08B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DFAF91C-2110-4B7E-AF79-E7C675F08D47}">
   <sheetPr codeName="工作表3" filterMode="1"/>
   <dimension ref="A1:Q14"/>
   <sheetViews>
@@ -8273,7 +8246,7 @@
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="6" width="6.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="12.5" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
@@ -8312,16 +8285,16 @@
       <c r="B2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="13">
         <v>61247.839999999997</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="13">
         <v>50592.26</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="13">
         <v>63195.12</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="13">
         <v>72931</v>
       </c>
       <c r="G2" s="9">
@@ -8335,16 +8308,16 @@
       <c r="B3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="13">
         <v>40149.9</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="13">
         <v>34589.03</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="13">
         <v>46419.78</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="13">
         <v>39882</v>
       </c>
       <c r="G3" s="9">
@@ -8358,16 +8331,16 @@
       <c r="B4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="13">
         <v>37659.49</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="13">
         <v>33303.61</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="13">
         <v>39920.949999999997</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="13">
         <v>40128</v>
       </c>
       <c r="G4" s="9">
@@ -8381,16 +8354,16 @@
       <c r="B5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="13">
         <v>31048.84</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="13">
         <v>28390.54</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="13">
         <v>34856.29</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="13">
         <v>30775</v>
       </c>
       <c r="G5" s="9">
@@ -8404,16 +8377,16 @@
       <c r="B6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="13">
         <v>29834</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="13">
         <v>32060.92</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="13">
         <v>32026.67</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="13">
         <v>24672</v>
       </c>
       <c r="G6" s="9">
@@ -8427,16 +8400,16 @@
       <c r="B7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="13">
         <v>29240.81</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="13">
         <v>31334.33</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="13">
         <v>28237.03</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="13">
         <v>27459</v>
       </c>
       <c r="G7" s="9">
@@ -8450,16 +8423,16 @@
       <c r="B8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="13">
         <v>29162.45</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="13">
         <v>30335.8</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="13">
         <v>28684.47</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="13">
         <v>27819</v>
       </c>
       <c r="G8" s="9">
@@ -8473,16 +8446,16 @@
       <c r="B9" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="13">
         <v>24916.04</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="13">
         <v>28670.880000000001</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="13">
         <v>19224.87</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="13">
         <v>25541</v>
       </c>
       <c r="G9" s="9">
@@ -8496,16 +8469,16 @@
       <c r="B10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="13">
         <v>0</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" s="10" t="s">
+      <c r="D10" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="12" t="s">
         <v>54</v>
       </c>
       <c r="G10" s="9">
@@ -8519,16 +8492,16 @@
       <c r="B11" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="13">
         <v>0</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" s="10" t="s">
+      <c r="D11" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="12" t="s">
         <v>54</v>
       </c>
       <c r="G11" s="9">
@@ -8542,16 +8515,16 @@
       <c r="B12" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="13">
         <v>0</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" s="10" t="s">
+      <c r="D12" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="12" t="s">
         <v>54</v>
       </c>
       <c r="G12" s="9">
@@ -8565,16 +8538,16 @@
       <c r="B13" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="13">
         <v>0</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13" s="10" t="s">
+      <c r="D13" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="12" t="s">
         <v>54</v>
       </c>
       <c r="G13" s="9">
@@ -8588,16 +8561,16 @@
       <c r="B14" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="13">
         <v>38701.97</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="13">
         <v>35876.589999999997</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="13">
         <v>40166.74</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="13">
         <v>40765.440000000002</v>
       </c>
       <c r="G14" s="9">
@@ -8626,7 +8599,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD0852AF-6276-4BF2-ABA3-3A8520EC82B7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{575BB375-F3D7-4825-99DE-212A8EC6788B}">
   <sheetPr codeName="工作表4" filterMode="1"/>
   <dimension ref="A1:Q14"/>
   <sheetViews>
@@ -8638,7 +8611,7 @@
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="6" width="4.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="8.25" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
@@ -8667,7 +8640,7 @@
         <v>46</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
@@ -8677,16 +8650,16 @@
       <c r="B2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="14">
         <v>2.1800000000000002</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="14">
         <v>2.13</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="14">
         <v>2.2000000000000002</v>
       </c>
-      <c r="F2" s="15">
+      <c r="F2" s="14">
         <v>2.2000000000000002</v>
       </c>
       <c r="G2" s="9">
@@ -8700,16 +8673,16 @@
       <c r="B3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="14">
         <v>2.1800000000000002</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="14">
         <v>2.23</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="14">
         <v>2.13</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="14">
         <v>2.2000000000000002</v>
       </c>
       <c r="G3" s="9">
@@ -8723,16 +8696,16 @@
       <c r="B4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="14">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="14">
         <v>2.1800000000000002</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="14">
         <v>2.21</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="14">
         <v>2.2000000000000002</v>
       </c>
       <c r="G4" s="9">
@@ -8746,16 +8719,16 @@
       <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="14">
         <v>2.2200000000000002</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="14">
         <v>2.25</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="14">
         <v>2.21</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="14">
         <v>2.2000000000000002</v>
       </c>
       <c r="G5" s="9">
@@ -8769,16 +8742,16 @@
       <c r="B6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="14">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="14">
         <v>2.4</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="14">
         <v>2.3199999999999998</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="14">
         <v>2.2000000000000002</v>
       </c>
       <c r="G6" s="9">
@@ -8792,16 +8765,16 @@
       <c r="B7" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="14">
         <v>2.38</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="14">
         <v>2.23</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="14">
         <v>2.34</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="14">
         <v>2.5</v>
       </c>
       <c r="G7" s="9">
@@ -8815,16 +8788,16 @@
       <c r="B8" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="14">
         <v>2.48</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="14">
         <v>2.4700000000000002</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="14">
         <v>2.5</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="14">
         <v>2.5</v>
       </c>
       <c r="G8" s="9">
@@ -8838,16 +8811,16 @@
       <c r="B9" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="14">
         <v>2.67</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="14">
         <v>2.52</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="14">
         <v>2.63</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="14">
         <v>2.8</v>
       </c>
       <c r="G9" s="9">
@@ -8861,16 +8834,16 @@
       <c r="B10" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="14">
         <v>2.86</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="14">
         <v>2.96</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="14">
         <v>2.57</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="15">
         <v>3</v>
       </c>
       <c r="G10" s="9">
@@ -8884,16 +8857,16 @@
       <c r="B11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="14">
         <v>3.03</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="14">
         <v>3.06</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="14">
         <v>3.13</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="14">
         <v>2.9</v>
       </c>
       <c r="G11" s="9">
@@ -8907,16 +8880,16 @@
       <c r="B12" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="14">
         <v>3.47</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="14">
         <v>3.38</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="14">
         <v>3.68</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="14">
         <v>3.4</v>
       </c>
       <c r="G12" s="9">
@@ -8930,16 +8903,16 @@
       <c r="B13" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="14">
         <v>2.73</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="14">
         <v>2.71</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="14">
         <v>2.77</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="14">
         <v>2.72</v>
       </c>
       <c r="G13" s="9">
@@ -8953,16 +8926,16 @@
       <c r="B14" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" s="10" t="s">
+      <c r="C14" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="12" t="s">
         <v>54</v>
       </c>
       <c r="G14" s="9" t="s">
@@ -8980,7 +8953,7 @@
       <sortCondition ref="G1:G14"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G13">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G14">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -8991,7 +8964,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AE6FEEA-6B32-4A33-8BFB-DA89B9AA65D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84785D4A-8CFA-470A-A117-0F914195BC32}">
   <sheetPr codeName="工作表5" filterMode="1"/>
   <dimension ref="A1:Q14"/>
   <sheetViews>
@@ -9003,7 +8976,8 @@
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="6" width="5.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.25" style="6" customWidth="1"/>
+    <col min="4" max="6" width="9.25" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
@@ -9032,7 +9006,7 @@
         <v>46</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
@@ -9042,16 +9016,16 @@
       <c r="B2" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="14">
         <v>33.659999999999997</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="14">
         <v>30.03</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="14">
         <v>34.520000000000003</v>
       </c>
-      <c r="F2" s="15">
+      <c r="F2" s="14">
         <v>36.71</v>
       </c>
       <c r="G2" s="9">
@@ -9065,16 +9039,16 @@
       <c r="B3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="14">
         <v>30.33</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="14">
         <v>29.42</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="14">
         <v>27.54</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="14">
         <v>33.96</v>
       </c>
       <c r="G3" s="9">
@@ -9088,16 +9062,16 @@
       <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="14">
         <v>22.61</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="14">
         <v>20.79</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="14">
         <v>20.85</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="14">
         <v>27.08</v>
       </c>
       <c r="G4" s="9">
@@ -9111,16 +9085,16 @@
       <c r="B5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="14">
         <v>20.73</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="14">
         <v>18.61</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="14">
         <v>19.649999999999999</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="14">
         <v>24.95</v>
       </c>
       <c r="G5" s="9">
@@ -9134,16 +9108,16 @@
       <c r="B6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="14">
         <v>20.43</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="14">
         <v>19.38</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="14">
         <v>22.9</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="14">
         <v>19.18</v>
       </c>
       <c r="G6" s="9">
@@ -9157,16 +9131,16 @@
       <c r="B7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="14">
         <v>20.23</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="14">
         <v>18.23</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="14">
         <v>22.95</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="14">
         <v>20.04</v>
       </c>
       <c r="G7" s="9">
@@ -9180,16 +9154,16 @@
       <c r="B8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="14">
         <v>15.83</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="14">
         <v>14.78</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="14">
         <v>14.17</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="14">
         <v>18.5</v>
       </c>
       <c r="G8" s="9">
@@ -9203,16 +9177,16 @@
       <c r="B9" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="14">
         <v>15.07</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="14">
         <v>15.64</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="14">
         <v>13.55</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="14">
         <v>16.02</v>
       </c>
       <c r="G9" s="9">
@@ -9226,16 +9200,16 @@
       <c r="B10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="14">
         <v>13.85</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="14">
         <v>14.33</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="14">
         <v>13.61</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="14">
         <v>13.61</v>
       </c>
       <c r="G10" s="9">
@@ -9249,16 +9223,16 @@
       <c r="B11" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="14">
         <v>12.23</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="14">
         <v>12.63</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="14">
         <v>12.45</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="14">
         <v>11.51</v>
       </c>
       <c r="G11" s="9">
@@ -9272,16 +9246,16 @@
       <c r="B12" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="14">
         <v>3.07</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="14">
         <v>3.21</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="14">
         <v>3.14</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="14">
         <v>2.86</v>
       </c>
       <c r="G12" s="9">
@@ -9295,16 +9269,16 @@
       <c r="B13" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="14">
         <v>19.920000000000002</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="14">
         <v>19.399999999999999</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="14">
         <v>19.22</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="14">
         <v>21.21</v>
       </c>
       <c r="G13" s="9">
@@ -9318,16 +9292,16 @@
       <c r="B14" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" s="10" t="s">
+      <c r="C14" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="12" t="s">
         <v>54</v>
       </c>
       <c r="G14" s="9" t="s">
@@ -9345,7 +9319,7 @@
       <sortCondition ref="G1:G14"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G13">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G14">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -9356,7 +9330,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBC0D196-92CE-45DC-AF4C-4442A30FAF97}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23AB25A0-B396-492F-9E1E-DFF476E3A05C}">
   <sheetPr codeName="工作表6" filterMode="1"/>
   <dimension ref="A1:Q14"/>
   <sheetViews>
@@ -9368,8 +9342,9 @@
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="4.875" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="3.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.25" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
@@ -9398,7 +9373,7 @@
         <v>46</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
@@ -9408,16 +9383,16 @@
       <c r="B2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="14">
         <v>0.67</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="14">
         <v>0</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="15">
         <v>1</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="15">
         <v>1</v>
       </c>
       <c r="G2" s="9">
@@ -9431,16 +9406,16 @@
       <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="14">
         <v>0</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="14">
         <v>0</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="14">
         <v>0</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="14">
         <v>0</v>
       </c>
       <c r="G3" s="9">
@@ -9454,16 +9429,16 @@
       <c r="B4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="14">
         <v>0</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="14">
         <v>0</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="14">
         <v>0</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="14">
         <v>0</v>
       </c>
       <c r="G4" s="9">
@@ -9477,16 +9452,16 @@
       <c r="B5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="14">
         <v>0</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="14">
         <v>0</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="14">
         <v>0</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="14">
         <v>0</v>
       </c>
       <c r="G5" s="9">
@@ -9500,16 +9475,16 @@
       <c r="B6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="14">
         <v>0</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="14">
         <v>0</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="14">
         <v>0</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="14">
         <v>0</v>
       </c>
       <c r="G6" s="9">
@@ -9523,16 +9498,16 @@
       <c r="B7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="14">
         <v>0</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="14">
         <v>0</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="14">
         <v>0</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="14">
         <v>0</v>
       </c>
       <c r="G7" s="9">
@@ -9546,16 +9521,16 @@
       <c r="B8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="14">
         <v>0</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="14">
         <v>0</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="14">
         <v>0</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="14">
         <v>0</v>
       </c>
       <c r="G8" s="9">
@@ -9569,16 +9544,16 @@
       <c r="B9" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="14">
         <v>0</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="14">
         <v>0</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="14">
         <v>0</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="14">
         <v>0</v>
       </c>
       <c r="G9" s="9">
@@ -9592,16 +9567,16 @@
       <c r="B10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="14">
         <v>0</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="14">
         <v>0</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="14">
         <v>0</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="14">
         <v>0</v>
       </c>
       <c r="G10" s="9">
@@ -9615,16 +9590,16 @@
       <c r="B11" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="14">
         <v>0</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="14">
         <v>0</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="14">
         <v>0</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="14">
         <v>0</v>
       </c>
       <c r="G11" s="9">
@@ -9638,16 +9613,16 @@
       <c r="B12" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="14">
         <v>0.67</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="14">
         <v>0</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="15">
         <v>1</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12" s="15">
         <v>1</v>
       </c>
       <c r="G12" s="9">
@@ -9661,16 +9636,16 @@
       <c r="B13" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13" s="10" t="s">
+      <c r="C13" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="12" t="s">
         <v>54</v>
       </c>
       <c r="G13" s="9" t="s">
@@ -9684,16 +9659,16 @@
       <c r="B14" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" s="10" t="s">
+      <c r="C14" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="12" t="s">
         <v>54</v>
       </c>
       <c r="G14" s="9" t="s">
@@ -9711,7 +9686,7 @@
       <sortCondition ref="G1:G14"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G12">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G14">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -9722,7 +9697,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DE724D7-C836-41E7-ACA3-67404F985A20}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FC96F5D-ECDE-44E4-AC74-6AF1BA027210}">
   <sheetPr codeName="工作表7" filterMode="1"/>
   <dimension ref="A1:Q14"/>
   <sheetViews>
@@ -9763,7 +9738,7 @@
         <v>46</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
@@ -9773,16 +9748,16 @@
       <c r="B2" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F2" s="10" t="s">
+      <c r="C2" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>54</v>
       </c>
       <c r="G2" s="9">
@@ -9796,16 +9771,16 @@
       <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F3" s="10" t="s">
+      <c r="C3" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="12" t="s">
         <v>54</v>
       </c>
       <c r="G3" s="9" t="s">
@@ -9819,16 +9794,16 @@
       <c r="B4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F4" s="10" t="s">
+      <c r="C4" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="12" t="s">
         <v>54</v>
       </c>
       <c r="G4" s="9" t="s">
@@ -9842,16 +9817,16 @@
       <c r="B5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F5" s="10" t="s">
+      <c r="C5" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="12" t="s">
         <v>54</v>
       </c>
       <c r="G5" s="9" t="s">
@@ -9865,16 +9840,16 @@
       <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F6" s="10" t="s">
+      <c r="C6" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="12" t="s">
         <v>54</v>
       </c>
       <c r="G6" s="9" t="s">
@@ -9888,16 +9863,16 @@
       <c r="B7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" s="10" t="s">
+      <c r="C7" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="12" t="s">
         <v>54</v>
       </c>
       <c r="G7" s="9" t="s">
@@ -9911,16 +9886,16 @@
       <c r="B8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F8" s="10" t="s">
+      <c r="C8" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="12" t="s">
         <v>54</v>
       </c>
       <c r="G8" s="9" t="s">
@@ -9934,16 +9909,16 @@
       <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" s="10" t="s">
+      <c r="C9" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="12" t="s">
         <v>54</v>
       </c>
       <c r="G9" s="9" t="s">
@@ -9957,16 +9932,16 @@
       <c r="B10" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" s="10" t="s">
+      <c r="C10" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="12" t="s">
         <v>54</v>
       </c>
       <c r="G10" s="9" t="s">
@@ -9980,16 +9955,16 @@
       <c r="B11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" s="10" t="s">
+      <c r="C11" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="12" t="s">
         <v>54</v>
       </c>
       <c r="G11" s="9" t="s">
@@ -10003,16 +9978,16 @@
       <c r="B12" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" s="10" t="s">
+      <c r="C12" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="12" t="s">
         <v>54</v>
       </c>
       <c r="G12" s="9" t="s">
@@ -10026,16 +10001,16 @@
       <c r="B13" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13" s="10" t="s">
+      <c r="C13" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="12" t="s">
         <v>54</v>
       </c>
       <c r="G13" s="9" t="s">
@@ -10049,16 +10024,16 @@
       <c r="B14" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" s="10" t="s">
+      <c r="C14" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="12" t="s">
         <v>54</v>
       </c>
       <c r="G14" s="9" t="s">
@@ -10076,7 +10051,7 @@
       <sortCondition ref="G1:G14"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G14">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/test/1. 各院彙整資料/商學院.xlsx
+++ b/test/1. 各院彙整資料/商學院.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\學評組工讀生\應數碩三_陳慎逸\3. Index-Evaluation-Analysis-Report\test\1. 各院彙整資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F816E0-3913-437F-B661-857F2BCE3168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB3C800-F05F-4943-88EB-39EBB217E122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="14580" windowHeight="10230" firstSheet="5" activeTab="7" xr2:uid="{43661B9F-549E-45C0-867C-82B2E6390FF3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="7" xr2:uid="{43661B9F-549E-45C0-867C-82B2E6390FF3}"/>
   </bookViews>
   <sheets>
     <sheet name="小結" sheetId="1" r:id="rId1"/>
-    <sheet name="1.1.1.1 學士班繁星推薦入學錄取率" sheetId="100" r:id="rId2"/>
-    <sheet name="1.1.3.4 博士班招收國內重點大學畢業生比率" sheetId="101" r:id="rId3"/>
-    <sheet name="1.4.1.1 學士班獲獎助學金平均金額" sheetId="102" r:id="rId4"/>
-    <sheet name="1.7.1.4 碩士班平均修業年限" sheetId="103" r:id="rId5"/>
-    <sheet name="2.1.1.2 平均碩博士班修課學生人數" sheetId="104" r:id="rId6"/>
-    <sheet name="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" sheetId="105" r:id="rId7"/>
-    <sheet name="3.2.1.1 舉辦國際學術研討會數" sheetId="106" r:id="rId8"/>
+    <sheet name="1.1.1.1 學士班繁星推薦入學錄取率" sheetId="114" r:id="rId2"/>
+    <sheet name="1.1.3.4 博士班招收國內重點大學畢業生比率" sheetId="115" r:id="rId3"/>
+    <sheet name="1.4.1.1 學士班獲獎助學金平均金額" sheetId="116" r:id="rId4"/>
+    <sheet name="1.7.1.4 碩士班平均修業年限" sheetId="117" r:id="rId5"/>
+    <sheet name="2.1.1.2 平均碩博士班修課學生人數" sheetId="118" r:id="rId6"/>
+    <sheet name="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" sheetId="119" r:id="rId7"/>
+    <sheet name="3.2.1.1 舉辦國際學術研討會數" sheetId="120" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1.1.1.1 學士班繁星推薦入學錄取率'!$A$1:$G$14</definedName>
@@ -646,7 +646,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FC68-4290-BEF0-ED29F884E663}"/>
+              <c16:uniqueId val="{00000000-10A3-4543-9AFB-81B3DE2B18AA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -752,7 +752,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-FC68-4290-BEF0-ED29F884E663}"/>
+              <c16:uniqueId val="{00000001-10A3-4543-9AFB-81B3DE2B18AA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -858,7 +858,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-FC68-4290-BEF0-ED29F884E663}"/>
+              <c16:uniqueId val="{00000002-10A3-4543-9AFB-81B3DE2B18AA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1118,7 +1118,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-FC68-4290-BEF0-ED29F884E663}"/>
+              <c16:uniqueId val="{00000004-10A3-4543-9AFB-81B3DE2B18AA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1476,7 +1476,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9BEA-4E51-B1D3-6FB5BD15E95A}"/>
+              <c16:uniqueId val="{00000000-B771-4A3E-8F5F-32F94BD538D8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1588,7 +1588,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9BEA-4E51-B1D3-6FB5BD15E95A}"/>
+              <c16:uniqueId val="{00000001-B771-4A3E-8F5F-32F94BD538D8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1700,7 +1700,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-9BEA-4E51-B1D3-6FB5BD15E95A}"/>
+              <c16:uniqueId val="{00000002-B771-4A3E-8F5F-32F94BD538D8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1966,7 +1966,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-9BEA-4E51-B1D3-6FB5BD15E95A}"/>
+              <c16:uniqueId val="{00000004-B771-4A3E-8F5F-32F94BD538D8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2342,7 +2342,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CE70-4051-88FD-3C36AEC760D0}"/>
+              <c16:uniqueId val="{00000000-F8AF-4402-A7E2-ED656FC3404D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2472,7 +2472,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-CE70-4051-88FD-3C36AEC760D0}"/>
+              <c16:uniqueId val="{00000001-F8AF-4402-A7E2-ED656FC3404D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2602,7 +2602,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-CE70-4051-88FD-3C36AEC760D0}"/>
+              <c16:uniqueId val="{00000002-F8AF-4402-A7E2-ED656FC3404D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2886,7 +2886,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-CE70-4051-88FD-3C36AEC760D0}"/>
+              <c16:uniqueId val="{00000004-F8AF-4402-A7E2-ED656FC3404D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3256,7 +3256,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1B3A-4158-8637-17EC9D382E1F}"/>
+              <c16:uniqueId val="{00000000-6EFC-4F4E-A0EF-7C7C4D61A4F3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3380,7 +3380,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1B3A-4158-8637-17EC9D382E1F}"/>
+              <c16:uniqueId val="{00000001-6EFC-4F4E-A0EF-7C7C4D61A4F3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3504,7 +3504,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-1B3A-4158-8637-17EC9D382E1F}"/>
+              <c16:uniqueId val="{00000002-6EFC-4F4E-A0EF-7C7C4D61A4F3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3782,7 +3782,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-1B3A-4158-8637-17EC9D382E1F}"/>
+              <c16:uniqueId val="{00000004-6EFC-4F4E-A0EF-7C7C4D61A4F3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4152,7 +4152,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-97AA-473D-9E44-C7CEBBE3949E}"/>
+              <c16:uniqueId val="{00000000-5138-4A42-A15A-512D987D9AB5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4276,7 +4276,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-97AA-473D-9E44-C7CEBBE3949E}"/>
+              <c16:uniqueId val="{00000001-5138-4A42-A15A-512D987D9AB5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4400,7 +4400,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-97AA-473D-9E44-C7CEBBE3949E}"/>
+              <c16:uniqueId val="{00000002-5138-4A42-A15A-512D987D9AB5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4678,7 +4678,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-97AA-473D-9E44-C7CEBBE3949E}"/>
+              <c16:uniqueId val="{00000004-5138-4A42-A15A-512D987D9AB5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5042,7 +5042,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C868-4860-8B5C-A447D6066406}"/>
+              <c16:uniqueId val="{00000000-1964-4112-96A5-178252889D90}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5160,7 +5160,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C868-4860-8B5C-A447D6066406}"/>
+              <c16:uniqueId val="{00000001-1964-4112-96A5-178252889D90}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5278,7 +5278,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-C868-4860-8B5C-A447D6066406}"/>
+              <c16:uniqueId val="{00000002-1964-4112-96A5-178252889D90}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5550,7 +5550,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-C868-4860-8B5C-A447D6066406}"/>
+              <c16:uniqueId val="{00000004-1964-4112-96A5-178252889D90}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5854,7 +5854,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A064-4A41-AA5F-49332F859254}"/>
+              <c16:uniqueId val="{00000000-E668-4297-B3DE-10CB7EE871ED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5912,7 +5912,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A064-4A41-AA5F-49332F859254}"/>
+              <c16:uniqueId val="{00000001-E668-4297-B3DE-10CB7EE871ED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5970,7 +5970,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-A064-4A41-AA5F-49332F859254}"/>
+              <c16:uniqueId val="{00000002-E668-4297-B3DE-10CB7EE871ED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6085,7 +6085,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-A064-4A41-AA5F-49332F859254}"/>
+                  <c16:uniqueId val="{00000003-E668-4297-B3DE-10CB7EE871ED}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -6185,7 +6185,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-A064-4A41-AA5F-49332F859254}"/>
+              <c16:uniqueId val="{00000004-E668-4297-B3DE-10CB7EE871ED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6414,7 +6414,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24F43A03-A40E-4728-84E4-437877DD4872}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55E2CC0F-D169-4C86-83AE-F40B85C9220E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6447,7 +6447,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FB9968F-CA91-472E-B9A6-DD6F4E5043F3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BF2A523-413D-466F-BB6C-F426AAD99D70}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6480,7 +6480,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEAADE21-8192-4E4D-81D1-CAFC9FA81C0B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08B85E7F-BC57-4BCB-B0C7-8BF343A8B3FF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6513,7 +6513,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7AA5888-298B-4E46-AC6D-19C556A71980}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AA32C8D-A941-45A0-9929-E7A7C900BA15}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6546,7 +6546,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A6B8DA0-1F71-420F-820B-A919E259DA4D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BE35055-183A-4025-962B-17A66BF63D20}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6579,7 +6579,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97A38C84-5FEB-4DF7-BDD4-5C516FF62EF9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2225FA9F-243F-4B43-A174-8FA466625E0E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6612,7 +6612,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE89D048-9553-4BA6-B442-7702ABAD2B58}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E80D1DD2-FE2D-4B5B-BD77-A8D2D280805B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7490,22 +7490,22 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" location="'1.1.1.1 學士班繁星推薦入學錄取率'!A1" display="學士班繁星推薦入學錄取率" xr:uid="{5D1C6427-F42A-471C-BEBB-0A7CFB6FD2DC}"/>
-    <hyperlink ref="B4" location="'1.1.3.4 博士班招收國內重點大學畢業生比率'!A1" display="博士班招收國內重點大學畢業生比率" xr:uid="{4023E4F7-759E-4660-B011-18C670DEA6C1}"/>
-    <hyperlink ref="B5" location="'1.4.1.1 學士班獲獎助學金平均金額'!A1" display="學士班獲獎助學金平均金額" xr:uid="{0F3C3A85-D5E7-4076-BCD4-9209D81F9DD8}"/>
-    <hyperlink ref="B6" location="'1.7.1.4 碩士班平均修業年限'!A1" display="碩士班平均修業年限" xr:uid="{CF312876-50EF-4FC0-BBA5-A3CCB088812B}"/>
-    <hyperlink ref="B8" location="'2.1.1.2 平均碩博士班修課學生人數'!A1" display="平均碩博士班修課學生人數" xr:uid="{C407FB37-22BC-4F56-BF63-D042101CBE67}"/>
-    <hyperlink ref="B9" location="'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!A1" display="各系所教師兼任本校二級學術行政主管人次" xr:uid="{22A11671-F196-4EF5-9CD3-C14A5D27340B}"/>
-    <hyperlink ref="B11" location="'3.2.1.1 舉辦國際學術研討會數'!A1" display="舉辦國際學術研討會數" xr:uid="{0BF2DFF9-B2E1-4FE2-AA6F-961BD7DA85CE}"/>
+    <hyperlink ref="B3" location="'1.1.1.1 學士班繁星推薦入學錄取率'!A1" display="學士班繁星推薦入學錄取率" xr:uid="{63A63973-8A12-4776-A3D3-91998E6D4AA1}"/>
+    <hyperlink ref="B4" location="'1.1.3.4 博士班招收國內重點大學畢業生比率'!A1" display="博士班招收國內重點大學畢業生比率" xr:uid="{39456D93-BC4E-43E9-9E6B-DC7F897CFEC8}"/>
+    <hyperlink ref="B5" location="'1.4.1.1 學士班獲獎助學金平均金額'!A1" display="學士班獲獎助學金平均金額" xr:uid="{9CB4FDF3-2688-440A-A85F-8404F2B34C83}"/>
+    <hyperlink ref="B6" location="'1.7.1.4 碩士班平均修業年限'!A1" display="碩士班平均修業年限" xr:uid="{933746FD-D020-46A4-AF96-14D6387FD29E}"/>
+    <hyperlink ref="B8" location="'2.1.1.2 平均碩博士班修課學生人數'!A1" display="平均碩博士班修課學生人數" xr:uid="{D1898597-EDA6-41D2-B4F2-447C77542F6C}"/>
+    <hyperlink ref="B9" location="'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!A1" display="各系所教師兼任本校二級學術行政主管人次" xr:uid="{69AD0017-DE62-4BCF-8263-C4BA9452BEA0}"/>
+    <hyperlink ref="B11" location="'3.2.1.1 舉辦國際學術研討會數'!A1" display="舉辦國際學術研討會數" xr:uid="{34550E6B-2C59-4A17-A9AF-D57E647B60CF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF8AABB8-360C-4E34-AC9D-CE3232B969EA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBDDED63-2A41-4665-AEEF-1C72CA771112}">
   <sheetPr codeName="工作表1" filterMode="1"/>
-  <dimension ref="A1:Q14"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
@@ -7521,7 +7521,7 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>40</v>
       </c>
@@ -7543,11 +7543,11 @@
       <c r="G1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
@@ -7570,7 +7570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>14</v>
       </c>
@@ -7593,7 +7593,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
@@ -7616,7 +7616,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>16</v>
       </c>
@@ -7639,7 +7639,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>2</v>
       </c>
@@ -7662,7 +7662,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>12</v>
       </c>
@@ -7685,7 +7685,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>10</v>
       </c>
@@ -7708,7 +7708,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>6</v>
       </c>
@@ -7731,7 +7731,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>0</v>
       </c>
@@ -7754,7 +7754,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>18</v>
       </c>
@@ -7777,7 +7777,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>20</v>
       </c>
@@ -7800,7 +7800,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>22</v>
       </c>
@@ -7823,7 +7823,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>24</v>
       </c>
@@ -7868,9 +7868,9 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBA6F579-146F-4C05-A70C-CB38DF073C43}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A8F9DBB-6C83-4B0A-9BB4-15B3DCA853A3}">
   <sheetPr codeName="工作表2" filterMode="1"/>
-  <dimension ref="A1:Q14"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
@@ -7887,7 +7887,7 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>40</v>
       </c>
@@ -7909,11 +7909,11 @@
       <c r="G1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>12</v>
       </c>
@@ -7936,7 +7936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>18</v>
       </c>
@@ -7959,7 +7959,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>14</v>
       </c>
@@ -7982,7 +7982,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
@@ -8005,7 +8005,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>4</v>
       </c>
@@ -8028,7 +8028,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
@@ -8051,7 +8051,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
@@ -8074,7 +8074,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>2</v>
       </c>
@@ -8097,7 +8097,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>16</v>
       </c>
@@ -8120,7 +8120,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>0</v>
       </c>
@@ -8143,7 +8143,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>20</v>
       </c>
@@ -8166,7 +8166,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>22</v>
       </c>
@@ -8189,7 +8189,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>24</v>
       </c>
@@ -8234,9 +8234,9 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DFAF91C-2110-4B7E-AF79-E7C675F08D47}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B40DA38-15A4-4992-9141-F76FA23355B9}">
   <sheetPr codeName="工作表3" filterMode="1"/>
-  <dimension ref="A1:Q14"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
@@ -8252,7 +8252,7 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>40</v>
       </c>
@@ -8274,11 +8274,11 @@
       <c r="G1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>10</v>
       </c>
@@ -8301,7 +8301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
@@ -8324,7 +8324,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>12</v>
       </c>
@@ -8347,7 +8347,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
@@ -8370,7 +8370,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>2</v>
       </c>
@@ -8393,7 +8393,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>4</v>
       </c>
@@ -8416,7 +8416,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>14</v>
       </c>
@@ -8439,7 +8439,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>16</v>
       </c>
@@ -8462,7 +8462,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>18</v>
       </c>
@@ -8485,7 +8485,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>20</v>
       </c>
@@ -8508,7 +8508,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>22</v>
       </c>
@@ -8531,7 +8531,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>24</v>
       </c>
@@ -8554,7 +8554,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>0</v>
       </c>
@@ -8599,9 +8599,9 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{575BB375-F3D7-4825-99DE-212A8EC6788B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55A8D904-E193-465C-A281-196C09481226}">
   <sheetPr codeName="工作表4" filterMode="1"/>
-  <dimension ref="A1:Q14"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
@@ -8617,7 +8617,7 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>40</v>
       </c>
@@ -8639,11 +8639,11 @@
       <c r="G1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>12</v>
       </c>
@@ -8666,7 +8666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>14</v>
       </c>
@@ -8689,7 +8689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
@@ -8712,7 +8712,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
@@ -8735,7 +8735,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>6</v>
       </c>
@@ -8758,7 +8758,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>2</v>
       </c>
@@ -8781,7 +8781,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>24</v>
       </c>
@@ -8804,7 +8804,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>20</v>
       </c>
@@ -8827,7 +8827,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>16</v>
       </c>
@@ -8850,7 +8850,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>18</v>
       </c>
@@ -8873,7 +8873,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>22</v>
       </c>
@@ -8896,7 +8896,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>0</v>
       </c>
@@ -8919,7 +8919,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>10</v>
       </c>
@@ -8964,9 +8964,9 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84785D4A-8CFA-470A-A117-0F914195BC32}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54A155EB-C3FC-4914-8D37-809263492620}">
   <sheetPr codeName="工作表5" filterMode="1"/>
-  <dimension ref="A1:Q14"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
@@ -8983,7 +8983,7 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>40</v>
       </c>
@@ -9005,11 +9005,11 @@
       <c r="G1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>24</v>
       </c>
@@ -9032,7 +9032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>20</v>
       </c>
@@ -9055,7 +9055,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
@@ -9078,7 +9078,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>14</v>
       </c>
@@ -9101,7 +9101,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>4</v>
       </c>
@@ -9124,7 +9124,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>8</v>
       </c>
@@ -9147,7 +9147,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
@@ -9170,7 +9170,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>2</v>
       </c>
@@ -9193,7 +9193,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>18</v>
       </c>
@@ -9216,7 +9216,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>16</v>
       </c>
@@ -9239,7 +9239,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>10</v>
       </c>
@@ -9262,7 +9262,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>0</v>
       </c>
@@ -9285,7 +9285,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>22</v>
       </c>
@@ -9330,9 +9330,9 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23AB25A0-B396-492F-9E1E-DFF476E3A05C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A80E597-DA93-4BFA-B2D5-F70D4FB3F3D7}">
   <sheetPr codeName="工作表6" filterMode="1"/>
-  <dimension ref="A1:Q14"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
@@ -9350,7 +9350,7 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>40</v>
       </c>
@@ -9372,11 +9372,11 @@
       <c r="G1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>8</v>
       </c>
@@ -9399,7 +9399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
@@ -9422,7 +9422,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
@@ -9445,7 +9445,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
@@ -9468,7 +9468,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
@@ -9491,7 +9491,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>12</v>
       </c>
@@ -9514,7 +9514,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>14</v>
       </c>
@@ -9537,7 +9537,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>16</v>
       </c>
@@ -9560,7 +9560,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>18</v>
       </c>
@@ -9583,7 +9583,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>20</v>
       </c>
@@ -9606,7 +9606,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>0</v>
       </c>
@@ -9629,7 +9629,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>22</v>
       </c>
@@ -9652,7 +9652,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>24</v>
       </c>
@@ -9697,9 +9697,9 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FC96F5D-ECDE-44E4-AC74-6AF1BA027210}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05B275F8-2C64-44A6-B434-1E144AFD2A01}">
   <sheetPr codeName="工作表7" filterMode="1"/>
-  <dimension ref="A1:Q14"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
@@ -9715,7 +9715,7 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>40</v>
       </c>
@@ -9737,11 +9737,11 @@
       <c r="G1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -9764,7 +9764,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
@@ -9787,7 +9787,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
@@ -9810,7 +9810,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
@@ -9833,7 +9833,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>8</v>
       </c>
@@ -9856,7 +9856,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>10</v>
       </c>
@@ -9879,7 +9879,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
@@ -9902,7 +9902,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>14</v>
       </c>
@@ -9925,7 +9925,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>16</v>
       </c>
@@ -9948,7 +9948,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>18</v>
       </c>
@@ -9971,7 +9971,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>20</v>
       </c>
@@ -9994,7 +9994,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>22</v>
       </c>
@@ -10017,7 +10017,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>24</v>
       </c>
